--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3937,6 +3937,22 @@
       <c r="D199" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="n">
+        <v>382.04</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -3951,7 +3967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6569,6 +6585,16 @@
       </c>
       <c r="B261" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +6766,7 @@
         <v>-0.8480635251859844</v>
       </c>
       <c r="J2" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K2" t="n">
         <v>168</v>
@@ -6814,28 +6840,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1584885418147028</v>
+        <v>0.1547273346867807</v>
       </c>
       <c r="J3" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K3" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02060512210238352</v>
+        <v>0.01984472425598716</v>
       </c>
       <c r="M3" t="n">
-        <v>6.708960313361968</v>
+        <v>6.695603688684367</v>
       </c>
       <c r="N3" t="n">
-        <v>71.3819041817199</v>
+        <v>71.08079118685399</v>
       </c>
       <c r="O3" t="n">
-        <v>8.448781224633521</v>
+        <v>8.430942485087535</v>
       </c>
       <c r="P3" t="n">
-        <v>381.8878236275582</v>
+        <v>381.9215135718996</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -6872,7 +6898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D199"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11094,6 +11120,24 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>-34.72362470945287,173.09203569179152</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -6608,7 +6608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6699,35 +6699,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -6786,27 +6791,28 @@
       <c r="P2" t="n">
         <v>404.4895225880506</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.08778018531814 -34.723899199819215, 173.0975041807218 -34.7215108842332)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.0877801853181</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.72389919981921</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.0975041807218</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.7215108842332</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.09264218302</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.72270504202621</v>
       </c>
     </row>
@@ -6863,27 +6869,28 @@
       <c r="P3" t="n">
         <v>381.9215135718996</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.08803616223534 -34.724606922846796, 173.09776020632228 -34.72221860137135)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.0880361622353</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.7246069228468</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.0977602063223</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.72221860137135</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.0928981842788</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.72341276210908</v>
       </c>
     </row>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3951,6 +3951,74 @@
         <v>382.04</v>
       </c>
       <c r="D200" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>366.96</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>426.535</v>
+      </c>
+      <c r="C203" t="n">
+        <v>362.69</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>387.25</v>
+      </c>
+      <c r="C204" t="n">
+        <v>384.35</v>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -3967,7 +4035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6595,6 +6663,46 @@
       </c>
       <c r="B262" t="n">
         <v>0.03</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -6768,28 +6876,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8480635251859844</v>
+        <v>-0.7959952818045127</v>
       </c>
       <c r="J2" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K2" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05593946110935122</v>
+        <v>0.05003673638392347</v>
       </c>
       <c r="M2" t="n">
-        <v>23.46373695509152</v>
+        <v>23.54964620421535</v>
       </c>
       <c r="N2" t="n">
-        <v>724.5040198909588</v>
+        <v>727.1511276901394</v>
       </c>
       <c r="O2" t="n">
-        <v>26.9166123405409</v>
+        <v>26.96573988768229</v>
       </c>
       <c r="P2" t="n">
-        <v>404.4895225880506</v>
+        <v>404.0131391393676</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -6846,28 +6954,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1547273346867807</v>
+        <v>0.1145593092591267</v>
       </c>
       <c r="J3" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K3" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01984472425598716</v>
+        <v>0.01075590841766616</v>
       </c>
       <c r="M3" t="n">
-        <v>6.695603688684367</v>
+        <v>6.809794847314567</v>
       </c>
       <c r="N3" t="n">
-        <v>71.08079118685399</v>
+        <v>74.13242841588321</v>
       </c>
       <c r="O3" t="n">
-        <v>8.430942485087535</v>
+        <v>8.610019071749099</v>
       </c>
       <c r="P3" t="n">
-        <v>381.9215135718996</v>
+        <v>382.2857768756497</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -6905,7 +7013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11145,6 +11253,86 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>-34.723613627822914,173.09208081210778</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-34.7236634821704,173.0918778229334</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>-34.7228025885847,173.09224548554442</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-34.72367446088019,173.09183312131347</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>-34.72290359621899,173.09183422454512</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>-34.72361877011267,173.09205987460751</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,6 +4019,24 @@
         <v>384.35</v>
       </c>
       <c r="D204" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>370.085</v>
+      </c>
+      <c r="C205" t="n">
+        <v>391.12</v>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4035,7 +4053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:B267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6703,6 +6721,16 @@
       </c>
       <c r="B266" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -6876,28 +6904,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7959952818045127</v>
+        <v>-0.8102951987527919</v>
       </c>
       <c r="J2" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K2" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05003673638392347</v>
+        <v>0.05227496414218791</v>
       </c>
       <c r="M2" t="n">
-        <v>23.54964620421535</v>
+        <v>23.46805092937424</v>
       </c>
       <c r="N2" t="n">
-        <v>727.1511276901394</v>
+        <v>723.934182753119</v>
       </c>
       <c r="O2" t="n">
-        <v>26.96573988768229</v>
+        <v>26.90602502699198</v>
       </c>
       <c r="P2" t="n">
-        <v>404.0131391393676</v>
+        <v>404.144557698957</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -6954,28 +6982,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1145593092591267</v>
+        <v>0.1200061654419775</v>
       </c>
       <c r="J3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K3" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01075590841766616</v>
+        <v>0.01188339588172227</v>
       </c>
       <c r="M3" t="n">
-        <v>6.809794847314567</v>
+        <v>6.799906592253033</v>
       </c>
       <c r="N3" t="n">
-        <v>74.13242841588321</v>
+        <v>73.92491334654798</v>
       </c>
       <c r="O3" t="n">
-        <v>8.610019071749099</v>
+        <v>8.597959836295351</v>
       </c>
       <c r="P3" t="n">
-        <v>382.2857768756497</v>
+        <v>382.2360430843419</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7013,7 +7041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11333,6 +11361,28 @@
         </is>
       </c>
     </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-34.72294772957573,173.09165452981617</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>-34.72360136344734,173.09213074803532</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,6 +4037,22 @@
         <v>391.12</v>
       </c>
       <c r="D205" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="n">
+        <v>383.86</v>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4053,7 +4069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B267"/>
+  <dimension ref="A1:B268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6731,6 +6747,16 @@
       </c>
       <c r="B267" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -6907,7 +6933,7 @@
         <v>-0.8102951987527919</v>
       </c>
       <c r="J2" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K2" t="n">
         <v>171</v>
@@ -6982,28 +7008,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1200061654419775</v>
+        <v>0.1186484297424705</v>
       </c>
       <c r="J3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K3" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01188339588172227</v>
+        <v>0.01173589692131116</v>
       </c>
       <c r="M3" t="n">
-        <v>6.799906592253033</v>
+        <v>6.773611802930152</v>
       </c>
       <c r="N3" t="n">
-        <v>73.92491334654798</v>
+        <v>73.55493943415846</v>
       </c>
       <c r="O3" t="n">
-        <v>8.597959836295351</v>
+        <v>8.576417634080004</v>
       </c>
       <c r="P3" t="n">
-        <v>382.2360430843419</v>
+        <v>382.2485000865777</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7041,7 +7067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11383,6 +11409,24 @@
         </is>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>-34.72362002997311,173.09205474491958</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,6 +4053,24 @@
         <v>383.86</v>
       </c>
       <c r="D206" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>381.57</v>
+      </c>
+      <c r="C207" t="n">
+        <v>386.59</v>
+      </c>
+      <c r="D207" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4069,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B268"/>
+  <dimension ref="A1:B270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6757,6 +6775,26 @@
       </c>
       <c r="B268" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -6930,28 +6968,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8102951987527919</v>
+        <v>-0.8119545620319523</v>
       </c>
       <c r="J2" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05227496414218791</v>
+        <v>0.05307857363807167</v>
       </c>
       <c r="M2" t="n">
-        <v>23.46805092937424</v>
+        <v>23.33797113448366</v>
       </c>
       <c r="N2" t="n">
-        <v>723.934182753119</v>
+        <v>719.7391834430222</v>
       </c>
       <c r="O2" t="n">
-        <v>26.90602502699198</v>
+        <v>26.82795526019495</v>
       </c>
       <c r="P2" t="n">
-        <v>404.144557698957</v>
+        <v>404.1599493800415</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7008,28 +7046,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1186484297424705</v>
+        <v>0.1198017634917664</v>
       </c>
       <c r="J3" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01173589692131116</v>
+        <v>0.01208249651198035</v>
       </c>
       <c r="M3" t="n">
-        <v>6.773611802930152</v>
+        <v>6.744298548980956</v>
       </c>
       <c r="N3" t="n">
-        <v>73.55493943415846</v>
+        <v>73.18581068880654</v>
       </c>
       <c r="O3" t="n">
-        <v>8.576417634080004</v>
+        <v>8.55487058282044</v>
       </c>
       <c r="P3" t="n">
-        <v>382.2485000865777</v>
+        <v>382.2378675922737</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7067,7 +7105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11427,6 +11465,28 @@
         </is>
       </c>
     </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>-34.722918200237054,173.09177476251796</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-34.723613010747904,173.09208332460761</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4071,6 +4071,42 @@
         <v>386.59</v>
       </c>
       <c r="D207" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>447.94</v>
+      </c>
+      <c r="C208" t="n">
+        <v>396.44</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>421.195</v>
+      </c>
+      <c r="C209" t="n">
+        <v>392.66</v>
+      </c>
+      <c r="D209" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -4087,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B270"/>
+  <dimension ref="A1:B272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6795,6 +6831,26 @@
       </c>
       <c r="B270" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -6968,28 +7024,28 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8119545620319523</v>
+        <v>-0.7059748193353359</v>
       </c>
       <c r="J2" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K2" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05307857363807167</v>
+        <v>0.03988320031284076</v>
       </c>
       <c r="M2" t="n">
-        <v>23.33797113448366</v>
+        <v>23.81253677408011</v>
       </c>
       <c r="N2" t="n">
-        <v>719.7391834430222</v>
+        <v>742.9477424150858</v>
       </c>
       <c r="O2" t="n">
-        <v>26.82795526019495</v>
+        <v>27.25706775159584</v>
       </c>
       <c r="P2" t="n">
-        <v>404.1599493800415</v>
+        <v>403.1753720075986</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7046,28 +7102,28 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1198017634917664</v>
+        <v>0.1361318337345997</v>
       </c>
       <c r="J3" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K3" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01208249651198035</v>
+        <v>0.01566913003713066</v>
       </c>
       <c r="M3" t="n">
-        <v>6.744298548980956</v>
+        <v>6.75354383939097</v>
       </c>
       <c r="N3" t="n">
-        <v>73.18581068880654</v>
+        <v>73.3131513207571</v>
       </c>
       <c r="O3" t="n">
-        <v>8.55487058282044</v>
+        <v>8.562309929029496</v>
       </c>
       <c r="P3" t="n">
-        <v>382.2378675922737</v>
+        <v>382.0870698445154</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7105,7 +7161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11487,6 +11543,50 @@
         </is>
       </c>
     </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>-34.72274755253103,173.09246956662125</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-34.72358768491623,173.09218644175678</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>-34.72281631860812,173.09218958300093</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>-34.723597403875154,173.09214686990396</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419.595</v>
+        <v>419.6</v>
       </c>
       <c r="C4" t="n">
         <v>377.73</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431.565</v>
+        <v>431.56</v>
       </c>
       <c r="C6" t="n">
         <v>392.11</v>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392.445</v>
+        <v>392.44</v>
       </c>
       <c r="C7" t="n">
         <v>386.63</v>
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.875</v>
+        <v>385.88</v>
       </c>
       <c r="C9" t="n">
         <v>388.22</v>
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.835</v>
+        <v>370.83</v>
       </c>
       <c r="C12" t="n">
         <v>378.54</v>
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.205</v>
+        <v>376.2</v>
       </c>
       <c r="C13" t="n">
         <v>388.68</v>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>379.735</v>
+        <v>379.74</v>
       </c>
       <c r="C18" t="n">
         <v>389.56</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.215</v>
+        <v>390.21</v>
       </c>
       <c r="C19" t="n">
         <v>370.72</v>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>386.365</v>
+        <v>386.37</v>
       </c>
       <c r="C20" t="n">
         <v>375.43</v>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>392.885</v>
+        <v>392.88</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>422.975</v>
+        <v>422.98</v>
       </c>
       <c r="C22" t="n">
         <v>386.29</v>
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>376.715</v>
+        <v>376.71</v>
       </c>
       <c r="C24" t="n">
-        <v>392.0100000000001</v>
+        <v>392.01</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.355</v>
+        <v>381.36</v>
       </c>
       <c r="C25" t="n">
         <v>388.74</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>374.105</v>
+        <v>374.11</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>380.235</v>
+        <v>380.24</v>
       </c>
       <c r="C30" t="n">
         <v>395.8</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>418.865</v>
+        <v>418.87</v>
       </c>
       <c r="C35" t="n">
         <v>375.15</v>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>410.165</v>
+        <v>410.17</v>
       </c>
       <c r="C38" t="n">
         <v>377.55</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>431.935</v>
+        <v>431.94</v>
       </c>
       <c r="C40" t="n">
         <v>381.11</v>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>438.695</v>
+        <v>438.69</v>
       </c>
       <c r="C42" t="n">
         <v>381.8</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>442.965</v>
+        <v>442.96</v>
       </c>
       <c r="C47" t="n">
         <v>387.07</v>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>423.625</v>
+        <v>423.62</v>
       </c>
       <c r="C50" t="n">
         <v>380.99</v>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>441.645</v>
+        <v>441.64</v>
       </c>
       <c r="C53" t="n">
         <v>400.21</v>
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>404.225</v>
+        <v>404.23</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>371.965</v>
+        <v>371.96</v>
       </c>
       <c r="C58" t="n">
-        <v>385.3200000000001</v>
+        <v>385.32</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>401.535</v>
+        <v>401.54</v>
       </c>
       <c r="C63" t="n">
         <v>366.3</v>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>373.975</v>
+        <v>373.98</v>
       </c>
       <c r="C65" t="n">
         <v>374.64</v>
@@ -1639,7 +1639,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>360.175</v>
+        <v>360.18</v>
       </c>
       <c r="C69" t="n">
         <v>365.7</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>360.245</v>
+        <v>360.25</v>
       </c>
       <c r="C72" t="n">
         <v>366.84</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>378.915</v>
+        <v>378.92</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>427.085</v>
+        <v>427.08</v>
       </c>
       <c r="C77" t="n">
         <v>377.29</v>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>447.775</v>
+        <v>447.77</v>
       </c>
       <c r="C83" t="n">
         <v>408.01</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>448.675</v>
+        <v>448.68</v>
       </c>
       <c r="C85" t="n">
-        <v>391.9500000000001</v>
+        <v>391.95</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>431.795</v>
+        <v>431.8</v>
       </c>
       <c r="C86" t="n">
         <v>382.55</v>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>405.925</v>
+        <v>405.93</v>
       </c>
       <c r="C87" t="n">
         <v>391.29</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>379.305</v>
+        <v>379.31</v>
       </c>
       <c r="C88" t="n">
         <v>376.06</v>
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>385.205</v>
+        <v>385.2</v>
       </c>
       <c r="C90" t="n">
         <v>367.81</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>368.995</v>
+        <v>369</v>
       </c>
       <c r="C91" t="n">
         <v>375.23</v>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>363.905</v>
+        <v>363.9</v>
       </c>
       <c r="C92" t="n">
         <v>379.79</v>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>385.885</v>
+        <v>385.88</v>
       </c>
       <c r="C95" t="n">
         <v>400.84</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>371.755</v>
+        <v>371.75</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>368.365</v>
+        <v>368.37</v>
       </c>
       <c r="C100" t="n">
         <v>380.47</v>
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>369.555</v>
+        <v>369.56</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>373.145</v>
+        <v>373.14</v>
       </c>
       <c r="C103" t="n">
         <v>390.04</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>437.235</v>
+        <v>437.24</v>
       </c>
       <c r="C108" t="n">
         <v>380.5</v>
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>428.095</v>
+        <v>428.1</v>
       </c>
       <c r="C109" t="n">
         <v>390.52</v>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>406.295</v>
+        <v>406.3</v>
       </c>
       <c r="C110" t="n">
         <v>382.48</v>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>376.865</v>
+        <v>376.87</v>
       </c>
       <c r="C113" t="n">
         <v>382.94</v>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>447.365</v>
+        <v>447.37</v>
       </c>
       <c r="C114" t="n">
         <v>396.16</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>431.845</v>
+        <v>431.85</v>
       </c>
       <c r="C115" t="n">
         <v>384.08</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>416.785</v>
+        <v>416.79</v>
       </c>
       <c r="C116" t="n">
         <v>375.01</v>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>406.005</v>
+        <v>406</v>
       </c>
       <c r="C118" t="n">
         <v>372.38</v>
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>379.425</v>
+        <v>379.43</v>
       </c>
       <c r="C119" t="n">
         <v>386.8</v>
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>375.315</v>
+        <v>375.31</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>380.125</v>
+        <v>380.12</v>
       </c>
       <c r="C122" t="n">
         <v>381.41</v>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>409.855</v>
+        <v>409.86</v>
       </c>
       <c r="C123" t="n">
         <v>369.13</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>379.255</v>
+        <v>379.25</v>
       </c>
       <c r="C126" t="n">
         <v>384.63</v>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>350.465</v>
+        <v>350.46</v>
       </c>
       <c r="C127" t="n">
         <v>373.18</v>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>416.785</v>
+        <v>416.79</v>
       </c>
       <c r="C130" t="n">
         <v>377.76</v>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>415.625</v>
+        <v>415.62</v>
       </c>
       <c r="C131" t="n">
         <v>381.81</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>375.095</v>
+        <v>375.1</v>
       </c>
       <c r="C135" t="n">
         <v>389.74</v>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>373.665</v>
+        <v>373.67</v>
       </c>
       <c r="C136" t="n">
         <v>383.56</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>368.265</v>
+        <v>368.26</v>
       </c>
       <c r="C142" t="n">
         <v>387.53</v>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>367.485</v>
+        <v>367.49</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>376.845</v>
+        <v>376.85</v>
       </c>
       <c r="C151" t="n">
         <v>390.79</v>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>348.815</v>
+        <v>348.81</v>
       </c>
       <c r="C153" t="n">
         <v>374.62</v>
@@ -3133,7 +3133,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>363.925</v>
+        <v>363.93</v>
       </c>
       <c r="C154" t="n">
         <v>393.91</v>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>361.535</v>
+        <v>361.54</v>
       </c>
       <c r="C156" t="n">
         <v>377.99</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>353.315</v>
+        <v>353.31</v>
       </c>
       <c r="C160" t="n">
         <v>386.32</v>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>367.305</v>
+        <v>367.31</v>
       </c>
       <c r="C164" t="n">
         <v>384.93</v>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>420.705</v>
+        <v>420.7</v>
       </c>
       <c r="C165" t="n">
         <v>381.96</v>
@@ -3346,7 +3346,7 @@
         <v>416.23</v>
       </c>
       <c r="C166" t="n">
-        <v>385.5100000000001</v>
+        <v>385.51</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>404.935</v>
+        <v>404.94</v>
       </c>
       <c r="C167" t="n">
         <v>388</v>
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>414.995</v>
+        <v>415</v>
       </c>
       <c r="C168" t="n">
         <v>378.68</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>366.825</v>
+        <v>366.82</v>
       </c>
       <c r="C171" t="n">
         <v>376.56</v>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>383.945</v>
+        <v>383.94</v>
       </c>
       <c r="C173" t="n">
         <v>390.21</v>
@@ -3555,7 +3555,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>442.145</v>
+        <v>442.14</v>
       </c>
       <c r="C178" t="n">
         <v>392.05</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>441.535</v>
+        <v>441.54</v>
       </c>
       <c r="C179" t="n">
         <v>388.19</v>
@@ -3609,7 +3609,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>410.325</v>
+        <v>410.32</v>
       </c>
       <c r="C181" t="n">
         <v>380.08</v>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>418.725</v>
+        <v>418.73</v>
       </c>
       <c r="C182" t="n">
         <v>389.03</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>415.585</v>
+        <v>415.58</v>
       </c>
       <c r="C183" t="n">
         <v>385.27</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>380.985</v>
+        <v>380.99</v>
       </c>
       <c r="C191" t="n">
         <v>389.69</v>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>371.555</v>
+        <v>371.56</v>
       </c>
       <c r="C192" t="n">
         <v>376.9</v>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>379.315</v>
+        <v>379.31</v>
       </c>
       <c r="C196" t="n">
         <v>386.14</v>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>426.535</v>
+        <v>426.54</v>
       </c>
       <c r="C203" t="n">
         <v>362.69</v>
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>370.085</v>
+        <v>370.08</v>
       </c>
       <c r="C205" t="n">
         <v>391.12</v>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>421.195</v>
+        <v>421.19</v>
       </c>
       <c r="C209" t="n">
         <v>392.66</v>
@@ -7024,7 +7024,7 @@
         <v>0.08690000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7059748193353359</v>
+        <v>-0.705982616655231</v>
       </c>
       <c r="J2" t="n">
         <v>208</v>
@@ -7033,19 +7033,19 @@
         <v>174</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03988320031284076</v>
+        <v>0.03988370355105508</v>
       </c>
       <c r="M2" t="n">
-        <v>23.81253677408011</v>
+        <v>23.81279288939012</v>
       </c>
       <c r="N2" t="n">
-        <v>742.9477424150858</v>
+        <v>742.9543899907881</v>
       </c>
       <c r="O2" t="n">
-        <v>27.25706775159584</v>
+        <v>27.25718969356137</v>
       </c>
       <c r="P2" t="n">
-        <v>403.1753720075986</v>
+        <v>403.1758040828076</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7102,7 +7102,7 @@
         <v>0.0517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1361318337345997</v>
+        <v>0.1361318337345998</v>
       </c>
       <c r="J3" t="n">
         <v>208</v>
@@ -7111,10 +7111,10 @@
         <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01566913003713066</v>
+        <v>0.01566913003713033</v>
       </c>
       <c r="M3" t="n">
-        <v>6.75354383939097</v>
+        <v>6.753543839390966</v>
       </c>
       <c r="N3" t="n">
         <v>73.3131513207571</v>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72282043246782,173.09217283317156</t>
+          <t>-34.72282041961203,173.09217288551477</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-34.722789655599094,173.09229814279226</t>
+          <t>-34.72278966845495,173.09229809044908</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72289023917352,173.09188860925056</t>
+          <t>-34.72289025202922,173.09188855690724</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.722907131525325,173.09181983013025</t>
+          <t>-34.72290711866965,173.09181988247357</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.72294580123769,173.09166238132303</t>
+          <t>-34.72294581409329,173.09166232897965</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72293199432253,173.09171859810152</t>
+          <t>-34.72293200717814,173.09171854575817</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72292291825429,173.09175555250994</t>
+          <t>-34.722922905398654,173.0917556048533</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.72289597280718,173.0918652641337</t>
+          <t>-34.722895985662866,173.0918652117904</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -7587,7 +7587,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.72290587167088,173.0918249597764</t>
+          <t>-34.722905858815224,173.09182501211973</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72288910787309,173.09189321546157</t>
+          <t>-34.722889120728794,173.09189316311827</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.722811741936496,173.09220821718415</t>
+          <t>-34.72281172908067,173.0922082695274</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72293068304991,173.09172393712421</t>
+          <t>-34.722930695905525,173.09172388478086</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72291875302942,173.0917725117542</t>
+          <t>-34.72291874017379,173.0917725640975</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-34.72293739367791,173.09169661388873</t>
+          <t>-34.7229373808223,173.09169666623208</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-34.7229216326913,173.09176078684476</t>
+          <t>-34.722921619835674,173.0917608391881</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-34.72282230941554,173.09216519106135</t>
+          <t>-34.72282229655974,173.09216524340457</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72284467848165,173.09207411383085</t>
+          <t>-34.722844665625885,173.0920741661741</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-34.72278870426525,173.09230201618757</t>
+          <t>-34.722788691409384,173.09230206853073</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-34.72277132311728,173.09237278415114</t>
+          <t>-34.722771335973164,173.09237273180796</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-34.72276034417569,173.09241748520157</t>
+          <t>-34.72276035703161,173.0924174328584</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-34.72281007067928,173.09221502180114</t>
+          <t>-34.722810083535116,173.09221496945793</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-34.72276373813596,173.09240366661112</t>
+          <t>-34.722763750991874,173.09240361426797</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72285995111526,173.0920119300383</t>
+          <t>-34.72285993825952,173.09201198238154</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -8375,7 +8375,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-34.72294289587408,173.09167421092602</t>
+          <t>-34.722942908729685,173.09167415858266</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.722866867499505,173.09198376935703</t>
+          <t>-34.72286685464377,173.0919838217003</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-34.72293772792359,173.09169525296116</t>
+          <t>-34.722937715067985,173.09169530530454</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72297320930156,173.09155078520442</t>
+          <t>-34.72297319644601,173.09155083754783</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-34.72297302932398,173.09155151801218</t>
+          <t>-34.722973016468444,173.0915515703556</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-34.72292502657708,173.0917469682005</t>
+          <t>-34.722925013721465,173.09174702054383</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.72280117444224,173.09225124329598</t>
+          <t>-34.722801187298096,173.09225119095282</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.722747976776894,173.09246783929802</t>
+          <t>-34.72274798963282,173.0924677869549</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72274566270827,173.0924772610608</t>
+          <t>-34.72274564985234,173.09247731340392</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72278906422941,173.09230055057853</t>
+          <t>-34.72278905137355,173.09230060292174</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72285558016275,173.09202972674893</t>
+          <t>-34.722855567307015,173.0920297790922</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.722924023838274,173.09175105098188</t>
+          <t>-34.72292401098264,173.09175110332524</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72290885418305,173.09181281612402</t>
+          <t>-34.72290886703872,173.09181276378067</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72295053209279,173.09164311895884</t>
+          <t>-34.72295051923721,173.09164317130222</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -9087,7 +9087,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.72296361906194,173.09158983338565</t>
+          <t>-34.722963631917494,173.09158978104225</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.72290710581401,173.0918199348169</t>
+          <t>-34.72290711866965,173.09181988247357</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.72294343580899,173.09167201250432</t>
+          <t>-34.72294344866459,173.09167196016094</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.72295215189574,173.0916365236924</t>
+          <t>-34.72295213904017,173.09163657603577</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.722949092267655,173.09164898141776</t>
+          <t>-34.72294907941206,173.09164903376114</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72293986195334,173.09168656396187</t>
+          <t>-34.722939874808944,173.09168651161852</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72277507703734,173.0923574999485</t>
+          <t>-34.722775064181434,173.09235755229165</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72279857756176,173.09226181662106</t>
+          <t>-34.722798564705926,173.09226186896427</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.722854628837446,173.09203360015042</t>
+          <t>-34.7228546159817,173.09203365249368</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72293029738143,173.09172550742497</t>
+          <t>-34.72293028452582,173.09172555976832</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -9547,7 +9547,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72274903096346,173.0924635471615</t>
+          <t>-34.72274901810753,173.0924635995046</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.72278893567079,173.09230107401032</t>
+          <t>-34.722788922814914,173.09230112635353</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.72282765742834,173.09214341627967</t>
+          <t>-34.72282764457257,173.0921434686229</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.722855374470804,173.09203056424116</t>
+          <t>-34.72285538732656,173.0920305118979</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.72292371530321,173.0917523072223</t>
+          <t>-34.722923702447595,173.09175235956562</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.722934282621246,173.0917092809831</t>
+          <t>-34.72293429547685,173.09170922863976</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.72292191551518,173.0917596352911</t>
+          <t>-34.7229219283708,173.09175958294776</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72284547553908,173.09207086854929</t>
+          <t>-34.7228454626833,173.09207092089255</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -9807,7 +9807,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.722924152394526,173.09175052754838</t>
+          <t>-34.722924165250156,173.09175047520503</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-34.72299817471916,173.09144913426658</t>
+          <t>-34.72299818757466,173.09144908192314</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72282765742834,173.09214341627967</t>
+          <t>-34.72282764457257,173.0921434686229</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72283063997226,173.09213127265022</t>
+          <t>-34.72283065282805,173.09213122030698</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.722934848268004,173.0917069778751</t>
+          <t>-34.72293483541241,173.0917070302185</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72293852497092,173.09169200767232</t>
+          <t>-34.72293851211533,173.09169206001567</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72295240900728,173.09163547682462</t>
+          <t>-34.72295242186286,173.09163542448124</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.722954414477044,173.0916273112562</t>
+          <t>-34.722954401621465,173.09162736359957</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.72293034880391,173.09172529805153</t>
+          <t>-34.722930335948284,173.09172535039488</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72300241703196,173.09143186092913</t>
+          <t>-34.723002429887444,173.0914318085857</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.722963567639724,173.09159004275924</t>
+          <t>-34.72296355478416,173.09159009510265</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.72296971259365,173.091565022612</t>
+          <t>-34.7229696997381,173.0915650749554</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -10535,7 +10535,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.72299084708221,173.09147897002708</t>
+          <t>-34.722990859937724,173.09147891768365</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.722954877277665,173.09162542689418</t>
+          <t>-34.7229548644221,173.09162547923756</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.72281757847789,173.09218445336586</t>
+          <t>-34.7228175913337,173.09218440102265</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.72285812560012,173.09201936278237</t>
+          <t>-34.722858112744376,173.09201941512566</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72283225980163,173.0921246774028</t>
+          <t>-34.72283224694585,173.09212472974605</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72295611141255,173.0916204019287</t>
+          <t>-34.72295612426812,173.09162034958533</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72291209380697,173.091799625604</t>
+          <t>-34.72291210666262,173.0917995732607</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -10915,7 +10915,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72276245254513,173.0924089009258</t>
+          <t>-34.72276246540105,173.09240884858266</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.722764020965926,173.09240251506188</t>
+          <t>-34.722764008110005,173.092402567405</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -10981,7 +10981,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72284426709714,173.0920757888148</t>
+          <t>-34.72284427995291,173.09207573647157</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.72282266937807,173.09216372545114</t>
+          <t>-34.722822656522254,173.09216377779435</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72283074281858,173.09213085390434</t>
+          <t>-34.72283075567437,173.09213080156113</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.722919704346424,173.0917686383467</t>
+          <t>-34.72291969149078,173.09176869069003</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-34.7229439500327,173.09166991876927</t>
+          <t>-34.72294393717711,173.09166997111265</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-34.722923998127015,173.0917511556686</t>
+          <t>-34.72292401098264,173.09175110332524</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.7228025885847,173.09224548554442</t>
+          <t>-34.72280257572885,173.09224553788764</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-34.72294772957573,173.09165452981617</t>
+          <t>-34.722947742431316,173.0916544774728</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-34.72281631860812,173.09218958300093</t>
+          <t>-34.722816331463925,173.09218953065772</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -7015,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0707</v>
+        <v>0.0293</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.0434</v>
       </c>
       <c r="I2" t="n">
         <v>-0.705982616655231</v>
@@ -7093,13 +7093,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0466</v>
+        <v>0.0586</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0517</v>
+        <v>0.0699</v>
       </c>
       <c r="I3" t="n">
         <v>0.1361318337345998</v>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>380.24</v>
+        <v>379.36</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438.98</v>
+        <v>426.12</v>
       </c>
       <c r="C3" t="n">
-        <v>379.33</v>
+        <v>383.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419.6</v>
+        <v>415.58</v>
       </c>
       <c r="C4" t="n">
-        <v>377.73</v>
+        <v>378.88</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.07</v>
+        <v>396.86</v>
       </c>
       <c r="C5" t="n">
-        <v>391.94</v>
+        <v>387.69</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,11 +534,9 @@
           <t>2000-08-19 22:08:38+00:00</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>431.56</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>392.11</v>
+        <v>388.93</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -553,10 +551,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392.44</v>
+        <v>392.93</v>
       </c>
       <c r="C7" t="n">
-        <v>386.63</v>
+        <v>386.49</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,10 +569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417.24</v>
+        <v>410.17</v>
       </c>
       <c r="C8" t="n">
-        <v>380.55</v>
+        <v>382.58</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -589,10 +587,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.88</v>
+        <v>400.18</v>
       </c>
       <c r="C9" t="n">
-        <v>388.22</v>
+        <v>384.11</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -607,10 +605,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.19</v>
+        <v>387.05</v>
       </c>
       <c r="C10" t="n">
-        <v>379.45</v>
+        <v>375.76</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -625,10 +623,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>387.19</v>
+        <v>377.55</v>
       </c>
       <c r="C11" t="n">
-        <v>382.94</v>
+        <v>385.71</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -643,10 +641,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>370.83</v>
+        <v>380.96</v>
       </c>
       <c r="C12" t="n">
-        <v>378.54</v>
+        <v>375.63</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -661,10 +659,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.2</v>
+        <v>377.97</v>
       </c>
       <c r="C13" t="n">
-        <v>388.68</v>
+        <v>388.17</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -679,10 +677,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>389.06</v>
+        <v>380.7</v>
       </c>
       <c r="C14" t="n">
-        <v>376.83</v>
+        <v>379.23</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -698,7 +696,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>376.21</v>
+        <v>377.73</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -713,10 +711,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>390.36</v>
+        <v>388.43</v>
       </c>
       <c r="C16" t="n">
-        <v>373.3</v>
+        <v>373.85</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -731,10 +729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.38</v>
+        <v>386.17</v>
       </c>
       <c r="C17" t="n">
-        <v>378.82</v>
+        <v>374.57</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -749,10 +747,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>379.74</v>
+        <v>384.4</v>
       </c>
       <c r="C18" t="n">
-        <v>389.56</v>
+        <v>388.22</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -767,10 +765,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.21</v>
+        <v>384.91</v>
       </c>
       <c r="C19" t="n">
-        <v>370.72</v>
+        <v>372.24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -785,10 +783,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>386.37</v>
+        <v>395.53</v>
       </c>
       <c r="C20" t="n">
-        <v>375.43</v>
+        <v>372.8</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -803,7 +801,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>392.88</v>
+        <v>394.33</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
@@ -819,10 +817,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>422.98</v>
+        <v>425.39</v>
       </c>
       <c r="C22" t="n">
-        <v>386.29</v>
+        <v>385.6</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -837,10 +835,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>371.75</v>
+        <v>383.96</v>
       </c>
       <c r="C23" t="n">
-        <v>388</v>
+        <v>384.49</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -855,10 +853,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>376.71</v>
+        <v>391.66</v>
       </c>
       <c r="C24" t="n">
-        <v>392.01</v>
+        <v>387.72</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -873,10 +871,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.36</v>
+        <v>397.59</v>
       </c>
       <c r="C25" t="n">
-        <v>388.74</v>
+        <v>384.08</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -891,10 +889,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>419.86</v>
+        <v>423.4</v>
       </c>
       <c r="C26" t="n">
-        <v>379.67</v>
+        <v>378.65</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -909,7 +907,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>439.95</v>
+        <v>448.31</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
@@ -921,13 +919,13 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2004-07-13 22:06:34+00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>374.11</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>2004-07-29 22:06:27+00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>373.81</v>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>L7</t>
@@ -937,14 +935,12 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2004-07-29 22:06:27+00:00</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>357.75</v>
-      </c>
+          <t>2004-08-30 22:06:20+00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>370.58</v>
+        <v>393.63</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -955,14 +951,12 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2004-08-30 22:06:20+00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>380.24</v>
-      </c>
+          <t>2004-11-02 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>395.8</v>
+        <v>374.51</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -973,12 +967,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2004-11-02 22:06:28+00:00</t>
+          <t>2004-11-18 22:06:34+00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>376.77</v>
+        <v>364.48</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -989,14 +983,14 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2004-11-18 22:06:34+00:00</t>
+          <t>2004-12-04 22:06:44+00:00</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>349.41</v>
+        <v>446.35</v>
       </c>
       <c r="C32" t="n">
-        <v>365.03</v>
+        <v>381.4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1007,50 +1001,46 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2004-12-04 22:06:44+00:00</t>
+          <t>2005-01-13 22:03:41+00:00</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>446.67</v>
+        <v>462.68</v>
       </c>
       <c r="C33" t="n">
-        <v>381.31</v>
+        <v>395.75</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2005-01-13 22:03:41+00:00</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>444.68</v>
-      </c>
+          <t>2005-01-21 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>400.92</v>
+        <v>376.4</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2005-01-21 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>418.87</v>
-      </c>
+          <t>2005-02-06 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>375.15</v>
+        <v>380</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1061,68 +1051,68 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2005-02-06 22:07:07+00:00</t>
+          <t>2005-02-14 22:04:09+00:00</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>403.26</v>
+        <v>441.47</v>
       </c>
       <c r="C36" t="n">
-        <v>378.52</v>
+        <v>395.1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2005-02-14 22:04:09+00:00</t>
+          <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>436.65</v>
+        <v>413.86</v>
       </c>
       <c r="C37" t="n">
-        <v>396.48</v>
+        <v>376.49</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2005-02-22 22:07:14+00:00</t>
+          <t>2005-04-19 22:04:43+00:00</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>410.17</v>
+        <v>431.14</v>
       </c>
       <c r="C38" t="n">
-        <v>377.55</v>
+        <v>382.76</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2005-04-19 22:04:43+00:00</t>
+          <t>2005-06-06 22:05:05+00:00</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>438.53</v>
+        <v>434.02</v>
       </c>
       <c r="C39" t="n">
-        <v>380.64</v>
+        <v>380.51</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1133,30 +1123,30 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2005-06-06 22:05:05+00:00</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>431.94</v>
-      </c>
+          <t>2005-06-30 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>381.11</v>
+        <v>394.82</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2005-06-30 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>2005-08-01 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>428.89</v>
+      </c>
       <c r="C41" t="n">
-        <v>391.4</v>
+        <v>384.62</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1167,14 +1157,12 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2005-08-01 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>438.69</v>
-      </c>
+          <t>2005-09-18 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>381.8</v>
+        <v>387.18</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1185,166 +1173,168 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2005-09-18 22:06:39+00:00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>2005-09-26 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>418.35</v>
+      </c>
       <c r="C43" t="n">
-        <v>389.58</v>
+        <v>378.99</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2005-09-26 22:05:42+00:00</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>425.74</v>
-      </c>
+          <t>2006-01-08 22:07:25+00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>376.87</v>
+        <v>385.49</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2006-01-08 22:07:25+00:00</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>2006-02-01 22:07:49+00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>378.96</v>
+      </c>
       <c r="C45" t="n">
-        <v>383.09</v>
+        <v>364.45</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2006-02-01 22:07:49+00:00</t>
+          <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>369.94</v>
+        <v>388.13</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2006-02-09 22:07:38+00:00</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>442.96</v>
-      </c>
+          <t>2006-02-17 22:08:11+00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>387.07</v>
+        <v>387.48</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2006-02-17 22:08:11+00:00</t>
+          <t>2006-04-14 22:07:36+00:00</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>424.59</v>
+        <v>388.16</v>
       </c>
       <c r="C48" t="n">
-        <v>390.99</v>
+        <v>385.03</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2006-04-14 22:07:36+00:00</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>2006-05-08 22:09:38+00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>414.79</v>
+      </c>
       <c r="C49" t="n">
-        <v>387.75</v>
+        <v>383.53</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2006-05-08 22:09:38+00:00</t>
+          <t>2006-06-17 22:07:34+00:00</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>423.62</v>
+        <v>451.03</v>
       </c>
       <c r="C50" t="n">
-        <v>380.99</v>
+        <v>395.15</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2006-06-17 22:07:34+00:00</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>449.1</v>
-      </c>
+          <t>2006-06-25 22:10:20+00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>395.7</v>
+        <v>382.48</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2006-06-25 22:10:20+00:00</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>2006-07-27 22:10:47+00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>452.41</v>
+      </c>
       <c r="C52" t="n">
-        <v>383.17</v>
+        <v>397.12</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1355,14 +1345,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2006-07-27 22:10:47+00:00</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>441.64</v>
-      </c>
+          <t>2006-08-12 22:10:59+00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>400.21</v>
+        <v>392.66</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1373,30 +1361,32 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2006-08-12 22:10:59+00:00</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>2006-12-10 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>380.98</v>
+      </c>
       <c r="C54" t="n">
-        <v>397.32</v>
+        <v>385.55</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2006-12-10 22:07:44+00:00</t>
+          <t>2007-02-12 22:08:00+00:00</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>373.91</v>
+        <v>382.69</v>
       </c>
       <c r="C55" t="n">
-        <v>387.58</v>
+        <v>382.14</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1407,15 +1397,13 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2007-02-12 22:08:00+00:00</t>
+          <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>387.83</v>
-      </c>
-      <c r="C56" t="n">
-        <v>380.66</v>
-      </c>
+        <v>400.21</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1425,13 +1413,15 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28 22:08:05+00:00</t>
+          <t>2007-05-03 22:08:02+00:00</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>404.23</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>380.48</v>
+      </c>
+      <c r="C57" t="n">
+        <v>382.87</v>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1441,48 +1431,48 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2007-05-03 22:08:02+00:00</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>371.96</v>
-      </c>
+          <t>2007-10-02 22:10:31+00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>385.32</v>
+        <v>382.37</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2007-10-02 22:10:31+00:00</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>2007-10-10 22:07:19+00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>373.8</v>
+      </c>
       <c r="C59" t="n">
-        <v>383.52</v>
+        <v>378.63</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2007-10-10 22:07:19+00:00</t>
+          <t>2007-12-29 22:07:56+00:00</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>370.91</v>
+        <v>404.36</v>
       </c>
       <c r="C60" t="n">
-        <v>379.46</v>
+        <v>385.69</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1493,14 +1483,14 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2007-12-29 22:07:56+00:00</t>
+          <t>2008-09-26 22:06:23+00:00</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>397.29</v>
+        <v>377.11</v>
       </c>
       <c r="C61" t="n">
-        <v>387.72</v>
+        <v>377.42</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1511,14 +1501,14 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2008-09-26 22:06:23+00:00</t>
+          <t>2008-10-12 22:06:13+00:00</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>386.75</v>
+        <v>394.3</v>
       </c>
       <c r="C62" t="n">
-        <v>374.65</v>
+        <v>368.38</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1529,84 +1519,84 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2008-10-12 22:06:13+00:00</t>
+          <t>2008-11-21 22:01:05+00:00</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>401.54</v>
+        <v>398.05</v>
       </c>
       <c r="C63" t="n">
-        <v>366.3</v>
+        <v>371.47</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2008-11-21 22:01:05+00:00</t>
+          <t>2008-12-15 22:07:05+00:00</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>407.69</v>
+        <v>392.78</v>
       </c>
       <c r="C64" t="n">
-        <v>368.7</v>
+        <v>369.24</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2008-12-15 22:07:05+00:00</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>373.98</v>
-      </c>
+          <t>2009-01-24 22:02:55+00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>374.64</v>
+        <v>391.45</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2009-01-24 22:02:55+00:00</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>2009-03-21 22:07:47+00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>373.96</v>
+      </c>
       <c r="C66" t="n">
-        <v>392.47</v>
+        <v>386.98</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2009-03-21 22:07:47+00:00</t>
+          <t>2009-05-08 22:08:01+00:00</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>380.39</v>
+        <v>371.06</v>
       </c>
       <c r="C67" t="n">
-        <v>385.13</v>
+        <v>378.61</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1617,14 +1607,14 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2009-05-08 22:08:01+00:00</t>
+          <t>2009-09-29 22:07:43+00:00</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>369.45</v>
+        <v>350.69</v>
       </c>
       <c r="C68" t="n">
-        <v>379.07</v>
+        <v>368.42</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1635,14 +1625,14 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2009-09-29 22:07:43+00:00</t>
+          <t>2009-10-15 22:07:44+00:00</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>360.18</v>
+        <v>373.52</v>
       </c>
       <c r="C69" t="n">
-        <v>365.7</v>
+        <v>378.06</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1653,81 +1643,79 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2009-10-15 22:07:44+00:00</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>383.81</v>
-      </c>
+          <t>2010-01-27 22:08:26+00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>375.11</v>
+        <v>378.07</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2010-01-27 22:08:26+00:00</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>2010-02-04 22:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>368.12</v>
+      </c>
       <c r="C71" t="n">
-        <v>376.13</v>
+        <v>364.58</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2010-02-04 22:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>360.25</v>
-      </c>
+          <t>2010-02-12 22:08:30+00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>366.84</v>
+        <v>382.71</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2010-02-12 22:08:30+00:00</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
-        <v>383.68</v>
-      </c>
+          <t>2010-06-12 22:09:43+00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>382.61</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2010-06-12 22:09:43+00:00</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>378.92</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>2010-10-02 22:09:49+00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="n">
+        <v>388</v>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1737,13 +1725,13 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2010-10-02 22:09:49+00:00</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
-        <v>385.32</v>
-      </c>
+          <t>2010-11-03 22:10:09+00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>372.42</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1753,13 +1741,15 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2010-11-03 22:10:09+00:00</t>
+          <t>2010-12-05 22:10:32+00:00</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>383.35</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>433.35</v>
+      </c>
+      <c r="C76" t="n">
+        <v>375.49</v>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1769,84 +1759,82 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2010-12-05 22:10:32+00:00</t>
+          <t>2011-01-14 22:07:31+00:00</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>427.08</v>
+        <v>406.71</v>
       </c>
       <c r="C77" t="n">
-        <v>377.29</v>
+        <v>381.11</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2011-01-14 22:07:31+00:00</t>
+          <t>2011-02-07 22:11:00+00:00</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>412.5</v>
+        <v>429.4</v>
       </c>
       <c r="C78" t="n">
-        <v>379.45</v>
+        <v>393.94</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2011-02-07 22:11:00+00:00</t>
+          <t>2011-02-15 22:07:34+00:00</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>416.86</v>
+        <v>422.01</v>
       </c>
       <c r="C79" t="n">
-        <v>397.54</v>
+        <v>381.86</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2011-02-15 22:07:34+00:00</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>428.44</v>
-      </c>
+          <t>2011-03-11 22:11:09+00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>380.01</v>
+        <v>382.52</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2011-03-11 22:11:09+00:00</t>
+          <t>2011-05-30 22:11:11+00:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>383.95</v>
+        <v>381.43</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1857,12 +1845,14 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2011-05-30 22:11:11+00:00</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>2011-07-17 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>459.83</v>
+      </c>
       <c r="C82" t="n">
-        <v>379.77</v>
+        <v>404.55</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1873,50 +1863,50 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2011-07-17 22:11:06+00:00</t>
+          <t>2011-09-11 22:06:09+00:00</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>447.77</v>
+        <v>420.27</v>
       </c>
       <c r="C83" t="n">
-        <v>408.01</v>
+        <v>377.47</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2011-09-11 22:06:09+00:00</t>
+          <t>2011-09-19 22:10:52+00:00</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>419.31</v>
+        <v>450.76</v>
       </c>
       <c r="C84" t="n">
-        <v>377.75</v>
+        <v>391.35</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2011-09-19 22:10:52+00:00</t>
+          <t>2011-10-21 22:10:56+00:00</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>448.68</v>
+        <v>423.28</v>
       </c>
       <c r="C85" t="n">
-        <v>391.95</v>
+        <v>385</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1927,14 +1917,14 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2011-10-21 22:10:56+00:00</t>
+          <t>2012-02-10 22:11:42+00:00</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>431.8</v>
+        <v>424.09</v>
       </c>
       <c r="C86" t="n">
-        <v>382.55</v>
+        <v>386.07</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1945,14 +1935,14 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2012-02-10 22:11:42+00:00</t>
+          <t>2012-03-13 22:11:42+00:00</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>405.93</v>
+        <v>387.5</v>
       </c>
       <c r="C87" t="n">
-        <v>391.29</v>
+        <v>373.71</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1963,14 +1953,14 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2012-03-13 22:11:42+00:00</t>
+          <t>2012-10-23 22:13:24+00:00</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>379.31</v>
+        <v>365.03</v>
       </c>
       <c r="C88" t="n">
-        <v>376.06</v>
+        <v>382.93</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1981,14 +1971,14 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2012-10-23 22:13:24+00:00</t>
+          <t>2012-12-10 22:13:38+00:00</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>374.35</v>
+        <v>375.08</v>
       </c>
       <c r="C89" t="n">
-        <v>380.25</v>
+        <v>370.72</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1999,14 +1989,14 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2012-12-10 22:13:38+00:00</t>
+          <t>2013-01-11 22:13:44+00:00</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>385.2</v>
+        <v>376.23</v>
       </c>
       <c r="C90" t="n">
-        <v>367.81</v>
+        <v>373.15</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2017,14 +2007,14 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2013-01-11 22:13:44+00:00</t>
+          <t>2013-01-27 22:13:47+00:00</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>369</v>
+        <v>374.35</v>
       </c>
       <c r="C91" t="n">
-        <v>375.23</v>
+        <v>376.79</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2035,14 +2025,14 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2013-01-27 22:13:47+00:00</t>
+          <t>2013-05-03 22:13:30+00:00</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>363.9</v>
+        <v>355.12</v>
       </c>
       <c r="C92" t="n">
-        <v>379.79</v>
+        <v>372.63</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2053,14 +2043,14 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2013-05-03 22:13:30+00:00</t>
+          <t>2013-06-20 22:13:13+00:00</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>364.44</v>
+        <v>424.68</v>
       </c>
       <c r="C93" t="n">
-        <v>369.95</v>
+        <v>384.51</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2071,64 +2061,66 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2013-06-20 22:13:13+00:00</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>2013-06-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>393.12</v>
+      </c>
       <c r="C94" t="n">
-        <v>380.49</v>
+        <v>398.76</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2013-06-28 22:19:33+00:00</t>
+          <t>2013-07-06 22:13:02+00:00</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>385.88</v>
-      </c>
-      <c r="C95" t="n">
-        <v>400.84</v>
-      </c>
+        <v>368.38</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2013-07-06 22:13:02+00:00</t>
+          <t>2013-07-14 22:19:34+00:00</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>371.75</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>386.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>398.3</v>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2013-07-14 22:19:34+00:00</t>
+          <t>2013-08-31 22:19:38+00:00</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>381.26</v>
+        <v>367.22</v>
       </c>
       <c r="C97" t="n">
-        <v>399.78</v>
+        <v>379.87</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2139,14 +2131,12 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013-08-31 22:19:38+00:00</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>377.83</v>
-      </c>
+          <t>2014-02-23 22:18:20+00:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>376.82</v>
+        <v>389.16</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2157,12 +2147,14 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2014-02-23 22:18:20+00:00</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>2014-05-14 22:17:08+00:00</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>370.78</v>
+      </c>
       <c r="C99" t="n">
-        <v>387.82</v>
+        <v>379.78</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2173,14 +2165,14 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2014-05-14 22:17:08+00:00</t>
+          <t>2014-05-30 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>368.37</v>
+        <v>382.75</v>
       </c>
       <c r="C100" t="n">
-        <v>380.47</v>
+        <v>385.85</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2191,15 +2183,13 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2014-05-30 22:17:11+00:00</t>
+          <t>2014-07-01 22:17:22+00:00</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>372.46</v>
-      </c>
-      <c r="C101" t="n">
-        <v>388.8</v>
-      </c>
+        <v>379.68</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2209,13 +2199,15 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2014-07-01 22:17:22+00:00</t>
+          <t>2014-07-17 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>369.56</v>
-      </c>
-      <c r="C102" t="inlineStr"/>
+        <v>381.02</v>
+      </c>
+      <c r="C102" t="n">
+        <v>387.78</v>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2225,14 +2217,14 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2014-07-17 22:17:28+00:00</t>
+          <t>2014-09-19 22:17:42+00:00</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>373.14</v>
+        <v>374.05</v>
       </c>
       <c r="C103" t="n">
-        <v>390.04</v>
+        <v>386.29</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2243,14 +2235,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2014-09-19 22:17:42+00:00</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>384.66</v>
-      </c>
+          <t>2015-02-26 22:17:23+00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>383.24</v>
+        <v>393.55</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2261,12 +2251,14 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-02-26 22:17:23+00:00</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>2015-06-02 22:16:44+00:00</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>355.73</v>
+      </c>
       <c r="C105" t="n">
-        <v>392.17</v>
+        <v>382.97</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2277,14 +2269,14 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015-06-02 22:16:44+00:00</t>
+          <t>2015-07-20 22:17:10+00:00</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>352.84</v>
+        <v>403.74</v>
       </c>
       <c r="C106" t="n">
-        <v>383.8</v>
+        <v>403.2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2295,14 +2287,14 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2015-07-20 22:17:10+00:00</t>
+          <t>2015-10-24 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>393.45</v>
+        <v>423.9</v>
       </c>
       <c r="C107" t="n">
-        <v>406.15</v>
+        <v>384.33</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2313,14 +2305,14 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2015-10-24 22:17:40+00:00</t>
+          <t>2015-12-11 22:17:42+00:00</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>437.24</v>
+        <v>435.33</v>
       </c>
       <c r="C108" t="n">
-        <v>380.5</v>
+        <v>388.44</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2331,14 +2323,14 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2015-12-11 22:17:42+00:00</t>
+          <t>2015-12-27 22:17:43+00:00</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>428.1</v>
+        <v>422.53</v>
       </c>
       <c r="C109" t="n">
-        <v>390.52</v>
+        <v>377.82</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2349,14 +2341,14 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2015-12-27 22:17:43+00:00</t>
+          <t>2016-01-12 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>406.3</v>
+        <v>387.74</v>
       </c>
       <c r="C110" t="n">
-        <v>382.48</v>
+        <v>374.64</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2367,14 +2359,12 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-01-12 22:17:40+00:00</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>370.06</v>
-      </c>
+          <t>2016-04-01 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>379.72</v>
+        <v>397.37</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2385,12 +2375,14 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-04-01 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>2016-04-17 22:17:09+00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>367.38</v>
+      </c>
       <c r="C112" t="n">
-        <v>395.85</v>
+        <v>385.66</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2401,14 +2393,14 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-04-17 22:17:09+00:00</t>
+          <t>2016-09-08 22:17:48+00:00</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>376.87</v>
+        <v>448.81</v>
       </c>
       <c r="C113" t="n">
-        <v>382.94</v>
+        <v>395.74</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2419,14 +2411,14 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09-08 22:17:48+00:00</t>
+          <t>2016-09-24 22:17:49+00:00</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>447.37</v>
+        <v>423.65</v>
       </c>
       <c r="C114" t="n">
-        <v>396.16</v>
+        <v>386.43</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2437,14 +2429,14 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-09-24 22:17:49+00:00</t>
+          <t>2016-10-10 22:17:54+00:00</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>431.85</v>
+        <v>409.55</v>
       </c>
       <c r="C115" t="n">
-        <v>384.08</v>
+        <v>377.09</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2455,14 +2447,14 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-10-10 22:17:54+00:00</t>
+          <t>2016-10-26 22:17:56+00:00</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>416.79</v>
+        <v>439</v>
       </c>
       <c r="C116" t="n">
-        <v>375.01</v>
+        <v>386.63</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2473,14 +2465,14 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-10-26 22:17:56+00:00</t>
+          <t>2016-11-27 22:17:56+00:00</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>449.61</v>
+        <v>404.24</v>
       </c>
       <c r="C117" t="n">
-        <v>383.58</v>
+        <v>372.89</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2491,14 +2483,14 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2016-11-27 22:17:56+00:00</t>
+          <t>2017-04-20 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>406</v>
+        <v>373.16</v>
       </c>
       <c r="C118" t="n">
-        <v>372.38</v>
+        <v>388.6</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2509,14 +2501,14 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-04-20 22:16:59+00:00</t>
+          <t>2017-06-07 22:17:15+00:00</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>379.43</v>
+        <v>360.99</v>
       </c>
       <c r="C119" t="n">
-        <v>386.8</v>
+        <v>388.91</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2527,15 +2519,13 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-06-07 22:17:15+00:00</t>
+          <t>2017-07-09 22:17:23+00:00</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>365.49</v>
-      </c>
-      <c r="C120" t="n">
-        <v>387.62</v>
-      </c>
+        <v>380.3</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2545,13 +2535,15 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-07-09 22:17:23+00:00</t>
+          <t>2017-10-29 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>375.31</v>
-      </c>
-      <c r="C121" t="inlineStr"/>
+        <v>372.57</v>
+      </c>
+      <c r="C121" t="n">
+        <v>383.58</v>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2561,14 +2553,14 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-10-29 22:17:53+00:00</t>
+          <t>2018-01-01 22:17:44+00:00</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>380.12</v>
+        <v>413.23</v>
       </c>
       <c r="C122" t="n">
-        <v>381.41</v>
+        <v>368.16</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2579,14 +2571,14 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2018-01-01 22:17:44+00:00</t>
+          <t>2018-02-02 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>409.86</v>
+        <v>383.12</v>
       </c>
       <c r="C123" t="n">
-        <v>369.13</v>
+        <v>374.91</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2597,14 +2589,14 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2018-02-02 22:17:27+00:00</t>
+          <t>2018-04-07 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>364.16</v>
+        <v>367.07</v>
       </c>
       <c r="C124" t="n">
-        <v>380.36</v>
+        <v>390.35</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2615,14 +2607,14 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2018-04-07 22:16:59+00:00</t>
+          <t>2018-04-23 22:16:49+00:00</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>366.43</v>
+        <v>372.67</v>
       </c>
       <c r="C125" t="n">
-        <v>390.53</v>
+        <v>386.52</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2633,14 +2625,14 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2018-04-23 22:16:49+00:00</t>
+          <t>2018-05-25 22:16:28+00:00</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>379.25</v>
+        <v>338.41</v>
       </c>
       <c r="C126" t="n">
-        <v>384.63</v>
+        <v>376.64</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2651,14 +2643,12 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2018-05-25 22:16:28+00:00</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>350.46</v>
-      </c>
+          <t>2018-06-26 22:16:36+00:00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>373.18</v>
+        <v>391.05</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2669,12 +2659,14 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2018-06-26 22:16:36+00:00</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>2018-07-12 22:16:44+00:00</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>377.81</v>
+      </c>
       <c r="C128" t="n">
-        <v>389.9</v>
+        <v>391.96</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2685,14 +2677,14 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018-07-12 22:16:44+00:00</t>
+          <t>2018-11-17 22:17:31+00:00</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>379.42</v>
+        <v>408.91</v>
       </c>
       <c r="C129" t="n">
-        <v>391.5</v>
+        <v>380.02</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2703,14 +2695,14 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-11-17 22:17:31+00:00</t>
+          <t>2018-12-19 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>416.79</v>
+        <v>406.79</v>
       </c>
       <c r="C130" t="n">
-        <v>377.76</v>
+        <v>384.35</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2721,14 +2713,14 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-12-19 22:17:28+00:00</t>
+          <t>2019-01-04 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>415.62</v>
+        <v>424.06</v>
       </c>
       <c r="C131" t="n">
-        <v>381.81</v>
+        <v>391.22</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2739,14 +2731,14 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2019-01-04 22:17:27+00:00</t>
+          <t>2019-02-05 22:17:21+00:00</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>423.1</v>
+        <v>375.38</v>
       </c>
       <c r="C132" t="n">
-        <v>391.5</v>
+        <v>385.29</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2757,14 +2749,14 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2019-02-05 22:17:21+00:00</t>
+          <t>2019-03-25 22:17:09+00:00</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>364.13</v>
+        <v>383.28</v>
       </c>
       <c r="C133" t="n">
-        <v>388.52</v>
+        <v>386.45</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2775,14 +2767,14 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2019-03-25 22:17:09+00:00</t>
+          <t>2019-04-26 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>371.39</v>
+        <v>373.65</v>
       </c>
       <c r="C134" t="n">
-        <v>389.87</v>
+        <v>390.16</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2793,14 +2785,14 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2019-04-26 22:16:59+00:00</t>
+          <t>2019-05-28 22:17:17+00:00</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>375.1</v>
+        <v>364.5</v>
       </c>
       <c r="C135" t="n">
-        <v>389.74</v>
+        <v>386.19</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2811,14 +2803,14 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2019-05-28 22:17:17+00:00</t>
+          <t>2019-06-29 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>373.67</v>
+        <v>330.05</v>
       </c>
       <c r="C136" t="n">
-        <v>383.56</v>
+        <v>369.99</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2829,14 +2821,14 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2019-06-29 22:17:29+00:00</t>
+          <t>2019-07-31 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>341.62</v>
+        <v>364.94</v>
       </c>
       <c r="C137" t="n">
-        <v>366.67</v>
+        <v>396.19</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2847,14 +2839,14 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2019-07-31 22:17:38+00:00</t>
+          <t>2019-12-06 22:17:54+00:00</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>366.23</v>
+        <v>407.81</v>
       </c>
       <c r="C138" t="n">
-        <v>395.82</v>
+        <v>393.61</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2865,14 +2857,14 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2019-12-06 22:17:54+00:00</t>
+          <t>2019-12-22 22:17:51+00:00</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>415.85</v>
+        <v>387.76</v>
       </c>
       <c r="C139" t="n">
-        <v>391.3</v>
+        <v>381.13</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2883,14 +2875,14 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019-12-22 22:17:51+00:00</t>
+          <t>2020-02-08 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>398.69</v>
+        <v>414.71</v>
       </c>
       <c r="C140" t="n">
-        <v>377.99</v>
+        <v>382.14</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2901,14 +2893,14 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2020-02-08 22:17:38+00:00</t>
+          <t>2020-02-24 22:17:35+00:00</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>410.53</v>
+        <v>380.32</v>
       </c>
       <c r="C141" t="n">
-        <v>383.34</v>
+        <v>384.07</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2919,14 +2911,14 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2020-02-24 22:17:35+00:00</t>
+          <t>2020-03-11 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>368.26</v>
+        <v>387.09</v>
       </c>
       <c r="C142" t="n">
-        <v>387.53</v>
+        <v>385.52</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2937,14 +2929,14 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2020-03-11 22:17:28+00:00</t>
+          <t>2020-03-27 22:17:20+00:00</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>368.45</v>
+        <v>385.98</v>
       </c>
       <c r="C143" t="n">
-        <v>390.87</v>
+        <v>392.85</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2955,15 +2947,13 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2020-03-27 22:17:20+00:00</t>
+          <t>2020-07-01 22:17:22+00:00</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>396.63</v>
-      </c>
+        <v>352.86</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2973,13 +2963,15 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2020-07-01 22:17:22+00:00</t>
+          <t>2020-08-02 22:17:33+00:00</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>367.49</v>
-      </c>
-      <c r="C145" t="inlineStr"/>
+        <v>353.02</v>
+      </c>
+      <c r="C145" t="n">
+        <v>377.49</v>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2989,14 +2981,12 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2020-08-02 22:17:33+00:00</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>356.23</v>
-      </c>
+          <t>2020-09-03 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>376.57</v>
+        <v>402.11</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3007,12 +2997,12 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2020-09-03 22:17:46+00:00</t>
+          <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>404.83</v>
+        <v>390.11</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3023,12 +3013,14 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2021-01-25 22:17:44+00:00</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>2021-05-01 22:17:07+00:00</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>378.46</v>
+      </c>
       <c r="C148" t="n">
-        <v>388.91</v>
+        <v>394.74</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3039,14 +3031,14 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2021-05-01 22:17:07+00:00</t>
+          <t>2021-05-17 22:17:12+00:00</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>367.85</v>
+        <v>372.47</v>
       </c>
       <c r="C149" t="n">
-        <v>397.79</v>
+        <v>392.08</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3057,14 +3049,14 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2021-05-17 22:17:12+00:00</t>
+          <t>2021-06-18 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>366.68</v>
+        <v>370.9</v>
       </c>
       <c r="C150" t="n">
-        <v>393.74</v>
+        <v>392.5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3075,14 +3067,14 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2021-06-18 22:17:27+00:00</t>
+          <t>2021-07-04 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>376.85</v>
+        <v>330.72</v>
       </c>
       <c r="C151" t="n">
-        <v>390.79</v>
+        <v>376.21</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3093,14 +3085,14 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2021-07-04 22:17:29+00:00</t>
+          <t>2021-08-21 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>341.97</v>
+        <v>346.08</v>
       </c>
       <c r="C152" t="n">
-        <v>372.98</v>
+        <v>375.4</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3111,14 +3103,14 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2021-08-21 22:17:46+00:00</t>
+          <t>2021-11-09 22:17:58+00:00</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>348.81</v>
+        <v>375.66</v>
       </c>
       <c r="C153" t="n">
-        <v>374.62</v>
+        <v>390.54</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3129,32 +3121,32 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2021-11-09 22:17:58+00:00</t>
+          <t>2022-01-04 22:17:52+00:00</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>363.93</v>
+        <v>380.92</v>
       </c>
       <c r="C154" t="n">
-        <v>393.91</v>
+        <v>375.01</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2022-01-04 22:17:52+00:00</t>
+          <t>2022-01-20 22:17:51+00:00</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>363.24</v>
+        <v>376.16</v>
       </c>
       <c r="C155" t="n">
-        <v>380.09</v>
+        <v>373.79</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3165,14 +3157,14 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2022-01-20 22:17:51+00:00</t>
+          <t>2022-05-12 22:17:13+00:00</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>361.54</v>
+        <v>360.77</v>
       </c>
       <c r="C156" t="n">
-        <v>377.99</v>
+        <v>384.6</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3183,84 +3175,82 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2022-05-12 22:17:13+00:00</t>
+          <t>2022-06-05 22:17:39+00:00</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>371.7</v>
+        <v>373.25</v>
       </c>
       <c r="C157" t="n">
-        <v>381.46</v>
+        <v>397.52</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2022-06-05 22:17:39+00:00</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>369.39</v>
-      </c>
+          <t>2022-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>398.63</v>
+        <v>392.65</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2022-06-13 22:17:12+00:00</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
+          <t>2022-06-21 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>347.05</v>
+      </c>
       <c r="C159" t="n">
-        <v>391.5</v>
+        <v>388.12</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2022-06-21 22:17:48+00:00</t>
+          <t>2022-07-15 22:17:24+00:00</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>353.31</v>
+        <v>382.52</v>
       </c>
       <c r="C160" t="n">
-        <v>386.32</v>
+        <v>389.54</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2022-07-15 22:17:24+00:00</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>369.34</v>
-      </c>
+          <t>2022-07-31 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>393.32</v>
+        <v>403.63</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3271,28 +3261,30 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31 22:17:39+00:00</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t>2022-08-08 22:18:05+00:00</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>411.75</v>
+      </c>
       <c r="C162" t="n">
-        <v>406.68</v>
+        <v>392.29</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2022-08-08 22:18:05+00:00</t>
+          <t>2022-09-09 22:18:11+00:00</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>388.04</v>
+        <v>385.62</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3303,14 +3295,14 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2022-09-09 22:18:11+00:00</t>
+          <t>2023-01-15 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>367.31</v>
+        <v>418.62</v>
       </c>
       <c r="C164" t="n">
-        <v>384.93</v>
+        <v>382.56</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3321,14 +3313,14 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2023-01-15 22:17:53+00:00</t>
+          <t>2023-01-31 22:17:58+00:00</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>420.7</v>
+        <v>409.48</v>
       </c>
       <c r="C165" t="n">
-        <v>381.96</v>
+        <v>387.45</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3339,84 +3331,84 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31 22:17:58+00:00</t>
+          <t>2023-02-08 22:18:06+00:00</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>416.23</v>
+        <v>419.24</v>
       </c>
       <c r="C166" t="n">
-        <v>385.51</v>
+        <v>383.89</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2023-02-08 22:18:06+00:00</t>
+          <t>2023-02-16 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>404.94</v>
+        <v>406.16</v>
       </c>
       <c r="C167" t="n">
-        <v>388</v>
+        <v>381.22</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2023-02-16 22:17:50+00:00</t>
+          <t>2023-03-01 20:19:07+00:00</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>415</v>
-      </c>
-      <c r="C168" t="n">
-        <v>378.68</v>
-      </c>
+        <v>431.77</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2023-03-01 20:19:07+00:00</t>
+          <t>2023-03-04 22:17:37+00:00</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>435.31</v>
-      </c>
-      <c r="C169" t="inlineStr"/>
+        <v>403.93</v>
+      </c>
+      <c r="C169" t="n">
+        <v>375.32</v>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2023-03-04 22:17:37+00:00</t>
+          <t>2023-03-20 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>405.86</v>
+        <v>367.63</v>
       </c>
       <c r="C170" t="n">
-        <v>374.77</v>
+        <v>376.33</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3427,32 +3419,32 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2023-03-20 22:17:28+00:00</t>
+          <t>2023-03-28 22:17:33+00:00</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>366.82</v>
+        <v>409</v>
       </c>
       <c r="C171" t="n">
-        <v>376.56</v>
+        <v>377.35</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2023-03-28 22:17:33+00:00</t>
+          <t>2023-04-13 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>408.04</v>
+        <v>381.21</v>
       </c>
       <c r="C172" t="n">
-        <v>377.63</v>
+        <v>390.99</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3463,14 +3455,14 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2023-04-13 22:17:27+00:00</t>
+          <t>2023-05-15 22:17:12+00:00</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>383.94</v>
+        <v>363.01</v>
       </c>
       <c r="C173" t="n">
-        <v>390.21</v>
+        <v>384.35</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3481,14 +3473,12 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2023-05-15 22:17:12+00:00</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>375.55</v>
-      </c>
+          <t>2023-06-16 22:16:54+00:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>380.75</v>
+        <v>389.73</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3499,66 +3489,68 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2023-06-16 22:16:54+00:00</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>2023-06-24 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>372.68</v>
+      </c>
       <c r="C175" t="n">
-        <v>388.21</v>
+        <v>392.54</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2023-06-24 22:17:06+00:00</t>
+          <t>2023-07-02 22:17:05+00:00</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>370.11</v>
+        <v>440.14</v>
       </c>
       <c r="C176" t="n">
-        <v>393.28</v>
+        <v>392.37</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2023-07-02 22:17:05+00:00</t>
+          <t>2023-07-26 22:17:23+00:00</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>444.32</v>
+        <v>436.52</v>
       </c>
       <c r="C177" t="n">
-        <v>391.17</v>
+        <v>393.67</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2023-07-26 22:17:23+00:00</t>
+          <t>2023-09-12 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>442.14</v>
+        <v>435.59</v>
       </c>
       <c r="C178" t="n">
-        <v>392.05</v>
+        <v>389.9</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3569,68 +3561,68 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2023-09-12 22:17:38+00:00</t>
+          <t>2023-09-20 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>441.54</v>
+        <v>414.08</v>
       </c>
       <c r="C179" t="n">
-        <v>388.19</v>
+        <v>385.74</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2023-09-20 22:17:40+00:00</t>
+          <t>2023-10-14 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>405.08</v>
+        <v>414.34</v>
       </c>
       <c r="C180" t="n">
-        <v>388.32</v>
+        <v>378.93</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2023-10-14 22:17:45+00:00</t>
+          <t>2023-10-22 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>410.32</v>
+        <v>414.71</v>
       </c>
       <c r="C181" t="n">
-        <v>380.08</v>
+        <v>390.18</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2023-10-22 22:17:50+00:00</t>
+          <t>2023-11-07 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>418.73</v>
+        <v>407.39</v>
       </c>
       <c r="C182" t="n">
-        <v>389.03</v>
+        <v>387.62</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3641,50 +3633,50 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2023-11-07 22:17:46+00:00</t>
+          <t>2023-11-15 22:17:47+00:00</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>415.58</v>
+        <v>392.42</v>
       </c>
       <c r="C183" t="n">
-        <v>385.27</v>
+        <v>383.06</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2023-11-15 22:17:47+00:00</t>
+          <t>2024-01-10 22:17:52+00:00</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>378.6</v>
+        <v>398.92</v>
       </c>
       <c r="C184" t="n">
-        <v>387.03</v>
+        <v>369.15</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2024-01-10 22:17:52+00:00</t>
+          <t>2024-02-11 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>396.67</v>
+        <v>388.89</v>
       </c>
       <c r="C185" t="n">
-        <v>369.8</v>
+        <v>377.31</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3695,14 +3687,14 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2024-02-11 22:17:53+00:00</t>
+          <t>2024-03-30 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>370.89</v>
+        <v>375.01</v>
       </c>
       <c r="C186" t="n">
-        <v>382.48</v>
+        <v>387.9</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3713,138 +3705,138 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2024-03-30 22:17:36+00:00</t>
+          <t>2024-04-07 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>365.69</v>
+        <v>353.84</v>
       </c>
       <c r="C187" t="n">
-        <v>390.58</v>
+        <v>367.1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2024-04-07 22:17:11+00:00</t>
+          <t>2024-04-15 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>355.45</v>
+        <v>388.65</v>
       </c>
       <c r="C188" t="n">
-        <v>366.64</v>
+        <v>387.68</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2024-04-15 22:17:28+00:00</t>
+          <t>2024-04-23 22:17:03+00:00</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>389.61</v>
+        <v>383.73</v>
       </c>
       <c r="C189" t="n">
-        <v>387.4</v>
+        <v>384.26</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2024-04-23 22:17:03+00:00</t>
+          <t>2024-05-01 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>379.87</v>
+        <v>377.93</v>
       </c>
       <c r="C190" t="n">
-        <v>385.37</v>
+        <v>390.57</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2024-05-01 22:17:11+00:00</t>
+          <t>2024-05-09 22:16:51+00:00</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>380.99</v>
+        <v>382.97</v>
       </c>
       <c r="C191" t="n">
-        <v>389.69</v>
+        <v>373.62</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2024-05-09 22:16:51+00:00</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>371.56</v>
-      </c>
+          <t>2024-05-17 22:17:03+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>376.9</v>
+        <v>388.8</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2024-05-17 22:17:03+00:00</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t>2024-05-25 22:16:38+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>378.68</v>
+      </c>
       <c r="C193" t="n">
-        <v>386.22</v>
+        <v>385.62</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2024-05-25 22:16:38+00:00</t>
+          <t>2024-07-12 22:17:00+00:00</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>368.72</v>
+        <v>365.03</v>
       </c>
       <c r="C194" t="n">
-        <v>388.48</v>
+        <v>386.8</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3855,14 +3847,14 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2024-07-12 22:17:00+00:00</t>
+          <t>2024-08-13 22:17:14+00:00</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>363.42</v>
+        <v>373.37</v>
       </c>
       <c r="C195" t="n">
-        <v>387.26</v>
+        <v>387.85</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3873,48 +3865,48 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2024-08-13 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>379.31</v>
-      </c>
+          <t>2024-08-21 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>386.14</v>
+        <v>392.59</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21 22:17:19+00:00</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
+          <t>2024-08-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>365.99</v>
+      </c>
       <c r="C197" t="n">
-        <v>396.65</v>
+        <v>382.44</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 22:17:21+00:00</t>
+          <t>2024-11-17 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>377.88</v>
+        <v>373.42</v>
       </c>
       <c r="C198" t="n">
-        <v>379.02</v>
+        <v>366.44</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3925,62 +3917,60 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2024-11-17 22:17:38+00:00</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>358.31</v>
-      </c>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
-        <v>370.78</v>
+        <v>381.9</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2025-01-12 22:17:45+00:00</t>
+          <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>382.04</v>
+        <v>388.47</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2025-03-09 22:17:26+00:00</t>
+          <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>386.35</v>
+        <v>363.13</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2025-03-17 22:17:32+00:00</t>
+          <t>2025-04-18 22:17:25+00:00</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>366.96</v>
+        <v>360.61</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3991,14 +3981,14 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:17:25+00:00</t>
+          <t>2025-05-04 22:17:17+00:00</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>426.54</v>
+        <v>384.36</v>
       </c>
       <c r="C203" t="n">
-        <v>362.69</v>
+        <v>385.18</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4009,14 +3999,14 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2025-05-04 22:17:17+00:00</t>
+          <t>2025-05-20 22:17:06+00:00</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>387.25</v>
+        <v>366.71</v>
       </c>
       <c r="C204" t="n">
-        <v>384.35</v>
+        <v>392.09</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4027,14 +4017,12 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20 22:17:06+00:00</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>370.08</v>
-      </c>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>391.12</v>
+        <v>388.15</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4045,12 +4033,14 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2025-06-21 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>375.78</v>
+      </c>
       <c r="C206" t="n">
-        <v>383.86</v>
+        <v>388.25</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4061,54 +4051,52 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2025-07-23 22:17:27+00:00</t>
+          <t>2025-07-31 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>381.57</v>
+        <v>448.9</v>
       </c>
       <c r="C207" t="n">
-        <v>386.59</v>
+        <v>396.16</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2025-07-31 22:17:29+00:00</t>
+          <t>2025-08-08 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>447.94</v>
+        <v>419.75</v>
       </c>
       <c r="C208" t="n">
-        <v>396.44</v>
+        <v>393.08</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2025-08-08 22:17:36+00:00</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>421.19</v>
-      </c>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
-        <v>392.66</v>
+        <v>389.59</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -4123,7 +4111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B272"/>
+  <dimension ref="A1:B273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6851,6 +6839,16 @@
       </c>
       <c r="B272" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-10-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -7024,28 +7022,28 @@
         <v>0.0434</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.705982616655231</v>
+        <v>-0.7890392475316036</v>
       </c>
       <c r="J2" t="n">
         <v>208</v>
       </c>
       <c r="K2" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03988370355105508</v>
+        <v>0.04964772445403642</v>
       </c>
       <c r="M2" t="n">
-        <v>23.81279288939012</v>
+        <v>22.23962310280702</v>
       </c>
       <c r="N2" t="n">
-        <v>742.9543899907881</v>
+        <v>704.7873698662937</v>
       </c>
       <c r="O2" t="n">
-        <v>27.25718969356137</v>
+        <v>26.54783173568594</v>
       </c>
       <c r="P2" t="n">
-        <v>403.1758040828076</v>
+        <v>405.609005767775</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7096,34 +7094,34 @@
         <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0586</v>
+        <v>0.0584</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0699</v>
+        <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1361318337345998</v>
+        <v>0.1661720922309626</v>
       </c>
       <c r="J3" t="n">
         <v>208</v>
       </c>
       <c r="K3" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01566913003713033</v>
+        <v>0.02569240354741997</v>
       </c>
       <c r="M3" t="n">
-        <v>6.753543839390966</v>
+        <v>6.356687660866183</v>
       </c>
       <c r="N3" t="n">
-        <v>73.3131513207571</v>
+        <v>66.27302834372317</v>
       </c>
       <c r="O3" t="n">
-        <v>8.562309929029496</v>
+        <v>8.140824795051369</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0870698445154</v>
+        <v>381.3825351331263</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7200,7 +7198,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-34.72362933750683,173.0920168480364</t>
+          <t>-34.72363160010992,173.09200763553312</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7217,12 +7215,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-34.72277059033129,173.09237576771108</t>
+          <t>-34.72280365561926,173.09224114105905</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.72363167724411,173.0920073214705</t>
+          <t>-34.72362218973337,173.09204595116844</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7239,12 +7237,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72282041961203,173.09217288551477</t>
+          <t>-34.72283075567437,173.09213080156113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.723635791066094,173.0919905714632</t>
+          <t>-34.72363283425676,173.09200261053113</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7261,12 +7259,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.722916914673235,173.09177999685215</t>
+          <t>-34.72287888759416,173.09193482838486</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.72359925510398,173.0921393324071</t>
+          <t>-34.72361018248677,173.09209484023145</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7281,14 +7279,10 @@
           <t>2000-08-19 22:08:38+00:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-34.72278966845495,173.09229809044908</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.72359881800832,173.09214111209388</t>
+          <t>-34.723606994263825,173.0921078214792</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7305,12 +7299,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.72289025202922,173.09188855690724</t>
+          <t>-34.722888992171896,173.09189368655132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.72361290790207,173.09208374335756</t>
+          <t>-34.723613267862504,173.0920822777327</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7327,12 +7321,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.722826487550876,173.0921481795134</t>
+          <t>-34.722844665625885,173.0920741661741</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.7236285404533,173.09202009334993</t>
+          <t>-34.7236233210361,173.09204134491767</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7349,12 +7343,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72290711866965,173.09181988247357</t>
+          <t>-34.72287035140061,173.09196958432804</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.72360881977874,173.09210038866811</t>
+          <t>-34.723619387187206,173.09205736210734</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7371,12 +7365,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72293717513266,173.09169750372595</t>
+          <t>-34.72290411044546,173.0918321308121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.723631368707366,173.09200857772097</t>
+          <t>-34.72364085620625,173.09196994801448</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7393,12 +7387,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.722903750486935,173.0918335964252</t>
+          <t>-34.72292853616187,173.0917326784649</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.72362239542479,173.09204511366832</t>
+          <t>-34.72361527335603,173.09207411210798</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7415,12 +7409,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.72294581409329,173.09166232897965</t>
+          <t>-34.722919768624585,173.09176837662997</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.72363370844399,173.0919990511546</t>
+          <t>-34.72364119045396,173.09196858707614</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7437,12 +7431,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72293200717814,173.09171854575817</t>
+          <t>-34.72292745628981,173.09173707530675</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.72360763705082,173.09210520429224</t>
+          <t>-34.723608948336114,173.09209986523072</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7459,12 +7453,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.722898942467694,173.0918531728275</t>
+          <t>-34.72292043711753,173.09176565477603</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.72363810508995,173.09198114958338</t>
+          <t>-34.72363193435805,173.0920062745951</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7482,7 +7476,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.723639699194834,173.09197465895477</t>
+          <t>-34.723635791066094,173.0919905714632</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7499,12 +7493,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.722895599992576,173.09186678208985</t>
+          <t>-34.72290056228202,173.09184657756927</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.72364718119869,173.0919441948719</t>
+          <t>-34.72364576707484,173.09194995268865</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7521,12 +7515,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.72294439997839,173.09166808675113</t>
+          <t>-34.72290637304157,173.09182291838664</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.723632988525104,173.09200198240586</t>
+          <t>-34.723643915857735,173.09195749019395</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7543,12 +7537,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.722922905398654,173.0917556048533</t>
+          <t>-34.72291092394294,173.09180438884746</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.723605374440346,173.0921144167902</t>
+          <t>-34.72360881977874,173.09210038866811</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7565,12 +7559,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.722895985662866,173.0918652117904</t>
+          <t>-34.72290961266657,173.09180972786746</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.723653814721516,173.09191718547422</t>
+          <t>-34.72364990660027,173.0919330979881</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7587,12 +7581,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-34.722905858815224,173.09182501211973</t>
+          <t>-34.72288230721109,173.0919209050683</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.723641704681164,173.09196649332486</t>
+          <t>-34.72364846676561,173.09193896049283</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -7609,7 +7603,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.722889120728794,173.09189316311827</t>
+          <t>-34.72288539257836,173.0919083426764</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -7627,12 +7621,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72281172908067,173.0922082695274</t>
+          <t>-34.72280553257127,173.09223349895194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.72361378209166,173.0920801839828</t>
+          <t>-34.723615556182,173.09207296054547</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7649,12 +7643,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.72294344866459,173.09167196016094</t>
+          <t>-34.72291205524003,173.09179978263404</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.72360938543117,173.09209808554348</t>
+          <t>-34.72361841015252,173.09206134023265</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7671,12 +7665,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.722930695905525,173.09172388478086</t>
+          <t>-34.72289225751594,173.09188039135105</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.72359907512342,173.09214006521933</t>
+          <t>-34.723610105352364,173.0920951542939</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7693,12 +7687,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.72291874017379,173.0917725640975</t>
+          <t>-34.722877010660895,173.09194247050553</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.723607482781944,173.09210583241713</t>
+          <t>-34.72361946432152,173.0920570480448</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7715,12 +7709,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.72281975110996,173.09217560736215</t>
+          <t>-34.722810649191445,173.09221266635683</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.72363080305664,173.09201088084683</t>
+          <t>-34.72363342561873,173.0920002027176</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7737,7 +7731,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72276809628721,173.0923859222831</t>
+          <t>-34.72274660119176,173.0924734400126</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -7750,15 +7744,15 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2004-07-13 22:06:34+00:00</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>-34.7229373808223,173.09169666623208</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>2004-07-29 22:06:27+00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-34.723645869920226,173.09194953393836</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7768,17 +7762,13 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2004-07-29 22:06:27+00:00</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-34.722979444236145,173.0915253986474</t>
-        </is>
-      </c>
+          <t>2004-08-30 22:06:20+00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.72365417467996,173.09191571984786</t>
+          <t>-34.72359490985782,173.09215702458664</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7790,17 +7780,13 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2004-08-30 22:06:20+00:00</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>-34.722921619835674,173.0917608391881</t>
-        </is>
-      </c>
+          <t>2004-11-02 22:06:28+00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.72358933045516,173.09217974176116</t>
+          <t>-34.72364407012585,173.09195686206854</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -7812,13 +7798,13 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2004-11-02 22:06:28+00:00</t>
+          <t>2004-11-18 22:06:34+00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.723638259358175,173.09198052145805</t>
+          <t>-34.72366985856591,173.0918518604015</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7830,17 +7816,17 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2004-11-18 22:06:34+00:00</t>
+          <t>2004-12-04 22:06:44+00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-34.72300088722854,173.0914380897995</t>
+          <t>-34.72275164071738,173.09245292150595</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.72366844444641,173.0918576182214</t>
+          <t>-34.723626354983494,173.09202899178996</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -7852,61 +7838,53 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2004-12-04 22:06:44+00:00</t>
+          <t>2005-01-13 22:03:41+00:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72275081793791,173.09245627146638</t>
+          <t>-34.72270965313554,173.09262387408984</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.723626586386196,173.0920280496022</t>
+          <t>-34.72358945901287,173.092179218324</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2005-01-13 22:03:41+00:00</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>-34.72275593459619,173.0924354388988</t>
-        </is>
-      </c>
+          <t>2005-01-21 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.72357616613345,173.09223334171847</t>
+          <t>-34.72363921067887,173.0919766480184</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2005-01-21 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>-34.72282229655974,173.09216524340457</t>
-        </is>
-      </c>
+          <t>2005-02-06 22:07:07+00:00</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.72364242459918,173.09196356207298</t>
+          <t>-34.72362995458046,173.09201433553557</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7918,83 +7896,83 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2005-02-06 22:07:07+00:00</t>
+          <t>2005-02-14 22:04:09+00:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.722862432272436,173.09200182778702</t>
+          <t>-34.722764188092704,173.09240183460093</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.72363375986677,173.09199884177954</t>
+          <t>-34.72359113026294,173.0921724136407</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2005-02-14 22:04:09+00:00</t>
+          <t>2005-02-22 22:07:14+00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.72277658117599,173.09235137579842</t>
+          <t>-34.72283517806477,173.0921127954882</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.723587582070046,173.0921868605065</t>
+          <t>-34.723638979276544,173.09197759020643</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2005-02-22 22:07:14+00:00</t>
+          <t>2005-04-19 22:04:43+00:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.722844665625885,173.0920741661741</t>
+          <t>-34.72279074834726,173.09229369362185</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.723636253870914,173.0919886870873</t>
+          <t>-34.72362285823045,173.09204322929298</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2005-04-19 22:04:43+00:00</t>
+          <t>2005-06-06 22:05:05+00:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72277174736176,173.09237105682692</t>
+          <t>-34.72278334336823,173.09232384329192</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.72362830905063,173.0920210355377</t>
+          <t>-34.723628643298916,173.0920196745998</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -8006,35 +7984,35 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2005-06-06 22:05:05+00:00</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>-34.722788691409384,173.09230206853073</t>
-        </is>
-      </c>
+          <t>2005-06-30 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.72362710061443,173.09202595585162</t>
+          <t>-34.723591850185926,173.09216948239242</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2005-06-30 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>2005-08-01 22:06:59+00:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-34.72279653348194,173.09227013918837</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.72360064352527,173.09213367928427</t>
+          <t>-34.72361807590377,173.09206270117022</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8046,17 +8024,13 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2005-08-01 22:06:59+00:00</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>-34.722771335973164,173.09237273180796</t>
-        </is>
-      </c>
+          <t>2005-09-18 22:06:39+00:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.72362532652689,173.09203317929098</t>
+          <t>-34.72361149377162,173.09208950116957</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8068,195 +8042,199 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2005-09-18 22:06:39+00:00</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>2005-09-26 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-34.7228236335633,173.0921597997094</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.723605323017374,173.09211462616514</t>
+          <t>-34.723632551431464,173.0920037620941</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2005-09-26 22:05:42+00:00</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>-34.72280463266285,173.09223716297595</t>
-        </is>
-      </c>
+          <t>2006-01-08 22:07:25+00:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.723638002244456,173.0919815683336</t>
+          <t>-34.72361583900795,173.09207180898298</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2006-01-08 22:07:25+00:00</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>2006-02-01 22:07:49+00:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-34.72292491087645,173.09174743929066</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.72362200975336,173.09204668398104</t>
+          <t>-34.72366993569968,173.0918515463386</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2006-02-01 22:07:49+00:00</t>
+          <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.72365582020399,173.0919090198415</t>
+          <t>-34.72360905118202,173.09209944648077</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2006-02-09 22:07:38+00:00</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>-34.72276035703161,173.0924174328584</t>
-        </is>
-      </c>
+          <t>2006-02-17 22:08:11+00:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.72361177659773,173.09208834960722</t>
+          <t>-34.72361072242761,173.09209264179424</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2006-02-17 22:08:11+00:00</t>
+          <t>2006-04-14 22:07:36+00:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72280758950443,173.09222512403963</t>
+          <t>-34.72290125648805,173.0918437510299</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.72360169769683,173.09212938709828</t>
+          <t>-34.723617021734555,173.09206699335792</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2006-04-14 22:07:36+00:00</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>2006-05-08 22:09:38+00:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-34.72283278688889,173.0921225313302</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.723610028217955,173.09209546835638</t>
+          <t>-34.723620878450426,173.0920512902317</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2006-05-08 22:09:38+00:00</t>
+          <t>2006-06-17 22:07:34+00:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-34.722810083535116,173.09221496945793</t>
+          <t>-34.72273960755863,173.0925019146708</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.723627409151355,173.09202469960127</t>
+          <t>-34.723591001705245,173.0921729370779</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2006-06-17 22:07:34+00:00</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>-34.72274456995339,173.09248171022634</t>
-        </is>
-      </c>
+          <t>2006-06-25 22:10:20+00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.72358958757058,173.09217869488683</t>
+          <t>-34.723623578150345,173.09204029804246</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2006-06-25 22:10:20+00:00</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>2006-07-27 22:10:47+00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-34.722736059315736,173.09251636137054</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.72362180406194,173.09204752148116</t>
+          <t>-34.72358593653073,173.09219356050178</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -8268,17 +8246,13 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2006-07-27 22:10:47+00:00</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>-34.722763750991874,173.09240361426797</t>
-        </is>
-      </c>
+          <t>2006-08-12 22:10:59+00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.72357799165604,173.0922259089129</t>
+          <t>-34.723597403875154,173.09214686990396</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -8290,35 +8264,39 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2006-08-12 22:10:59+00:00</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>2006-12-10 22:07:44+00:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>-34.72291971720205,173.09176858600335</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.72358542229963,173.09219565425028</t>
+          <t>-34.72361568473926,173.092072437108</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2006-12-10 22:07:44+00:00</t>
+          <t>2007-02-12 22:08:00+00:00</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72293789504643,173.09169457249737</t>
+          <t>-34.72291532057381,173.09178648742636</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.72361046531293,173.0920936886691</t>
+          <t>-34.72362445233867,173.09203673866676</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -8330,19 +8308,15 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2007-02-12 22:08:00+00:00</t>
+          <t>2007-02-28 22:08:05+00:00</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.722902104961975,173.09184029637063</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>-34.72362825762782,173.0920212449128</t>
-        </is>
-      </c>
+          <t>-34.7228702742663,173.09196989838773</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8352,15 +8326,19 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2007-02-28 22:08:05+00:00</t>
+          <t>2007-05-03 22:08:02+00:00</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72285993825952,173.09201198238154</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>-34.72292100276537,173.09176335166876</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-34.72362257540478,173.0920443808557</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8370,57 +8348,57 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2007-05-03 22:08:02+00:00</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>-34.722942908729685,173.09167415858266</t>
-        </is>
-      </c>
+          <t>2007-10-02 22:10:31+00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.7236162761026,173.09207002929546</t>
+          <t>-34.723623860975984,173.09203914647975</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2007-10-02 22:10:31+00:00</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>2007-10-10 22:07:19+00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>-34.72293817786967,173.09169342094327</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.72362090416186,173.09205118554416</t>
+          <t>-34.7236334770415,173.09199999334254</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2007-10-10 22:07:19+00:00</t>
+          <t>2007-12-29 22:07:56+00:00</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.72294560840387,173.0916631664737</t>
+          <t>-34.7228596040103,173.09201334330655</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.72363134299596,173.0920086824085</t>
+          <t>-34.72361532477893,173.09207390273298</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8432,17 +8410,17 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2007-12-29 22:07:56+00:00</t>
+          <t>2008-09-26 22:06:23+00:00</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-34.722877782003394,173.09193932990803</t>
+          <t>-34.722929667456235,173.0917280722495</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.723610105352364,173.0920951542939</t>
+          <t>-34.72363658811883,173.09198732614914</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -8454,17 +8432,17 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2008-09-26 22:06:23+00:00</t>
+          <t>2008-10-12 22:06:13+00:00</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.722904881785134,173.09182899021258</t>
+          <t>-34.72288546971253,173.09190802861656</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.72364371016693,173.09195832769453</t>
+          <t>-34.72365983116727,173.09189268857492</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8476,101 +8454,101 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2008-10-12 22:06:13+00:00</t>
+          <t>2008-11-21 22:01:05+00:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72286685464377,173.0919838217003</t>
+          <t>-34.72287582793557,173.09194728608824</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.72366517911491,173.09187091355034</t>
+          <t>-34.72365188637248,173.09192503704375</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2008-11-21 22:01:05+00:00</t>
+          <t>2008-12-15 22:07:05+00:00</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.72285104208284,173.09204820392006</t>
+          <t>-34.722889377842534,173.09189211625213</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.72365900840574,173.09189603857843</t>
+          <t>-34.72365761999547,173.09190169170924</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2008-12-15 22:07:05+00:00</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>-34.722937715067985,173.09169530530454</t>
-        </is>
-      </c>
+          <t>2009-01-24 22:02:55+00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.723643735878284,173.09195822300697</t>
+          <t>-34.72360051496776,173.09213420272158</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2009-01-24 22:02:55+00:00</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>2009-03-21 22:07:47+00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-34.7229377664904,173.09169509593104</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.72359789239392,173.0921448808423</t>
+          <t>-34.72361200800091,173.0920874074198</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2009-03-21 22:07:47+00:00</t>
+          <t>2009-05-08 22:08:01+00:00</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.72292123416673,173.09176240948855</t>
+          <t>-34.72294522273619,173.09166473677502</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.72361676462009,173.09206804023293</t>
+          <t>-34.723633528464276,173.09199978396742</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8582,17 +8560,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2009-05-08 22:08:01+00:00</t>
+          <t>2009-09-29 22:07:43+00:00</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.722949362234885,173.09164788220673</t>
+          <t>-34.72299759622177,173.09145148972158</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.72363234574034,173.09200459959445</t>
+          <t>-34.723659728322076,173.09189310732535</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8604,17 +8582,17 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2009-09-29 22:07:43+00:00</t>
+          <t>2009-10-15 22:07:44+00:00</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72297319644601,173.09155083754783</t>
+          <t>-34.72293889778336,173.0916904897146</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.72366672179139,173.0918646322927</t>
+          <t>-34.72363494259049,173.09199402615238</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8626,95 +8604,91 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2009-10-15 22:07:44+00:00</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>-34.72291244090945,173.09179821233397</t>
-        </is>
-      </c>
+          <t>2010-01-27 22:08:26+00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.72364252744462,173.09196314332272</t>
+          <t>-34.723634916879114,173.0919941308399</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2010-01-27 22:08:26+00:00</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>2010-02-04 22:09:23+00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-34.72295278181901,173.09163395886645</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.723639904885765,173.09197382145427</t>
+          <t>-34.723669601453295,173.09185290727788</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2010-02-04 22:09:23+00:00</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>-34.722973016468444,173.0915515703556</t>
-        </is>
-      </c>
+          <t>2010-02-12 22:08:30+00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.7236637907058,173.09187656668198</t>
+          <t>-34.723622986787575,173.0920427058554</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2010-02-12 22:08:30+00:00</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>-34.723620492778934,173.09205286054438</t>
-        </is>
-      </c>
+          <t>2010-06-12 22:09:43+00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-34.72291552626408,173.09178564993292</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2010-06-12 22:09:43+00:00</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>-34.722925013721465,173.09174702054383</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>2010-10-02 22:09:49+00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-34.72360938543117,173.09209808554348</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8724,15 +8698,15 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2010-10-02 22:09:49+00:00</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>-34.7236162761026,173.09207002929546</t>
-        </is>
-      </c>
+          <t>2010-11-03 22:10:09+00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-34.722941726014966,173.09167897417302</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8742,15 +8716,19 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2010-11-03 22:10:09+00:00</t>
+          <t>2010-12-05 22:10:32+00:00</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.72291362362888,173.09179339674702</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>-34.72278506605498,173.09231682930664</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>-34.72364155041301,173.09196712145024</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8760,101 +8738,97 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2010-12-05 22:10:32+00:00</t>
+          <t>2011-01-14 22:07:31+00:00</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.722801187298096,173.09225119095282</t>
+          <t>-34.72285356181028,173.09203794464116</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.72363692236673,173.09198596521094</t>
+          <t>-34.72362710061443,173.09202595585162</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2011-01-14 22:07:31+00:00</t>
+          <t>2011-02-07 22:11:00+00:00</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.7228386748367,173.09209855812685</t>
+          <t>-34.72279522218515,173.09227547819359</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.723631368707366,173.09200857772097</t>
+          <t>-34.72359411280055,173.09216026989748</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2011-02-07 22:11:00+00:00</t>
+          <t>2011-02-15 22:07:34+00:00</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.722827464591404,173.09214420142808</t>
+          <t>-34.722814223109935,173.0921981149446</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.72358485664535,173.09219795737354</t>
+          <t>-34.72362517225839,173.0920338074161</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2011-02-15 22:07:34+00:00</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>-34.72279769050833,173.09226542830126</t>
-        </is>
-      </c>
+          <t>2011-03-11 22:11:09+00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.723629928869066,173.0920144402231</t>
+          <t>-34.72362347530465,173.09204071679255</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2011-03-11 22:11:09+00:00</t>
+          <t>2011-05-30 22:11:11+00:00</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.723619798570205,173.09205568710718</t>
+          <t>-34.72362627784925,173.09202930585252</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8866,13 +8840,17 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2011-05-30 22:11:11+00:00</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>2011-07-17 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-34.72271698105289,173.09259403853196</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.723630545942655,173.0920119277222</t>
+          <t>-34.72356683282078,173.09227134324033</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8884,61 +8862,61 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2011-07-17 22:11:06+00:00</t>
+          <t>2011-09-11 22:06:09+00:00</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.72274798963282,173.0924677869549</t>
+          <t>-34.722818696933544,173.09217989950602</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.72355793659437,173.09230756506864</t>
+          <t>-34.72363645956194,173.09198784958687</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2011-09-11 22:06:09+00:00</t>
+          <t>2011-09-19 22:10:52+00:00</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72282116524884,173.092169849608</t>
+          <t>-34.72274030177985,173.09249908814243</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.723635739643335,173.0919907808383</t>
+          <t>-34.72360077208278,173.09213315584697</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>L5</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2011-09-19 22:10:52+00:00</t>
+          <t>2011-10-21 22:10:56+00:00</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72274564985234,173.09247731340392</t>
+          <t>-34.72281095773125,173.09221141011983</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.72359922939246,173.09213943709457</t>
+          <t>-34.7236170988689,173.09206667929539</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8950,17 +8928,17 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2011-10-21 22:10:56+00:00</t>
+          <t>2012-02-10 22:11:42+00:00</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72278905137355,173.09230060292174</t>
+          <t>-34.72280887508737,173.09221988971922</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.72362339817038,173.09204103085509</t>
+          <t>-34.723614347743705,173.0920778808579</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8972,17 +8950,17 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2012-02-10 22:11:42+00:00</t>
+          <t>2012-03-13 22:11:42+00:00</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.722855567307015,173.0920297790922</t>
+          <t>-34.72290295343584,173.0918368417113</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.723600926351814,173.09213252772219</t>
+          <t>-34.72364612703367,173.0919484870626</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8994,17 +8972,17 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2012-03-13 22:11:42+00:00</t>
+          <t>2012-10-23 22:13:24+00:00</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-34.72292401098264,173.09175110332524</t>
+          <t>-34.72296072656094,173.09160161065034</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.72364008486533,173.09197308864137</t>
+          <t>-34.7236224211362,173.0920450089808</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -9016,17 +8994,17 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2012-10-23 22:13:24+00:00</t>
+          <t>2012-12-10 22:13:38+00:00</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.72293676375333,173.0916991787137</t>
+          <t>-34.722934886834835,173.09170682084502</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.72362931179541,173.09201695272392</t>
+          <t>-34.723653814721516,173.09191718547422</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9038,17 +9016,17 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2012-12-10 22:13:38+00:00</t>
+          <t>2013-01-11 22:13:44+00:00</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72290886703872,173.09181276378067</t>
+          <t>-34.72293193004446,173.09171885981831</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.72366129671101,173.09188672138094</t>
+          <t>-34.7236475668688,173.0919426245582</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9060,17 +9038,17 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2013-01-11 22:13:44+00:00</t>
+          <t>2013-01-27 22:13:47+00:00</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72295051923721,173.09164317130222</t>
+          <t>-34.72293676375333,173.0916991787137</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.72364221890833,173.09196439957353</t>
+          <t>-34.72363820793544,173.09198073083317</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9082,17 +9060,17 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2013-01-27 22:13:47+00:00</t>
+          <t>2013-05-03 22:13:30+00:00</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.722963631917494,173.09158978104225</t>
+          <t>-34.7229862062417,173.09149786600602</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.72363049451985,173.0920121370973</t>
+          <t>-34.72364890385831,173.0919371808039</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9104,17 +9082,17 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2013-05-03 22:13:30+00:00</t>
+          <t>2013-06-20 22:13:13+00:00</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.722962243517166,173.0915954341294</t>
+          <t>-34.72280735809948,173.09222606621728</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.723655794492664,173.0919091245291</t>
+          <t>-34.723618358729624,173.09206154960765</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -9126,75 +9104,79 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2013-06-20 22:13:13+00:00</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>2013-06-28 22:19:33+00:00</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-34.72288850365574,173.09189567559693</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.72362869472173,173.09201946522472</t>
+          <t>-34.72358171983455,173.09221072923856</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2013-06-28 22:19:33+00:00</t>
+          <t>2013-07-06 22:13:02+00:00</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.72290711866965,173.09181988247357</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>-34.72357637182617,173.09223250421925</t>
-        </is>
-      </c>
+          <t>-34.722952113329015,173.09163668072253</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2013-07-06 22:13:02+00:00</t>
+          <t>2013-07-14 22:19:34+00:00</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.72294344866459,173.09167196016094</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>-34.722905781681284,173.0918253261797</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>-34.723582902566655,173.09220591361745</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2013-07-14 22:19:34+00:00</t>
+          <t>2013-08-31 22:19:38+00:00</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.72291899728649,173.09177151723063</t>
+          <t>-34.72295509582241,173.09162453705656</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.72357909725402,173.09222140735446</t>
+          <t>-34.723630288828666,173.0920129745976</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9206,17 +9188,13 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2013-08-31 22:19:38+00:00</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>-34.722927816247186,173.09173560969282</t>
-        </is>
-      </c>
+          <t>2014-02-23 22:18:20+00:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.72363813080132,173.09198104489585</t>
+          <t>-34.72360640289973,173.0921102292912</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9228,13 +9206,17 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2014-02-23 22:18:20+00:00</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr"/>
+          <t>2014-05-14 22:17:08+00:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-34.72294594264916,173.09166180554587</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.723609848237665,173.09209620116877</t>
+          <t>-34.723630520231254,173.09201203240974</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9246,17 +9228,17 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2014-05-14 22:17:08+00:00</t>
+          <t>2014-05-30 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.72295213904017,173.09163657603577</t>
+          <t>-34.72291516630611,173.09178711554642</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.72362874614453,173.09201925584966</t>
+          <t>-34.72361491339569,173.09207557773297</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9268,19 +9250,15 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2014-05-30 22:17:11+00:00</t>
+          <t>2014-07-01 22:17:22+00:00</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.7229416231702,173.09167939291999</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>-34.72360732851307,173.092106460542</t>
-        </is>
-      </c>
+          <t>-34.72292305966619,173.0917549767331</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9290,15 +9268,19 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2014-07-01 22:17:22+00:00</t>
+          <t>2014-07-17 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.72294907941206,173.09164903376114</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>-34.722919614356975,173.09176900475012</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>-34.723609951083546,173.09209578241882</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9308,17 +9290,17 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2014-07-17 22:17:28+00:00</t>
+          <t>2014-09-19 22:17:42+00:00</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.722939874808944,173.09168651161852</t>
+          <t>-34.72293753508955,173.09169603811165</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.72360414028888,173.09211944178887</t>
+          <t>-34.72361378209166,173.0920801839828</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -9330,17 +9312,13 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2014-09-19 22:17:42+00:00</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>-34.722910255449136,173.0918071107008</t>
-        </is>
-      </c>
+          <t>2015-02-26 22:17:23+00:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.72362162408194,173.09204825429376</t>
+          <t>-34.72359511555002,173.09215618708706</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -9352,13 +9330,17 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2015-02-26 22:17:23+00:00</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr"/>
+          <t>2015-06-02 22:16:44+00:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-34.72298463786834,173.0915042519042</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.72359866373926,173.09214174021864</t>
+          <t>-34.72362231829051,173.09204542773085</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -9370,17 +9352,17 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2015-06-02 22:16:44+00:00</t>
+          <t>2015-07-20 22:17:10+00:00</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.722992068355545,173.0914739974007</t>
+          <t>-34.72286119812182,173.09200685274106</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.72362018424172,173.09205411679451</t>
+          <t>-34.72357030388887,173.09225721044396</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9392,17 +9374,17 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2015-07-20 22:17:10+00:00</t>
+          <t>2015-10-24 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.722887655180216,173.09189913025506</t>
+          <t>-34.722809363608825,173.09221790067744</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.72356271896019,173.09228809321974</t>
+          <t>-34.72361882153555,173.0920596652325</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -9414,17 +9396,17 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2015-10-24 22:17:40+00:00</t>
+          <t>2015-12-11 22:17:42+00:00</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.722775064181434,173.09235755229165</t>
+          <t>-34.72277997512876,173.09233755720257</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.72362866901031,173.09201956991225</t>
+          <t>-34.72360825412628,173.09210269179272</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9436,17 +9418,17 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2015-12-11 22:17:42+00:00</t>
+          <t>2015-12-27 22:17:43+00:00</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.722798564705926,173.09226186896427</t>
+          <t>-34.72281288610467,173.09220355863854</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.72360290613721,173.09212446678737</t>
+          <t>-34.72363555966367,173.09199151365115</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9458,17 +9440,17 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2015-12-27 22:17:43+00:00</t>
+          <t>2016-01-12 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.7228546159817,173.09203365249368</t>
+          <t>-34.72290233636396,173.09183935419082</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.723623578150345,173.09204029804246</t>
+          <t>-34.723643735878284,173.09195822300697</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9480,17 +9462,13 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2016-01-12 22:17:40+00:00</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>-34.722947793853656,173.09165426809926</t>
-        </is>
-      </c>
+          <t>2016-04-01 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.723630674499645,173.0920114042845</t>
+          <t>-34.723585293741834,173.09219617768738</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9502,13 +9480,17 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2016-04-01 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>2016-04-17 22:17:09+00:00</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>-34.72295468444408,173.091626212045</t>
+        </is>
+      </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.72358920189745,173.09218026519832</t>
+          <t>-34.72361540191329,173.09207358867047</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9520,17 +9502,17 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2016-04-17 22:17:09+00:00</t>
+          <t>2016-09-08 22:17:48+00:00</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72293028452582,173.09172555976832</t>
+          <t>-34.72274531559792,173.09247867432515</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.72362239542479,173.09204511366832</t>
+          <t>-34.723589484724414,173.09217911363658</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9542,17 +9524,17 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2016-09-08 22:17:48+00:00</t>
+          <t>2016-09-24 22:17:49+00:00</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72274901810753,173.0924635995046</t>
+          <t>-34.72281000640017,173.09221528351713</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.72358840483957,173.09218351050873</t>
+          <t>-34.72361342213126,173.0920816496077</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9564,17 +9546,17 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2016-09-24 22:17:49+00:00</t>
+          <t>2016-10-10 22:17:54+00:00</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.722788922814914,173.09230112635353</t>
+          <t>-34.722846259740656,173.09206767561096</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.72361946432152,173.0920570480448</t>
+          <t>-34.723637436594245,173.09198387145986</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9586,17 +9568,17 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2016-10-10 22:17:54+00:00</t>
+          <t>2016-10-26 22:17:56+00:00</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.72282764457257,173.0921434686229</t>
+          <t>-34.7227705389077,173.0923759770837</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.72364278455817,173.09196209644702</t>
+          <t>-34.72361290790207,173.09208374335756</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9608,17 +9590,17 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2016-10-26 22:17:56+00:00</t>
+          <t>2016-11-27 22:17:56+00:00</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.72274325864733,173.09248704922484</t>
+          <t>-34.722859912548046,173.0920120870681</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.723620749893264,173.09205181366926</t>
+          <t>-34.723648235363584,173.09193990268108</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -9630,17 +9612,17 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2016-11-27 22:17:56+00:00</t>
+          <t>2017-04-20 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.72285538732656,173.0920305118979</t>
+          <t>-34.722939823386554,173.091686720992</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.72364954664162,173.0919345636143</t>
+          <t>-34.72360784274266,173.0921043667924</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -9652,17 +9634,17 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2017-04-20 22:16:59+00:00</t>
+          <t>2017-06-07 22:17:15+00:00</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.722923702447595,173.09175235956562</t>
+          <t>-34.722971113848125,173.09155931718044</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.72361247080722,173.09208552304497</t>
+          <t>-34.72360704568679,173.09210761210426</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -9674,19 +9656,15 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2017-06-07 22:17:15+00:00</t>
+          <t>2017-07-09 22:17:23+00:00</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.72295954384911,173.09160642624275</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>-34.72361036246706,173.09209410741906</t>
-        </is>
-      </c>
+          <t>-34.7229214655681,173.0917614673083</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9696,15 +9674,19 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2017-07-09 22:17:23+00:00</t>
+          <t>2017-10-29 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.72293429547685,173.09170922863976</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
+          <t>-34.722941340347084,173.0916805444742</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>-34.723620749893264,173.09205181366926</t>
+        </is>
+      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9714,17 +9696,17 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2017-10-29 22:17:53+00:00</t>
+          <t>2018-01-01 22:17:44+00:00</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.7229219283708,173.09175958294776</t>
+          <t>-34.722836797893144,173.09210620024007</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.72362632927207,173.09202909647746</t>
+          <t>-34.72366039681577,173.09189038544744</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9736,17 +9718,17 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2018-01-01 22:17:44+00:00</t>
+          <t>2018-02-02 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.7228454626833,173.09207092089255</t>
+          <t>-34.72291421498852,173.09179098895348</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.723657902819824,173.0919005401456</t>
+          <t>-34.72364304167173,173.09196104957135</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9758,17 +9740,17 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2018-02-02 22:17:27+00:00</t>
+          <t>2018-04-07 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.722962963428486,173.09159250289906</t>
+          <t>-34.722955481489564,173.09162296675487</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.72362902896998,173.0920181042868</t>
+          <t>-34.723603343232625,173.0921226871004</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9780,17 +9762,17 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2018-04-07 22:16:59+00:00</t>
+          <t>2018-04-23 22:16:49+00:00</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.72295712700256,173.0916162668008</t>
+          <t>-34.72294108323515,173.09168159134163</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.723602880425716,173.09212457147484</t>
+          <t>-34.72361319072812,173.09208259179516</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -9802,17 +9784,17 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2018-04-23 22:16:49+00:00</t>
+          <t>2018-05-25 22:16:28+00:00</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.722924165250156,173.09175047520503</t>
+          <t>-34.723029169257074,173.0913229341756</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.72361805019232,173.09206280585772</t>
+          <t>-34.72363859360601,173.0919791605198</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -9824,17 +9806,13 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2018-05-25 22:16:28+00:00</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>-34.72299818757466,173.09144908192314</t>
-        </is>
-      </c>
+          <t>2018-06-26 22:16:36+00:00</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.72364748973478,173.09194293862095</t>
+          <t>-34.723601543427826,173.09213001522306</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -9846,13 +9824,17 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2018-06-26 22:16:36+00:00</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>2018-07-12 22:16:44+00:00</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>-34.72292786766967,173.0917354003194</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.723604500249735,173.09211797616427</t>
+          <t>-34.723599203680955,173.09213954178202</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9864,17 +9846,17 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2018-07-12 22:16:44+00:00</t>
+          <t>2018-11-17 22:17:31+00:00</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.722923728158854,173.09175225487894</t>
+          <t>-34.7228479052781,173.09206097567457</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.72360038641025,173.0921347261589</t>
+          <t>-34.72362990315766,173.09201454491063</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -9886,17 +9868,17 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2018-11-17 22:17:31+00:00</t>
+          <t>2018-12-19 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72282764457257,173.0921434686229</t>
+          <t>-34.72285335611828,173.09203878213336</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.723635713931955,173.09199088552586</t>
+          <t>-34.72361877011267,173.09205987460751</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -9908,17 +9890,17 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2018-12-19 22:17:28+00:00</t>
+          <t>2019-01-04 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72283065282805,173.09213122030698</t>
+          <t>-34.72280895222233,173.09221957566</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.72362530081547,173.09203328397848</t>
+          <t>-34.723601106332325,173.09213179490996</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -9930,17 +9912,17 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2019-01-04 22:17:27+00:00</t>
+          <t>2019-02-05 22:17:21+00:00</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.7228114205409,173.09220952576436</t>
+          <t>-34.72293411549833,173.09170996144684</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.72360038641025,173.0921347261589</t>
+          <t>-34.723616353236935,173.09206971523298</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -9952,17 +9934,17 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2019-02-05 22:17:21+00:00</t>
+          <t>2019-03-25 22:17:09+00:00</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.72296304056184,173.09159218883866</t>
+          <t>-34.7229138036079,173.09179266394028</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.723608048434464,173.09210352929256</t>
+          <t>-34.723613370708335,173.0920818589827</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -9974,17 +9956,17 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2019-03-25 22:17:09+00:00</t>
+          <t>2019-04-26 22:16:59+00:00</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.72294437426722,173.0916681914379</t>
+          <t>-34.72293856353773,173.0916918506422</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.723604577384215,173.09211766210183</t>
+          <t>-34.723603831750985,173.0921206980385</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9996,17 +9978,17 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2019-04-26 22:16:59+00:00</t>
+          <t>2019-05-28 22:17:17+00:00</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.72293483541241,173.0917070302185</t>
+          <t>-34.722962089250444,173.0915960622502</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.723604911633565,173.0921163011647</t>
+          <t>-34.72361403920623,173.09207913710785</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -10018,17 +10000,17 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2019-05-28 22:17:17+00:00</t>
+          <t>2019-06-29 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72293851211533,173.09169206001567</t>
+          <t>-34.72305066352598,173.09123541584881</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.72362080131613,173.09205160429423</t>
+          <t>-34.723655691647416,173.0919095432795</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10040,17 +10022,17 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2019-06-29 22:17:29+00:00</t>
+          <t>2019-07-31 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72302091605818,173.09135653868853</t>
+          <t>-34.72296095796108,173.0916006684692</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.723664227797585,173.0918747869924</t>
+          <t>-34.72358832770491,173.092183824571</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -10062,17 +10044,17 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2019-07-31 22:17:38+00:00</t>
+          <t>2019-12-06 22:17:54+00:00</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.722957641225285,173.0916141730651</t>
+          <t>-34.72285073354474,173.09204946015825</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.72358927903207,173.09217995113605</t>
+          <t>-34.72359496128087,173.09215681521172</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10084,17 +10066,17 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2019-12-06 22:17:54+00:00</t>
+          <t>2019-12-22 22:17:51+00:00</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.722830061461686,173.09213362809564</t>
+          <t>-34.722902284941306,173.09183956356412</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.72360090064031,173.09213263240963</t>
+          <t>-34.72362704919162,173.0920261652267</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -10106,17 +10088,17 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2019-12-22 22:17:51+00:00</t>
+          <t>2020-02-08 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.722874182404375,173.09195398602913</t>
+          <t>-34.72283299258148,173.09212169383844</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.723635122570165,173.09199329333953</t>
+          <t>-34.72362445233867,173.09203673866676</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -10128,17 +10110,17 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2020-02-08 22:17:38+00:00</t>
+          <t>2020-02-24 22:17:35+00:00</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.72284374001072,173.09207793488804</t>
+          <t>-34.722921414145574,173.09176167668167</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.723621366967635,173.0920493011689</t>
+          <t>-34.72361949003295,173.09205694335728</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -10150,17 +10132,17 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2020-02-24 22:17:35+00:00</t>
+          <t>2020-03-11 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72295242186286,173.09163542448124</t>
+          <t>-34.72290400760017,173.09183254955872</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.72361059387028,173.0920931652317</t>
+          <t>-34.7236157618736,173.09207212304548</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -10172,17 +10154,17 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2020-03-11 22:17:28+00:00</t>
+          <t>2020-03-27 22:17:20+00:00</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.72295193335092,173.09163741352992</t>
+          <t>-34.72290686155652,173.09182092934014</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.72360200623481,173.0921281308487</t>
+          <t>-34.72359691535637,173.09214885896554</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -10194,19 +10176,15 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2020-03-27 22:17:20+00:00</t>
+          <t>2020-07-01 22:17:22+00:00</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72294074898962,173.0916829522693</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>-34.72358719639679,173.0921884308179</t>
-        </is>
-      </c>
+          <t>-34.72299201693352,173.09147420677445</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10216,15 +10194,19 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2020-07-01 22:17:22+00:00</t>
+          <t>2020-08-02 22:17:33+00:00</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.722954401621465,173.09162736359957</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>-34.72299160555725,173.0914758817644</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>-34.723636408139186,173.091988058962</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10234,17 +10216,13 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2020-08-02 22:17:33+00:00</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>-34.72298335231616,173.09150948624685</t>
-        </is>
-      </c>
+          <t>2020-09-03 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.72363877358559,173.0919784277069</t>
+          <t>-34.72357310645375,173.0922457995186</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -10256,13 +10234,13 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2020-09-03 22:17:46+00:00</t>
+          <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.72356611289534,173.09227427448687</t>
+          <t>-34.72360396030844,173.09212017460115</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -10274,13 +10252,17 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2021-01-25 22:17:44+00:00</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr"/>
+          <t>2021-05-01 22:17:07+00:00</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>-34.722926196438856,173.09174220495544</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.72360704568679,173.09210761210426</t>
+          <t>-34.723592055878186,173.0921686448929</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -10292,17 +10274,17 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2021-05-01 22:17:07+00:00</t>
+          <t>2021-05-17 22:17:12+00:00</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.722953476020095,173.09163113232353</t>
+          <t>-34.722941597459,173.09167949760672</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.72358421385636,173.09220057455912</t>
+          <t>-34.72359889514286,173.09214079803152</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -10314,17 +10296,17 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2021-05-17 22:17:12+00:00</t>
+          <t>2021-06-18 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.722956484224085,173.09161888397037</t>
+          <t>-34.72294563411503,173.09166306178693</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.72359462703107,173.09215817614856</t>
+          <t>-34.72359781525937,173.09214519490467</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10336,17 +10318,17 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2021-06-18 22:17:27+00:00</t>
+          <t>2021-07-04 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.722930335948284,173.09172535039488</t>
+          <t>-34.723048940901485,173.09124242987906</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.72360221192681,173.09212729334897</t>
+          <t>-34.723639699194834,173.09197465895477</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10358,17 +10340,17 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2021-07-04 22:17:29+00:00</t>
+          <t>2021-08-21 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.72302001617612,173.09136020273158</t>
+          <t>-34.7230094489814,173.09140322905986</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.72364800396154,173.09194084486933</t>
+          <t>-34.72364178181524,173.09196617926216</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10380,17 +10362,17 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2021-08-21 22:17:46+00:00</t>
+          <t>2021-11-09 22:17:58+00:00</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.723002429887444,173.0914318085857</t>
+          <t>-34.72293339558419,173.09171289267513</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.72364378730099,173.0919580136318</t>
+          <t>-34.723602854714215,173.0921246761623</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10402,39 +10384,39 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2021-11-09 22:17:58+00:00</t>
+          <t>2022-01-04 22:17:52+00:00</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.72296355478416,173.09159009510265</t>
+          <t>-34.722919871469664,173.0917679578832</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.723594189935135,173.09215995583514</t>
+          <t>-34.72364278455817,173.09196209644702</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2022-01-04 22:17:52+00:00</t>
+          <t>2022-01-20 22:17:51+00:00</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.72296532885089,173.09158287171323</t>
+          <t>-34.72293211002303,173.09171812701126</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.723629723177844,173.09201527772336</t>
+          <t>-34.72364592134291,173.09194932456322</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10446,17 +10428,17 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2022-01-20 22:17:51+00:00</t>
+          <t>2022-05-12 22:17:13+00:00</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.7229696997381,173.0915650749554</t>
+          <t>-34.72297167949206,173.0915570140704</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.723635122570165,173.09199329333953</t>
+          <t>-34.723618127326645,173.09206249179522</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10468,101 +10450,97 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2022-05-12 22:17:13+00:00</t>
+          <t>2022-06-05 22:17:39+00:00</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.72294357722052,173.09167143672715</t>
+          <t>-34.722939591985764,173.09168766317268</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.72362620071502,173.0920296199151</t>
+          <t>-34.72358490806846,173.09219774799874</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2022-06-05 22:17:39+00:00</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>-34.72294951650187,173.09164725408613</t>
-        </is>
-      </c>
+          <t>2022-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.72358205408494,173.09220936830218</t>
+          <t>-34.72359742958667,173.09214676521648</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2022-06-13 22:17:12+00:00</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr"/>
+          <t>2022-06-21 22:17:48+00:00</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>-34.723006955018384,173.09141338369048</t>
+        </is>
+      </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.72360038641025,173.0921347261589</t>
+          <t>-34.72360907689348,173.0920993417933</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2022-06-21 22:17:48+00:00</t>
+          <t>2022-07-15 22:17:24+00:00</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.722990859937724,173.09147891768365</t>
+          <t>-34.722915757665625,173.0917847077528</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.72361370495729,173.09208049804528</t>
+          <t>-34.72360542586332,173.09211420741525</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2022-07-15 22:17:24+00:00</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>-34.7229496450577,173.09164673065231</t>
-        </is>
-      </c>
+          <t>2022-07-31 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.723595706915006,173.09215377927572</t>
+          <t>-34.72356919828958,173.09226171200143</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -10574,31 +10552,35 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2022-07-31 22:17:39+00:00</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr"/>
+          <t>2022-08-08 22:18:05+00:00</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>-34.72284060320283,173.09209070664028</t>
+        </is>
+      </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.72356135624336,173.09229364165003</t>
+          <t>-34.72359835520113,173.0921429964681</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2022-08-08 22:18:05+00:00</t>
+          <t>2022-09-09 22:18:11+00:00</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.72360928258528,173.09209850429343</t>
+          <t>-34.723615504759096,173.09207316992047</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -10610,17 +10592,17 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2022-09-09 22:18:11+00:00</t>
+          <t>2023-01-15 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.7229548644221,173.09162547923756</t>
+          <t>-34.72282293934995,173.09216262624346</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.72361727884902,173.09206594648288</t>
+          <t>-34.723623372458945,173.09204113554262</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -10632,17 +10614,17 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2023-01-15 22:17:53+00:00</t>
+          <t>2023-01-31 22:17:58+00:00</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.7228175913337,173.09218440102265</t>
+          <t>-34.722846439721316,173.09206694280545</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.72362491514421,173.09203485429134</t>
+          <t>-34.723610799562024,173.0920923277318</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -10654,101 +10636,101 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31 22:17:58+00:00</t>
+          <t>2023-02-08 22:18:06+00:00</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72282908442149,173.0921376061812</t>
+          <t>-34.72282134523013,173.09216911680295</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.723615787585054,173.09207201835798</t>
+          <t>-34.72361995283881,173.0920550589821</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2023-02-08 22:18:06+00:00</t>
+          <t>2023-02-16 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.722858112744376,173.09201941512566</t>
+          <t>-34.722854975942646,173.0920321868823</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.72360938543117,173.09209808554348</t>
+          <t>-34.723626817788926,173.09202710741445</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2023-02-16 22:17:50+00:00</t>
+          <t>2023-03-01 20:19:07+00:00</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72283224694585,173.09212472974605</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>-34.72363334848456,173.09200051678025</t>
-        </is>
-      </c>
+          <t>-34.72278912850874,173.09230028886265</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2023-03-01 20:19:07+00:00</t>
+          <t>2023-03-04 22:17:37+00:00</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.722780026552286,173.0923373478299</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>-34.722860709603815,173.09200884178537</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>-34.72364198750611,173.09196534176164</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2023-03-04 22:17:37+00:00</t>
+          <t>2023-03-20 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.722855747287454,173.0920290462865</t>
+          <t>-34.72295404166539,173.09162882921447</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.72364340163069,173.09195958394537</t>
+          <t>-34.72363939065844,173.0919759152055</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -10760,39 +10742,39 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2023-03-20 22:17:28+00:00</t>
+          <t>2023-03-28 22:17:33+00:00</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.72295612426812,173.09162034958533</t>
+          <t>-34.722847673874405,173.09206191785313</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.723638799296964,173.09197832301936</t>
+          <t>-34.72363676809847,173.09198659333626</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2023-03-28 22:17:33+00:00</t>
+          <t>2023-04-13 22:17:27+00:00</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.722850142179986,173.0920518679481</t>
+          <t>-34.722919125842836,173.0917709937972</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.723636048179884,173.09198952458772</t>
+          <t>-34.72360169769683,173.09212938709828</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -10804,17 +10786,17 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2023-04-13 22:17:27+00:00</t>
+          <t>2023-05-15 22:17:12+00:00</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72291210666262,173.0917995732607</t>
+          <t>-34.72296592020637,173.0915804639167</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.72360370319352,173.09212122147585</t>
+          <t>-34.72361877011267,173.09205987460751</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -10826,17 +10808,13 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2023-05-15 22:17:12+00:00</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>-34.72293367840761,173.09171174112117</t>
-        </is>
-      </c>
+          <t>2023-06-16 22:16:54+00:00</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.72362802622516,173.09202218710055</t>
+          <t>-34.72360493734505,173.09211619647724</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -10848,79 +10826,83 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2023-06-16 22:16:54+00:00</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr"/>
+          <t>2023-06-24 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>-34.722941057523954,173.09168169602836</t>
+        </is>
+      </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.72360884549021,173.09210028398064</t>
+          <t>-34.72359771241332,173.0921456136545</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2023-06-24 22:17:06+00:00</t>
+          <t>2023-07-02 22:17:05+00:00</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72294766529782,173.09165479153307</t>
+          <t>-34.72276760776301,173.09238791132293</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.723595809761086,173.09215336052594</t>
+          <t>-34.723598149509044,173.09214383396778</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2023-07-02 22:17:05+00:00</t>
+          <t>2023-07-26 22:17:23+00:00</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72275686022241,173.09243167019284</t>
+          <t>-34.72277691542898,173.09235001487613</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.72360123488981,173.09213127147262</t>
+          <t>-34.72359480701173,173.09215744333642</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2023-07-26 22:17:23+00:00</t>
+          <t>2023-09-12 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72276246540105,173.09240884858266</t>
+          <t>-34.72277930662304,173.0923402790473</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.72359897227739,173.09214048396913</t>
+          <t>-34.723604500249735,173.09211797616427</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10932,83 +10914,83 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2023-09-12 22:17:38+00:00</t>
+          <t>2023-09-20 22:17:40+00:00</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.722764008110005,173.092402567405</t>
+          <t>-34.722834612410324,173.09211509859065</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.72360889691317,173.09210007460567</t>
+          <t>-34.72361519622168,173.09207442617046</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2023-09-20 22:17:40+00:00</t>
+          <t>2023-10-14 22:17:45+00:00</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.72285775278358,173.09202088073712</t>
+          <t>-34.722833943909585,173.09211782043897</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.723608562664,173.09210143554296</t>
+          <t>-34.72363270569982,173.09200313396883</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2023-10-14 22:17:45+00:00</t>
+          <t>2023-10-22 22:17:50+00:00</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72284427995291,173.09207573647157</t>
+          <t>-34.72283299258148,173.09212169383844</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.72362974888926,173.09201517303583</t>
+          <t>-34.723603780328,173.09212090741343</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2023-10-22 22:17:50+00:00</t>
+          <t>2023-11-07 22:17:46+00:00</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.722822656522254,173.09216377779435</t>
+          <t>-34.722851813428065,173.09204506332455</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.723606737149005,173.092108868354</t>
+          <t>-34.72361036246706,173.09209410741906</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -11020,61 +11002,61 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2023-11-07 22:17:46+00:00</t>
+          <t>2023-11-15 22:17:47+00:00</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72283075567437,173.09213080156113</t>
+          <t>-34.72289030345197,173.091888347534</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.723616404659836,173.09206950585798</t>
+          <t>-34.72362208688765,173.0920463699185</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2023-11-15 22:17:47+00:00</t>
+          <t>2024-01-10 22:17:52+00:00</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.72292583648142,173.09174367056931</t>
+          <t>-34.7228735910415,173.09195639382034</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.72361187944359,173.09208793085725</t>
+          <t>-34.723657851397206,173.09190074952082</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2024-01-10 22:17:52+00:00</t>
+          <t>2024-02-11 22:17:53+00:00</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72287937611097,173.0919328393397</t>
+          <t>-34.72289937956049,173.09185139315468</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.72365618016232,173.09190755421508</t>
+          <t>-34.72363687094399,173.09198617458603</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -11086,17 +11068,17 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2024-02-11 22:17:53+00:00</t>
+          <t>2024-03-30 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.722945659826216,173.0916629571002</t>
+          <t>-34.722935066813335,173.09170608803794</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.723623578150345,173.09204029804246</t>
+          <t>-34.72360964254588,173.09209703866864</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -11108,167 +11090,167 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2024-03-30 22:17:36+00:00</t>
+          <t>2024-04-07 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.722959029626494,173.09160851997856</t>
+          <t>-34.72298949725356,173.09148446608765</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.723602751868235,173.09212509491218</t>
+          <t>-34.72366312221243,173.0918792885601</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2024-04-07 22:17:11+00:00</t>
+          <t>2024-04-15 22:17:28+00:00</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.72298535777745,173.09150132067228</t>
+          <t>-34.722899996632606,173.09184888067534</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.723664304931425,173.09187447292953</t>
+          <t>-34.72361020819823,173.09209473554395</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2024-04-15 22:17:28+00:00</t>
+          <t>2024-04-23 22:17:03+00:00</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.72289752834379,173.09185893059248</t>
+          <t>-34.722912646599795,173.0917973748406</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.723610928119356,173.09209180429434</t>
+          <t>-34.72361900151562,173.09205893241995</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2024-04-23 22:17:03+00:00</t>
+          <t>2024-05-01 22:17:11+00:00</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.722922571152296,173.09175696578038</t>
+          <t>-34.72292755913477,173.0917366565599</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.72361614754535,173.09207055273296</t>
+          <t>-34.72360277757973,173.0921249902247</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2024-05-01 22:17:11+00:00</t>
+          <t>2024-05-09 22:16:51+00:00</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72291969149078,173.09176869069003</t>
+          <t>-34.72291460065783,173.09178941865332</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.72360504019099,173.09211577772734</t>
+          <t>-34.72364635843576,173.0919475448744</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2024-05-09 22:16:51+00:00</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>-34.72294393717711,173.09166997111265</t>
-        </is>
-      </c>
+          <t>2024-05-17 22:17:03+00:00</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.72363792511033,173.09198188239628</t>
+          <t>-34.72360732851307,173.092106460542</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2024-05-17 22:17:03+00:00</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t>2024-05-25 22:16:38+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>-34.72292563079144,173.09174450806296</t>
+        </is>
+      </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.72361396207186,173.09207945117032</t>
+          <t>-34.723615504759096,173.09207316992047</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2024-05-25 22:16:38+00:00</t>
+          <t>2024-07-12 22:17:00+00:00</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72295123914969,173.09164024007273</t>
+          <t>-34.72296072656094,173.09160161065034</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.723608151280374,173.09210311054264</t>
+          <t>-34.72361247080722,173.09208552304497</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -11280,17 +11262,17 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2024-07-12 22:17:00+00:00</t>
+          <t>2024-08-13 22:17:14+00:00</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.722964866050916,173.09158475607575</t>
+          <t>-34.72293928345136,173.09168891941357</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.72361128807989,173.0920903386695</t>
+          <t>-34.72360977110324,173.09209651523122</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -11302,57 +11284,57 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2024-08-13 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>-34.72292401098264,173.09175110332524</t>
-        </is>
-      </c>
+          <t>2024-08-21 22:17:19+00:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.72361416776352,173.09207861367037</t>
+          <t>-34.72359758385576,173.09214613709176</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2024-08-21 22:17:19+00:00</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
+          <t>2024-08-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-34.722958258292515,173.0916116605822</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.723587144973706,173.09218864019275</t>
+          <t>-34.723623680996035,173.09203987929237</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2024-08-29 22:17:21+00:00</t>
+          <t>2024-11-17 22:17:38+00:00</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.72292768769098,173.09173613312637</t>
+          <t>-34.722939154895364,173.09168944284724</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.72363247429729,173.0920040761567</t>
+          <t>-34.72366481915701,173.09187237917706</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -11364,71 +11346,67 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2024-11-17 22:17:38+00:00</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>-34.72297800441667,173.09153126111042</t>
-        </is>
-      </c>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.72365366045362,173.0919178135998</t>
+          <t>-34.72362506941272,173.09203422616622</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2025-01-12 22:17:45+00:00</t>
+          <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.72362470945287,173.09203569179152</t>
+          <t>-34.723608176991846,173.09210300585517</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2025-03-09 22:17:26+00:00</t>
+          <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.723613627822914,173.09208081210778</t>
+          <t>-34.72367332958531,173.09183772756992</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2025-03-17 22:17:32+00:00</t>
+          <t>2025-04-18 22:17:25+00:00</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.7236634821704,173.0918778229334</t>
+          <t>-34.723679808817174,173.09181134628116</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11440,17 +11418,17 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2025-04-18 22:17:25+00:00</t>
+          <t>2025-05-04 22:17:17+00:00</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72280257572885,173.09224553788764</t>
+          <t>-34.72291102678815,173.0918039701008</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.72367446088019,173.09183312131347</t>
+          <t>-34.72361663606285,173.09206856367044</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11462,17 +11440,17 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2025-05-04 22:17:17+00:00</t>
+          <t>2025-05-20 22:17:06+00:00</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.72290359621899,173.09183422454512</t>
+          <t>-34.72295640709067,173.09161919803074</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.72361877011267,173.09205987460751</t>
+          <t>-34.72359886943134,173.092140902719</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -11484,17 +11462,13 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2025-05-20 22:17:06+00:00</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>-34.722947742431316,173.0916544774728</t>
-        </is>
-      </c>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.72360136344734,173.09213074803532</t>
+          <t>-34.72360899975906,173.09209965585575</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -11506,13 +11480,17 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2025-06-21 22:17:14+00:00</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>-34.722933087049526,173.09171414891583</t>
+        </is>
+      </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.72362002997311,173.09205474491958</t>
+          <t>-34.723608742644316,173.09210070273056</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11524,66 +11502,62 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2025-07-23 22:17:27+00:00</t>
+          <t>2025-07-31 22:17:29+00:00</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.722918200237054,173.09177476251796</t>
+          <t>-34.722745084191025,173.0924796165014</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.723613010747904,173.09208332460761</t>
+          <t>-34.72358840483957,173.09218351050873</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2025-07-31 22:17:29+00:00</t>
+          <t>2025-08-08 22:17:36+00:00</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.72274755253103,173.09246956662125</t>
+          <t>-34.722820033937765,173.09217445581135</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.72358768491623,173.09218644175678</t>
+          <t>-34.723596323991465,173.09215126677694</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2025-08-08 22:17:36+00:00</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>-34.722816331463925,173.09218953065772</t>
-        </is>
-      </c>
+          <t>2025-10-19 22:17:50+00:00</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.723597403875154,173.09214686990396</t>
+          <t>-34.72360529730588,173.09211473085261</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0013/nzd0013.xlsx
+++ b/data/nzd0013/nzd0013.xlsx
@@ -484,7 +484,7 @@
         <v>426.12</v>
       </c>
       <c r="C3" t="n">
-        <v>383.02</v>
+        <v>381.19</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.58</v>
+        <v>420.85</v>
       </c>
       <c r="C4" t="n">
-        <v>378.88</v>
+        <v>380.95</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.86</v>
+        <v>406.22</v>
       </c>
       <c r="C5" t="n">
-        <v>387.69</v>
+        <v>383.28</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -534,9 +534,11 @@
           <t>2000-08-19 22:08:38+00:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>406.22</v>
+      </c>
       <c r="C6" t="n">
-        <v>388.93</v>
+        <v>385.17</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -551,10 +553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392.93</v>
+        <v>401.79</v>
       </c>
       <c r="C7" t="n">
-        <v>386.49</v>
+        <v>385.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -569,10 +571,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>410.17</v>
+        <v>399.99</v>
       </c>
       <c r="C8" t="n">
-        <v>382.58</v>
+        <v>386.42</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -587,10 +589,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400.18</v>
+        <v>400.04</v>
       </c>
       <c r="C9" t="n">
-        <v>384.11</v>
+        <v>385.96</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -605,10 +607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387.05</v>
+        <v>397.58</v>
       </c>
       <c r="C10" t="n">
-        <v>375.76</v>
+        <v>382.24</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -623,10 +625,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>377.55</v>
+        <v>388.26</v>
       </c>
       <c r="C11" t="n">
-        <v>385.71</v>
+        <v>381.86</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -641,10 +643,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>380.96</v>
+        <v>379.25</v>
       </c>
       <c r="C12" t="n">
-        <v>375.63</v>
+        <v>380.67</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -659,10 +661,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.97</v>
+        <v>378.83</v>
       </c>
       <c r="C13" t="n">
-        <v>388.17</v>
+        <v>383.17</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -677,10 +679,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.7</v>
+        <v>379.88</v>
       </c>
       <c r="C14" t="n">
-        <v>379.23</v>
+        <v>381.01</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -694,9 +696,11 @@
           <t>2001-12-12 22:06:14+00:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>379.88</v>
+      </c>
       <c r="C15" t="n">
-        <v>377.73</v>
+        <v>380.19</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -711,10 +715,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>388.43</v>
+        <v>382.01</v>
       </c>
       <c r="C16" t="n">
-        <v>373.85</v>
+        <v>378.92</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -729,10 +733,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>386.17</v>
+        <v>382.85</v>
       </c>
       <c r="C17" t="n">
-        <v>374.57</v>
+        <v>378.2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -747,10 +751,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>384.4</v>
+        <v>385.28</v>
       </c>
       <c r="C18" t="n">
-        <v>388.22</v>
+        <v>381.39</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -765,10 +769,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>384.91</v>
+        <v>384.65</v>
       </c>
       <c r="C19" t="n">
-        <v>372.24</v>
+        <v>380.23</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -801,9 +805,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>394.33</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>394.93</v>
+      </c>
+      <c r="C21" t="n">
+        <v>372.8</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>L7</t>
@@ -817,10 +823,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>425.39</v>
+        <v>405.08</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6</v>
+        <v>379.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -835,10 +841,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.96</v>
+        <v>401.23</v>
       </c>
       <c r="C23" t="n">
-        <v>384.49</v>
+        <v>385.05</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -853,10 +859,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>391.66</v>
+        <v>398.83</v>
       </c>
       <c r="C24" t="n">
-        <v>387.72</v>
+        <v>385.94</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -871,10 +877,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.59</v>
+        <v>398.59</v>
       </c>
       <c r="C25" t="n">
-        <v>384.08</v>
+        <v>385.47</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -889,10 +895,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>423.4</v>
+        <v>404.4</v>
       </c>
       <c r="C26" t="n">
-        <v>378.65</v>
+        <v>384.11</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -907,9 +913,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>448.31</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>411.72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>384.11</v>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>L5</t>
@@ -922,9 +930,11 @@
           <t>2004-07-29 22:06:27+00:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>411.72</v>
+      </c>
       <c r="C28" t="n">
-        <v>373.81</v>
+        <v>382.39</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -938,9 +948,11 @@
           <t>2004-08-30 22:06:20+00:00</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>408.98</v>
+      </c>
       <c r="C29" t="n">
-        <v>393.63</v>
+        <v>383.73</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -954,9 +966,11 @@
           <t>2004-11-02 22:06:28+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>435.85</v>
+      </c>
       <c r="C30" t="n">
-        <v>374.51</v>
+        <v>380.15</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -970,9 +984,11 @@
           <t>2004-11-18 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>448.31</v>
+      </c>
       <c r="C31" t="n">
-        <v>364.48</v>
+        <v>376.61</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -990,7 +1006,7 @@
         <v>446.35</v>
       </c>
       <c r="C32" t="n">
-        <v>381.4</v>
+        <v>377.57</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1005,10 +1021,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>462.68</v>
+        <v>454.51</v>
       </c>
       <c r="C33" t="n">
-        <v>395.75</v>
+        <v>380.6</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1022,9 +1038,11 @@
           <t>2005-01-21 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>454.51</v>
+      </c>
       <c r="C34" t="n">
-        <v>376.4</v>
+        <v>380</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1038,9 +1056,11 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>454.51</v>
+      </c>
       <c r="C35" t="n">
-        <v>380</v>
+        <v>380.88</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1055,10 +1075,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>441.47</v>
+        <v>450.17</v>
       </c>
       <c r="C36" t="n">
-        <v>395.1</v>
+        <v>382.66</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1073,10 +1093,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.86</v>
+        <v>441.09</v>
       </c>
       <c r="C37" t="n">
-        <v>376.49</v>
+        <v>381.97</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1091,10 +1111,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>431.14</v>
+        <v>439.1</v>
       </c>
       <c r="C38" t="n">
-        <v>382.76</v>
+        <v>380.77</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1109,10 +1129,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>434.02</v>
+        <v>436.63</v>
       </c>
       <c r="C39" t="n">
-        <v>380.51</v>
+        <v>383.86</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1126,9 +1146,11 @@
           <t>2005-06-30 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>436.63</v>
+      </c>
       <c r="C40" t="n">
-        <v>394.82</v>
+        <v>385.23</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1143,10 +1165,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>428.89</v>
+        <v>429.88</v>
       </c>
       <c r="C41" t="n">
-        <v>384.62</v>
+        <v>384.9</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1160,9 +1182,11 @@
           <t>2005-09-18 22:06:39+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>431.35</v>
+      </c>
       <c r="C42" t="n">
-        <v>387.18</v>
+        <v>385.98</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1177,10 +1201,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>418.35</v>
+        <v>428.1</v>
       </c>
       <c r="C43" t="n">
-        <v>378.99</v>
+        <v>384.81</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1194,9 +1218,11 @@
           <t>2006-01-08 22:07:25+00:00</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>423.62</v>
+      </c>
       <c r="C44" t="n">
-        <v>385.49</v>
+        <v>384.07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1211,10 +1237,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>378.96</v>
+        <v>398.65</v>
       </c>
       <c r="C45" t="n">
-        <v>364.45</v>
+        <v>379.03</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1228,9 +1254,11 @@
           <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>398.65</v>
+      </c>
       <c r="C46" t="n">
-        <v>388.13</v>
+        <v>380.85</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1244,9 +1272,11 @@
           <t>2006-02-17 22:08:11+00:00</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>398.65</v>
+      </c>
       <c r="C47" t="n">
-        <v>387.48</v>
+        <v>381.95</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1261,10 +1291,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>388.16</v>
+        <v>383.56</v>
       </c>
       <c r="C48" t="n">
-        <v>385.03</v>
+        <v>382.12</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1279,10 +1309,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>414.79</v>
+        <v>393.97</v>
       </c>
       <c r="C49" t="n">
-        <v>383.53</v>
+        <v>382.35</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1297,10 +1327,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>451.03</v>
+        <v>408.24</v>
       </c>
       <c r="C50" t="n">
-        <v>395.15</v>
+        <v>384.18</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1314,9 +1344,11 @@
           <t>2006-06-25 22:10:20+00:00</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>408.24</v>
+      </c>
       <c r="C51" t="n">
-        <v>382.48</v>
+        <v>383.97</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1331,10 +1363,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>452.41</v>
+        <v>417.07</v>
       </c>
       <c r="C52" t="n">
-        <v>397.12</v>
+        <v>385.42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1348,9 +1380,11 @@
           <t>2006-08-12 22:10:59+00:00</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>426.6</v>
+      </c>
       <c r="C53" t="n">
-        <v>392.66</v>
+        <v>389.06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1365,10 +1399,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>380.98</v>
+        <v>428.14</v>
       </c>
       <c r="C54" t="n">
-        <v>385.55</v>
+        <v>390.59</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1383,10 +1417,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>382.69</v>
+        <v>381.84</v>
       </c>
       <c r="C55" t="n">
-        <v>382.14</v>
+        <v>383.85</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1401,9 +1435,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>400.21</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>387.96</v>
+      </c>
+      <c r="C56" t="n">
+        <v>383.85</v>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1417,10 +1453,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>380.48</v>
+        <v>386.09</v>
       </c>
       <c r="C57" t="n">
-        <v>382.87</v>
+        <v>383.52</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1434,9 +1470,11 @@
           <t>2007-10-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>380.48</v>
+      </c>
       <c r="C58" t="n">
-        <v>382.37</v>
+        <v>382.62</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1451,10 +1489,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>373.8</v>
+        <v>377.14</v>
       </c>
       <c r="C59" t="n">
-        <v>378.63</v>
+        <v>381.29</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1469,10 +1507,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>404.36</v>
+        <v>389.08</v>
       </c>
       <c r="C60" t="n">
-        <v>385.69</v>
+        <v>382.23</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1505,10 +1543,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>394.3</v>
+        <v>385.71</v>
       </c>
       <c r="C62" t="n">
-        <v>368.38</v>
+        <v>372.9</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1523,10 +1561,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>398.05</v>
+        <v>389.82</v>
       </c>
       <c r="C63" t="n">
-        <v>371.47</v>
+        <v>372.42</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1541,10 +1579,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>392.78</v>
+        <v>390.56</v>
       </c>
       <c r="C64" t="n">
-        <v>369.24</v>
+        <v>371.63</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1558,9 +1596,11 @@
           <t>2009-01-24 22:02:55+00:00</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>390.56</v>
+      </c>
       <c r="C65" t="n">
-        <v>391.45</v>
+        <v>375.59</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1575,10 +1615,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>373.96</v>
+        <v>387.24</v>
       </c>
       <c r="C66" t="n">
-        <v>386.98</v>
+        <v>377.49</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1593,10 +1633,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>371.06</v>
+        <v>383.96</v>
       </c>
       <c r="C67" t="n">
-        <v>378.61</v>
+        <v>379.55</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1611,10 +1651,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>350.69</v>
+        <v>360.88</v>
       </c>
       <c r="C68" t="n">
-        <v>368.42</v>
+        <v>373.51</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1629,10 +1669,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>373.52</v>
+        <v>365.09</v>
       </c>
       <c r="C69" t="n">
-        <v>378.06</v>
+        <v>375.03</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1646,9 +1686,11 @@
           <t>2010-01-27 22:08:26+00:00</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>362.11</v>
+      </c>
       <c r="C70" t="n">
-        <v>378.07</v>
+        <v>374.85</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1663,10 +1705,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>368.12</v>
+        <v>364.11</v>
       </c>
       <c r="C71" t="n">
-        <v>364.58</v>
+        <v>372.28</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1680,9 +1722,11 @@
           <t>2010-02-12 22:08:30+00:00</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>364.11</v>
+      </c>
       <c r="C72" t="n">
-        <v>382.71</v>
+        <v>374.37</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1697,9 +1741,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>382.61</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>375.37</v>
+      </c>
+      <c r="C73" t="n">
+        <v>375.12</v>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1712,7 +1758,9 @@
           <t>2010-10-02 22:09:49+00:00</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>382.61</v>
+      </c>
       <c r="C74" t="n">
         <v>388</v>
       </c>
@@ -1729,9 +1777,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>372.42</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>377.51</v>
+      </c>
+      <c r="C75" t="n">
+        <v>388</v>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1745,10 +1795,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>433.35</v>
+        <v>396.13</v>
       </c>
       <c r="C76" t="n">
-        <v>375.49</v>
+        <v>381.75</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1763,10 +1813,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>406.71</v>
+        <v>404.16</v>
       </c>
       <c r="C77" t="n">
-        <v>381.11</v>
+        <v>381.53</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1781,10 +1831,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>429.4</v>
+        <v>410.47</v>
       </c>
       <c r="C78" t="n">
-        <v>393.94</v>
+        <v>384.63</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1799,10 +1849,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>422.01</v>
+        <v>412.78</v>
       </c>
       <c r="C79" t="n">
-        <v>381.86</v>
+        <v>384.08</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1816,9 +1866,11 @@
           <t>2011-03-11 22:11:09+00:00</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>412.78</v>
+      </c>
       <c r="C80" t="n">
-        <v>382.52</v>
+        <v>383.82</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1832,9 +1884,11 @@
           <t>2011-05-30 22:11:11+00:00</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>422.87</v>
+      </c>
       <c r="C81" t="n">
-        <v>381.43</v>
+        <v>382.72</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1849,10 +1903,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>459.83</v>
+        <v>437.08</v>
       </c>
       <c r="C82" t="n">
-        <v>404.55</v>
+        <v>388.86</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1867,10 +1921,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>420.27</v>
+        <v>440.05</v>
       </c>
       <c r="C83" t="n">
-        <v>377.47</v>
+        <v>387.82</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1885,10 +1939,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>450.76</v>
+        <v>443.62</v>
       </c>
       <c r="C84" t="n">
-        <v>391.35</v>
+        <v>388.7</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1903,10 +1957,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>423.28</v>
+        <v>438.53</v>
       </c>
       <c r="C85" t="n">
-        <v>385</v>
+        <v>387.96</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1921,10 +1975,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>424.09</v>
+        <v>429.6</v>
       </c>
       <c r="C86" t="n">
-        <v>386.07</v>
+        <v>384.97</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1939,10 +1993,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>387.5</v>
+        <v>421.41</v>
       </c>
       <c r="C87" t="n">
-        <v>373.71</v>
+        <v>384.03</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1975,10 +2029,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>375.08</v>
+        <v>370.05</v>
       </c>
       <c r="C89" t="n">
-        <v>370.72</v>
+        <v>376.83</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1993,10 +2047,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>376.23</v>
+        <v>372.11</v>
       </c>
       <c r="C90" t="n">
-        <v>373.15</v>
+        <v>375.6</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2011,10 +2065,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>374.35</v>
+        <v>372.67</v>
       </c>
       <c r="C91" t="n">
-        <v>376.79</v>
+        <v>375.9</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2029,10 +2083,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>355.12</v>
+        <v>370.19</v>
       </c>
       <c r="C92" t="n">
-        <v>372.63</v>
+        <v>373.32</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2047,10 +2101,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>424.68</v>
+        <v>382.6</v>
       </c>
       <c r="C93" t="n">
-        <v>384.51</v>
+        <v>376.77</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2065,10 +2119,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>393.12</v>
+        <v>384.7</v>
       </c>
       <c r="C94" t="n">
-        <v>398.76</v>
+        <v>381.17</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2083,9 +2137,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>368.38</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>381.98</v>
+      </c>
+      <c r="C95" t="n">
+        <v>381.17</v>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2099,10 +2155,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>386.4</v>
+        <v>383.68</v>
       </c>
       <c r="C96" t="n">
-        <v>398.3</v>
+        <v>386.2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2117,10 +2173,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>367.22</v>
+        <v>382.49</v>
       </c>
       <c r="C97" t="n">
-        <v>379.87</v>
+        <v>386.81</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2134,9 +2190,11 @@
           <t>2014-02-23 22:18:20+00:00</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>367.22</v>
+      </c>
       <c r="C98" t="n">
-        <v>389.16</v>
+        <v>384.51</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2154,7 +2212,7 @@
         <v>370.78</v>
       </c>
       <c r="C99" t="n">
-        <v>379.78</v>
+        <v>384.47</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2169,10 +2227,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>382.75</v>
+        <v>376.76</v>
       </c>
       <c r="C100" t="n">
-        <v>385.85</v>
+        <v>384.93</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2187,9 +2245,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>379.68</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
+        <v>377.74</v>
+      </c>
+      <c r="C101" t="n">
+        <v>384.93</v>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2203,10 +2263,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>381.02</v>
+        <v>378.56</v>
       </c>
       <c r="C102" t="n">
-        <v>387.78</v>
+        <v>385.64</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2221,10 +2281,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>374.05</v>
+        <v>377.66</v>
       </c>
       <c r="C103" t="n">
-        <v>386.29</v>
+        <v>384.92</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2238,9 +2298,11 @@
           <t>2015-02-26 22:17:23+00:00</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>374.05</v>
+      </c>
       <c r="C104" t="n">
-        <v>393.55</v>
+        <v>389.92</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2258,7 +2320,7 @@
         <v>355.73</v>
       </c>
       <c r="C105" t="n">
-        <v>382.97</v>
+        <v>388.26</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2273,10 +2335,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>403.74</v>
+        <v>379.74</v>
       </c>
       <c r="C106" t="n">
-        <v>403.2</v>
+        <v>393.24</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2291,10 +2353,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>423.9</v>
+        <v>394.46</v>
       </c>
       <c r="C107" t="n">
-        <v>384.33</v>
+        <v>390.17</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2309,10 +2371,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>435.33</v>
+        <v>420.99</v>
       </c>
       <c r="C108" t="n">
-        <v>388.44</v>
+        <v>391.99</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2327,10 +2389,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>422.53</v>
+        <v>421.38</v>
       </c>
       <c r="C109" t="n">
-        <v>377.82</v>
+        <v>388.45</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2345,10 +2407,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>387.74</v>
+        <v>414.65</v>
       </c>
       <c r="C110" t="n">
-        <v>374.64</v>
+        <v>385.69</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2362,9 +2424,11 @@
           <t>2016-04-01 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>417.37</v>
+      </c>
       <c r="C111" t="n">
-        <v>397.37</v>
+        <v>384.52</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2379,10 +2443,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>367.38</v>
+        <v>407.38</v>
       </c>
       <c r="C112" t="n">
-        <v>385.66</v>
+        <v>384.71</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2397,10 +2461,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>448.81</v>
+        <v>408.1</v>
       </c>
       <c r="C113" t="n">
-        <v>395.74</v>
+        <v>392.92</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2415,10 +2479,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>423.65</v>
+        <v>413.28</v>
       </c>
       <c r="C114" t="n">
-        <v>386.43</v>
+        <v>391.3</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2433,10 +2497,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>409.55</v>
+        <v>412.35</v>
       </c>
       <c r="C115" t="n">
-        <v>377.09</v>
+        <v>386.23</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2451,10 +2515,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>439</v>
+        <v>430.25</v>
       </c>
       <c r="C116" t="n">
-        <v>386.63</v>
+        <v>386.47</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2469,10 +2533,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>404.24</v>
+        <v>425.05</v>
       </c>
       <c r="C117" t="n">
-        <v>372.89</v>
+        <v>383.76</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2487,10 +2551,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>373.16</v>
+        <v>405.47</v>
       </c>
       <c r="C118" t="n">
-        <v>388.6</v>
+        <v>382.71</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2505,10 +2569,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>360.99</v>
+        <v>367.08</v>
       </c>
       <c r="C119" t="n">
-        <v>388.91</v>
+        <v>388.75</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2523,9 +2587,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="C120" t="inlineStr"/>
+        <v>371.48</v>
+      </c>
+      <c r="C120" t="n">
+        <v>388.75</v>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2539,10 +2605,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>372.57</v>
+        <v>371.29</v>
       </c>
       <c r="C121" t="n">
-        <v>383.58</v>
+        <v>386.25</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2557,10 +2623,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>413.23</v>
+        <v>388.7</v>
       </c>
       <c r="C122" t="n">
-        <v>368.16</v>
+        <v>375.87</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2575,10 +2641,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>383.12</v>
+        <v>389.64</v>
       </c>
       <c r="C123" t="n">
-        <v>374.91</v>
+        <v>375.55</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2593,10 +2659,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>367.07</v>
+        <v>384</v>
       </c>
       <c r="C124" t="n">
-        <v>390.35</v>
+        <v>379.25</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2611,10 +2677,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>372.67</v>
+        <v>381.73</v>
       </c>
       <c r="C125" t="n">
-        <v>386.52</v>
+        <v>380.7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2629,10 +2695,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>338.41</v>
+        <v>374.9</v>
       </c>
       <c r="C126" t="n">
-        <v>376.64</v>
+        <v>379.32</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2646,9 +2712,11 @@
           <t>2018-06-26 22:16:36+00:00</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>374.9</v>
+      </c>
       <c r="C127" t="n">
-        <v>391.05</v>
+        <v>381.27</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2663,10 +2731,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>377.81</v>
+        <v>367.82</v>
       </c>
       <c r="C128" t="n">
-        <v>391.96</v>
+        <v>385.24</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2681,10 +2749,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>408.91</v>
+        <v>375.04</v>
       </c>
       <c r="C129" t="n">
-        <v>380.02</v>
+        <v>384.92</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2699,10 +2767,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>406.79</v>
+        <v>397.84</v>
       </c>
       <c r="C130" t="n">
-        <v>384.35</v>
+        <v>386.84</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2717,10 +2785,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>424.06</v>
+        <v>404.39</v>
       </c>
       <c r="C131" t="n">
-        <v>391.22</v>
+        <v>386.89</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2735,10 +2803,10 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>375.38</v>
+        <v>403.79</v>
       </c>
       <c r="C132" t="n">
-        <v>385.29</v>
+        <v>385.22</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2753,10 +2821,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>383.28</v>
+        <v>399.68</v>
       </c>
       <c r="C133" t="n">
-        <v>386.45</v>
+        <v>385.47</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2771,10 +2839,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>373.65</v>
+        <v>395.35</v>
       </c>
       <c r="C134" t="n">
-        <v>390.16</v>
+        <v>386.25</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2789,10 +2857,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>364.5</v>
+        <v>387.94</v>
       </c>
       <c r="C135" t="n">
-        <v>386.19</v>
+        <v>387.28</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2807,10 +2875,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>330.05</v>
+        <v>375.15</v>
       </c>
       <c r="C136" t="n">
-        <v>369.99</v>
+        <v>384.88</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2825,10 +2893,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>364.94</v>
+        <v>365.3</v>
       </c>
       <c r="C137" t="n">
-        <v>396.19</v>
+        <v>385.71</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2843,10 +2911,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>407.81</v>
+        <v>367.6</v>
       </c>
       <c r="C138" t="n">
-        <v>393.61</v>
+        <v>386.6</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2861,10 +2929,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>387.76</v>
+        <v>372.64</v>
       </c>
       <c r="C139" t="n">
-        <v>381.13</v>
+        <v>385.23</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2879,10 +2947,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>414.71</v>
+        <v>403.43</v>
       </c>
       <c r="C140" t="n">
-        <v>382.14</v>
+        <v>385.63</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2897,10 +2965,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>380.32</v>
+        <v>397.65</v>
       </c>
       <c r="C141" t="n">
-        <v>384.07</v>
+        <v>385.24</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2915,10 +2983,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>387.09</v>
+        <v>395.54</v>
       </c>
       <c r="C142" t="n">
-        <v>385.52</v>
+        <v>385.29</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2933,10 +3001,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>385.98</v>
+        <v>393.94</v>
       </c>
       <c r="C143" t="n">
-        <v>392.85</v>
+        <v>386.55</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2951,9 +3019,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>352.86</v>
-      </c>
-      <c r="C144" t="inlineStr"/>
+        <v>384.19</v>
+      </c>
+      <c r="C144" t="n">
+        <v>386.15</v>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -2967,10 +3037,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>353.02</v>
+        <v>379</v>
       </c>
       <c r="C145" t="n">
-        <v>377.49</v>
+        <v>384.41</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2984,9 +3054,11 @@
           <t>2020-09-03 22:17:46+00:00</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>369.74</v>
+      </c>
       <c r="C146" t="n">
-        <v>402.11</v>
+        <v>389.49</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3000,9 +3072,11 @@
           <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>353.02</v>
+      </c>
       <c r="C147" t="n">
-        <v>390.11</v>
+        <v>389.9</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3020,7 +3094,7 @@
         <v>378.46</v>
       </c>
       <c r="C148" t="n">
-        <v>394.74</v>
+        <v>392.43</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3035,10 +3109,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>372.47</v>
+        <v>375.47</v>
       </c>
       <c r="C149" t="n">
-        <v>392.08</v>
+        <v>392.31</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3053,10 +3127,10 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>370.9</v>
+        <v>373.94</v>
       </c>
       <c r="C150" t="n">
-        <v>392.5</v>
+        <v>392.36</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3071,10 +3145,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>330.72</v>
+        <v>363.14</v>
       </c>
       <c r="C151" t="n">
-        <v>376.21</v>
+        <v>389.13</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3089,10 +3163,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>346.08</v>
+        <v>359.73</v>
       </c>
       <c r="C152" t="n">
-        <v>375.4</v>
+        <v>386.19</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3107,10 +3181,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>375.66</v>
+        <v>359.17</v>
       </c>
       <c r="C153" t="n">
-        <v>390.54</v>
+        <v>385.35</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3125,10 +3199,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>380.92</v>
+        <v>367.55</v>
       </c>
       <c r="C154" t="n">
-        <v>375.01</v>
+        <v>380.32</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3143,10 +3217,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>376.16</v>
+        <v>369.71</v>
       </c>
       <c r="C155" t="n">
-        <v>373.79</v>
+        <v>378.69</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3161,10 +3235,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>360.77</v>
+        <v>372.62</v>
       </c>
       <c r="C156" t="n">
-        <v>384.6</v>
+        <v>377.8</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3179,10 +3253,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>373.25</v>
+        <v>372.78</v>
       </c>
       <c r="C157" t="n">
-        <v>397.52</v>
+        <v>382.73</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3196,9 +3270,11 @@
           <t>2022-06-13 22:17:12+00:00</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>372.78</v>
+      </c>
       <c r="C158" t="n">
-        <v>392.65</v>
+        <v>384.71</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3213,10 +3289,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>347.05</v>
+        <v>367.63</v>
       </c>
       <c r="C159" t="n">
-        <v>388.12</v>
+        <v>385.28</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3231,10 +3307,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>382.52</v>
+        <v>367.95</v>
       </c>
       <c r="C160" t="n">
-        <v>389.54</v>
+        <v>387.7</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3248,9 +3324,11 @@
           <t>2022-07-31 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>365.9</v>
+      </c>
       <c r="C161" t="n">
-        <v>403.63</v>
+        <v>392.68</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3265,10 +3343,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>411.75</v>
+        <v>375.07</v>
       </c>
       <c r="C162" t="n">
-        <v>392.29</v>
+        <v>392.62</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3282,9 +3360,11 @@
           <t>2022-09-09 22:18:11+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>375.07</v>
+      </c>
       <c r="C163" t="n">
-        <v>385.62</v>
+        <v>391.75</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3299,10 +3379,10 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>418.62</v>
+        <v>415.19</v>
       </c>
       <c r="C164" t="n">
-        <v>382.56</v>
+        <v>391.02</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3317,10 +3397,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>409.48</v>
+        <v>413.28</v>
       </c>
       <c r="C165" t="n">
-        <v>387.45</v>
+        <v>386.98</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3335,10 +3415,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>419.24</v>
+        <v>415.78</v>
       </c>
       <c r="C166" t="n">
-        <v>383.89</v>
+        <v>384.88</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3353,10 +3433,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>406.16</v>
+        <v>413.38</v>
       </c>
       <c r="C167" t="n">
-        <v>381.22</v>
+        <v>384.15</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3371,9 +3451,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>431.77</v>
-      </c>
-      <c r="C168" t="inlineStr"/>
+        <v>417.05</v>
+      </c>
+      <c r="C168" t="n">
+        <v>384.15</v>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3387,10 +3469,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>403.93</v>
+        <v>414.87</v>
       </c>
       <c r="C169" t="n">
-        <v>375.32</v>
+        <v>382.68</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3405,10 +3487,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>367.63</v>
+        <v>408.12</v>
       </c>
       <c r="C170" t="n">
-        <v>376.33</v>
+        <v>381.13</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3423,10 +3505,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>409</v>
+        <v>408.23</v>
       </c>
       <c r="C171" t="n">
-        <v>377.35</v>
+        <v>380.59</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3441,10 +3523,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>381.21</v>
+        <v>405.23</v>
       </c>
       <c r="C172" t="n">
-        <v>390.99</v>
+        <v>381.89</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3459,10 +3541,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>363.01</v>
+        <v>401</v>
       </c>
       <c r="C173" t="n">
-        <v>384.35</v>
+        <v>382.16</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3476,9 +3558,11 @@
           <t>2023-06-16 22:16:54+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>401</v>
+      </c>
       <c r="C174" t="n">
-        <v>389.73</v>
+        <v>382.92</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3493,10 +3577,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>372.68</v>
+        <v>398.43</v>
       </c>
       <c r="C175" t="n">
-        <v>392.54</v>
+        <v>383.79</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3511,10 +3595,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>440.14</v>
+        <v>401.91</v>
       </c>
       <c r="C176" t="n">
-        <v>392.37</v>
+        <v>384.51</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3529,10 +3613,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>436.52</v>
+        <v>403.4</v>
       </c>
       <c r="C177" t="n">
-        <v>393.67</v>
+        <v>385.43</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3547,10 +3631,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>435.59</v>
+        <v>400.72</v>
       </c>
       <c r="C178" t="n">
-        <v>389.9</v>
+        <v>387.47</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3565,10 +3649,10 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>414.08</v>
+        <v>406.53</v>
       </c>
       <c r="C179" t="n">
-        <v>385.74</v>
+        <v>388.52</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3583,10 +3667,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>414.34</v>
+        <v>410.91</v>
       </c>
       <c r="C180" t="n">
-        <v>378.93</v>
+        <v>388.4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3601,10 +3685,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>414.71</v>
+        <v>411.38</v>
       </c>
       <c r="C181" t="n">
-        <v>390.18</v>
+        <v>388.6</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3619,10 +3703,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>407.39</v>
+        <v>410.94</v>
       </c>
       <c r="C182" t="n">
-        <v>387.62</v>
+        <v>388.5</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3637,10 +3721,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>392.42</v>
+        <v>414.21</v>
       </c>
       <c r="C183" t="n">
-        <v>383.06</v>
+        <v>388.37</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3655,10 +3739,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>398.92</v>
+        <v>414.25</v>
       </c>
       <c r="C184" t="n">
-        <v>369.15</v>
+        <v>384.78</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3673,10 +3757,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>388.89</v>
+        <v>408.29</v>
       </c>
       <c r="C185" t="n">
-        <v>377.31</v>
+        <v>382.74</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3691,10 +3775,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>375.01</v>
+        <v>398.81</v>
       </c>
       <c r="C186" t="n">
-        <v>387.9</v>
+        <v>382.02</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3709,10 +3793,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>353.84</v>
+        <v>393.19</v>
       </c>
       <c r="C187" t="n">
-        <v>367.1</v>
+        <v>380.16</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3727,10 +3811,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>388.65</v>
+        <v>389.98</v>
       </c>
       <c r="C188" t="n">
-        <v>387.68</v>
+        <v>381.25</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3745,10 +3829,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>383.73</v>
+        <v>386.11</v>
       </c>
       <c r="C189" t="n">
-        <v>384.26</v>
+        <v>380.51</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3763,10 +3847,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>377.93</v>
+        <v>385.2</v>
       </c>
       <c r="C190" t="n">
-        <v>390.57</v>
+        <v>381.63</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3781,10 +3865,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>382.97</v>
+        <v>382.48</v>
       </c>
       <c r="C191" t="n">
-        <v>373.62</v>
+        <v>380.07</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3798,9 +3882,11 @@
           <t>2024-05-17 22:17:03+00:00</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>381.24</v>
+      </c>
       <c r="C192" t="n">
-        <v>388.8</v>
+        <v>380.71</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3815,10 +3901,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>378.68</v>
+        <v>380.96</v>
       </c>
       <c r="C193" t="n">
-        <v>385.62</v>
+        <v>381.2</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3833,10 +3919,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>365.03</v>
+        <v>377.19</v>
       </c>
       <c r="C194" t="n">
-        <v>386.8</v>
+        <v>382.97</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3851,10 +3937,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>373.37</v>
+        <v>375.47</v>
       </c>
       <c r="C195" t="n">
-        <v>387.85</v>
+        <v>384.02</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3868,9 +3954,11 @@
           <t>2024-08-21 22:17:19+00:00</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>375.47</v>
+      </c>
       <c r="C196" t="n">
-        <v>392.59</v>
+        <v>384.8</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3885,10 +3973,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>365.99</v>
+        <v>374.52</v>
       </c>
       <c r="C197" t="n">
-        <v>382.44</v>
+        <v>384.6</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3903,10 +3991,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>373.42</v>
+        <v>371.3</v>
       </c>
       <c r="C198" t="n">
-        <v>366.44</v>
+        <v>383.62</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3920,9 +4008,11 @@
           <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>370.93</v>
+      </c>
       <c r="C199" t="n">
-        <v>381.9</v>
+        <v>382.24</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3936,9 +4026,11 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>373.42</v>
+      </c>
       <c r="C200" t="n">
-        <v>388.47</v>
+        <v>378.94</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3952,9 +4044,11 @@
           <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>373.42</v>
+      </c>
       <c r="C201" t="n">
-        <v>363.13</v>
+        <v>374.99</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3968,9 +4062,11 @@
           <t>2025-04-18 22:17:25+00:00</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>373.42</v>
+      </c>
       <c r="C202" t="n">
-        <v>360.61</v>
+        <v>372.11</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3985,10 +4081,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>384.36</v>
+        <v>378.89</v>
       </c>
       <c r="C203" t="n">
-        <v>385.18</v>
+        <v>374.29</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4003,10 +4099,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>366.71</v>
+        <v>375.53</v>
       </c>
       <c r="C204" t="n">
-        <v>392.09</v>
+        <v>378.56</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4020,9 +4116,11 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>375.53</v>
+      </c>
       <c r="C205" t="n">
-        <v>388.15</v>
+        <v>379.93</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4037,10 +4135,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>375.78</v>
+        <v>375.62</v>
       </c>
       <c r="C206" t="n">
-        <v>388.25</v>
+        <v>380.84</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4055,10 +4153,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>448.9</v>
+        <v>393.94</v>
       </c>
       <c r="C207" t="n">
-        <v>396.16</v>
+        <v>382.75</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4073,10 +4171,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>419.75</v>
+        <v>399.1</v>
       </c>
       <c r="C208" t="n">
-        <v>393.08</v>
+        <v>383.9</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4090,9 +4188,11 @@
           <t>2025-10-19 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>399.1</v>
+      </c>
       <c r="C209" t="n">
-        <v>389.59</v>
+        <v>390.36</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -7022,28 +7122,28 @@
         <v>0.0434</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7890392475316036</v>
+        <v>-0.9382576009488975</v>
       </c>
       <c r="J2" t="n">
         <v>208</v>
       </c>
       <c r="K2" t="n">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04964772445403642</v>
+        <v>0.1064902059981714</v>
       </c>
       <c r="M2" t="n">
-        <v>22.23962310280702</v>
+        <v>18.23221406403843</v>
       </c>
       <c r="N2" t="n">
-        <v>704.7873698662937</v>
+        <v>454.3028572985751</v>
       </c>
       <c r="O2" t="n">
-        <v>26.54783173568594</v>
+        <v>21.3143814664788</v>
       </c>
       <c r="P2" t="n">
-        <v>405.609005767775</v>
+        <v>408.7020600621958</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -7100,28 +7200,28 @@
         <v>0.0697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1661720922309626</v>
+        <v>0.1379424156148234</v>
       </c>
       <c r="J3" t="n">
         <v>208</v>
       </c>
       <c r="K3" t="n">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02569240354741997</v>
+        <v>0.05589167854779897</v>
       </c>
       <c r="M3" t="n">
-        <v>6.356687660866183</v>
+        <v>3.488955405642383</v>
       </c>
       <c r="N3" t="n">
-        <v>66.27302834372317</v>
+        <v>20.0191553111745</v>
       </c>
       <c r="O3" t="n">
-        <v>8.140824795051369</v>
+        <v>4.474277071346219</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3825351331263</v>
+        <v>381.2350519277584</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -7220,7 +7320,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.72362218973337,173.09204595116844</t>
+          <t>-34.72362689492314,173.0920267933519</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7237,12 +7337,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-34.72283075567437,173.09213080156113</t>
+          <t>-34.72281720565931,173.0921859713191</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.72363283425676,173.09200261053113</t>
+          <t>-34.723627511996995,173.09202428085118</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -7259,12 +7359,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-34.72287888759416,173.09193482838486</t>
+          <t>-34.722854821673664,173.0920328150015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.72361018248677,173.09209484023145</t>
+          <t>-34.72362152123622,173.09204867304385</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -7279,10 +7379,14 @@
           <t>2000-08-19 22:08:38+00:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-34.722854821673664,173.0920328150015</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.723606994263825,173.0921078214792</t>
+          <t>-34.7236166617743,173.09206845898296</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -7299,12 +7403,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-34.722888992171896,173.09189368655132</t>
+          <t>-34.7228662118574,173.09198643886415</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.723613267862504,173.0920822777327</t>
+          <t>-34.723615813296504,173.09207191367048</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -7321,12 +7425,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-34.722844665625885,173.0920741661741</t>
+          <t>-34.72287083991799,173.09196759528328</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.7236233210361,173.09204134491767</t>
+          <t>-34.723613447842716,173.0920815449202</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -7343,12 +7447,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-34.72287035140061,173.09196958432804</t>
+          <t>-34.7228707113608,173.09196811871612</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.723619387187206,173.09205736210734</t>
+          <t>-34.7236146305697,173.09207672929543</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -7365,12 +7469,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-34.72290411044546,173.0918321308121</t>
+          <t>-34.72287703637231,173.09194236581894</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.72364085620625,173.09196994801448</t>
+          <t>-34.72362419522447,173.09203778554198</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -7387,12 +7491,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-34.72292853616187,173.0917326784649</t>
+          <t>-34.7229009993747,173.09184479789633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.72361527335603,173.09207411210798</t>
+          <t>-34.72362517225839,173.0920338074161</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -7409,12 +7513,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-34.722919768624585,173.09176837662997</t>
+          <t>-34.722924165250156,173.09175047520503</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.72364119045396,173.09196858707614</t>
+          <t>-34.723628231916415,173.09202134960032</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -7431,12 +7535,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-34.72292745628981,173.09173707530675</t>
+          <t>-34.72292524512271,173.09174607836354</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.723608948336114,173.09209986523072</t>
+          <t>-34.72362180406194,173.09204752148116</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -7453,12 +7557,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-34.72292043711753,173.09176565477603</t>
+          <t>-34.72292254544105,173.09175707046708</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.72363193435805,173.0920062745951</t>
+          <t>-34.723627357728525,173.09202490897636</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -7473,10 +7577,14 @@
           <t>2001-12-12 22:06:14+00:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-34.72292254544105,173.09175707046708</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.723635791066094,173.0919905714632</t>
+          <t>-34.723629466063834,173.09201632459872</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -7493,12 +7601,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-34.72290056228202,173.09184657756927</t>
+          <t>-34.72291706894091,173.09177936873206</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.72364576707484,173.09194995268865</t>
+          <t>-34.72363273141121,173.09200302928127</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -7515,12 +7623,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-34.72290637304157,173.09182291838664</t>
+          <t>-34.72291490919326,173.09178816241322</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.723643915857735,173.09195749019395</t>
+          <t>-34.72363458263113,173.09199549177802</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -7537,12 +7645,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-34.72291092394294,173.09180438884746</t>
+          <t>-34.72290866134825,173.09181360127397</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.72360881977874,173.09210038866811</t>
+          <t>-34.7236263806949,173.09202888710243</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -7559,12 +7667,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-34.72290961266657,173.09180972786746</t>
+          <t>-34.72291028116044,173.09180700601414</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.72364990660027,173.0919330979881</t>
+          <t>-34.72362936321822,173.09201674334886</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -7603,10 +7711,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-34.72288539257836,173.0919083426764</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>-34.72288384989488,173.09191462387244</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-34.72364846676561,173.09193896049283</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>L7</t>
@@ -7621,12 +7733,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-34.72280553257127,173.09223349895194</t>
+          <t>-34.72285775278358,173.09202088073712</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.723615556182,173.09207296054547</t>
+          <t>-34.72363201149223,173.09200596053248</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7643,12 +7755,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-34.72291205524003,173.09179978263404</t>
+          <t>-34.722867651698785,173.09198057641703</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.72361841015252,173.09206134023265</t>
+          <t>-34.72361697031166,173.09206720273292</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -7665,12 +7777,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-34.72289225751594,173.09188039135105</t>
+          <t>-34.72287382244437,173.09195545164118</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.723610105352364,173.0920951542939</t>
+          <t>-34.723614681992615,173.09207651992043</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -7687,12 +7799,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-34.722877010660895,173.09194247050553</t>
+          <t>-34.722874439518634,173.09195293916338</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.72361946432152,173.0920570480448</t>
+          <t>-34.72361589043085,173.09207159960798</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -7709,12 +7821,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-34.722810649191445,173.09221266635683</t>
+          <t>-34.722859501164386,173.0920137620527</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.72363342561873,173.0920002027176</t>
+          <t>-34.723619387187206,173.09205736210734</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -7731,10 +7843,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-34.72274660119176,173.0924734400126</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>-34.72284068033748,173.09209039258081</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-34.723619387187206,173.09205736210734</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>L5</t>
@@ -7747,10 +7863,14 @@
           <t>2004-07-29 22:06:27+00:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-34.72284068033748,173.09209039258081</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.723645869920226,173.09194953393836</t>
+          <t>-34.72362380955314,173.09203935585478</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -7765,10 +7885,14 @@
           <t>2004-08-30 22:06:20+00:00</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-34.72284772529746,173.09206170848012</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.72359490985782,173.09215702458664</t>
+          <t>-34.723620364221766,173.09205338398192</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -7783,10 +7907,14 @@
           <t>2004-11-02 22:06:28+00:00</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-34.722778638117255,173.092343000892</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.72364407012585,173.09195686206854</t>
+          <t>-34.72362956890945,173.0920159058486</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -7801,10 +7929,14 @@
           <t>2004-11-18 22:06:34+00:00</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-34.72274660119176,173.0924734400126</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.72366985856591,173.0918518604015</t>
+          <t>-34.72363867074011,173.09197884645712</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -7826,7 +7958,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.723626354983494,173.09202899178996</t>
+          <t>-34.723636202448155,173.0919888964624</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -7843,12 +7975,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-34.72270965313554,173.09262387408984</t>
+          <t>-34.72273065981241,173.09253834547647</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.72358945901287,173.092179218324</t>
+          <t>-34.723628411896264,173.09202061678758</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -7863,10 +7995,14 @@
           <t>2005-01-21 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-34.72273065981241,173.09253834547647</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.72363921067887,173.0919766480184</t>
+          <t>-34.72362995458046,173.09201433553557</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -7881,10 +8017,14 @@
           <t>2005-02-06 22:07:07+00:00</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-34.72273065981241,173.09253834547647</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.72362995458046,173.09201433553557</t>
+          <t>-34.723627691976866,173.09202354803847</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -7901,12 +8041,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-34.722764188092704,173.09240183460093</t>
+          <t>-34.72274181878158,173.0924929116544</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.72359113026294,173.0921724136407</t>
+          <t>-34.72362311534471,173.09204218241783</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -7923,12 +8063,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-34.72283517806477,173.0921127954882</t>
+          <t>-34.72276516514152,173.09239785652164</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.723638979276544,173.09197759020643</t>
+          <t>-34.72362488943279,173.09203495897887</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -7945,12 +8085,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-34.72279074834726,173.09229369362185</t>
+          <t>-34.7227702817898,173.0923770239468</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.72362285823045,173.09204322929298</t>
+          <t>-34.72362797480234,173.09202239647564</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7967,12 +8107,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-34.72278334336823,173.09232384329192</t>
+          <t>-34.72277663259952,173.09235116642577</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.723628643298916,173.0920196745998</t>
+          <t>-34.72362002997311,173.09205474491958</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7987,10 +8127,14 @@
           <t>2005-06-30 22:06:59+00:00</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-34.72277663259952,173.09235116642577</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.723591850185926,173.09216948239242</t>
+          <t>-34.723616507505625,173.09206908710794</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -8007,12 +8151,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-34.72279653348194,173.09227013918837</t>
+          <t>-34.722793988023234,173.0922805031395</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.72361807590377,173.09206270117022</t>
+          <t>-34.72361735598335,173.09206563242034</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -8027,10 +8171,14 @@
           <t>2005-09-18 22:06:39+00:00</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-34.72279020840112,173.09229589203548</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.72361149377162,173.09208950116957</t>
+          <t>-34.7236145791468,173.09207693867043</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -8047,12 +8195,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-34.7228236335633,173.0921597997094</t>
+          <t>-34.722798564705926,173.09226186896427</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.723632551431464,173.0920037620941</t>
+          <t>-34.72361758738634,173.09206469023283</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -8067,10 +8215,14 @@
           <t>2006-01-08 22:07:25+00:00</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-34.722810083535116,173.09221496945793</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.72361583900795,173.09207180898298</t>
+          <t>-34.72361949003295,173.09205694335728</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8087,12 +8239,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-34.72292491087645,173.09174743929066</t>
+          <t>-34.72287428525008,173.09195356728281</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.72366993569968,173.0918515463386</t>
+          <t>-34.72363244858591,173.09200418084427</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8107,10 +8259,14 @@
           <t>2006-02-09 22:07:38+00:00</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>-34.72287428525008,173.09195356728281</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.72360905118202,173.09209944648077</t>
+          <t>-34.723627769111076,173.09202323397588</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8125,10 +8281,14 @@
           <t>2006-02-17 22:08:11+00:00</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>-34.72287428525008,173.09195356728281</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.72361072242761,173.09209264179424</t>
+          <t>-34.72362494085562,173.0920347496038</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8145,12 +8305,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-34.72290125648805,173.0918437510299</t>
+          <t>-34.72291308369177,173.09179559516716</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.723617021734555,173.09206699335792</t>
+          <t>-34.7236245037615,173.0920365292917</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8167,12 +8327,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-34.72283278688889,173.0921225313302</t>
+          <t>-34.722886318188294,173.09190457395863</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.723620878450426,173.0920512902317</t>
+          <t>-34.72362391239883,173.0920389371047</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8189,12 +8349,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-34.72273960755863,173.0925019146708</t>
+          <t>-34.72284962794973,173.09205396167837</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.723591001705245,173.0921729370779</t>
+          <t>-34.72361920720714,173.09205809491988</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8209,10 +8369,14 @@
           <t>2006-06-25 22:10:20+00:00</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>-34.72284962794973,173.09205396167837</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.723623578150345,173.09204029804246</t>
+          <t>-34.72361974714732,173.09205589648218</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -8229,12 +8393,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-34.722736059315736,173.09251636137054</t>
+          <t>-34.72282692464797,173.09214639984367</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.72358593653073,173.09219356050178</t>
+          <t>-34.7236160189881,173.0920710761705</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -8249,10 +8413,14 @@
           <t>2006-08-12 22:10:59+00:00</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>-34.72280242145879,173.092246166006</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.723597403875154,173.09214686990396</t>
+          <t>-34.72360666001456,173.09210918241644</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -8269,12 +8437,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-34.72291971720205,173.09176858600335</t>
+          <t>-34.72279846185915,173.0922622877098</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.72361568473926,173.092072437108</t>
+          <t>-34.72360272615675,173.09212519959965</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -8291,12 +8459,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-34.72291532057381,173.09178648742636</t>
+          <t>-34.72291750603262,173.09177758905844</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.72362445233867,173.09203673866676</t>
+          <t>-34.72362005568454,173.09205464023208</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -8313,10 +8481,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-34.7228702742663,173.09196989838773</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>-34.722901770714685,173.09184165729704</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>-34.72362005568454,173.09205464023208</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8331,12 +8503,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-34.72292100276537,173.09176335166876</t>
+          <t>-34.722906578732065,173.0918220808934</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.72362257540478,173.0920443808557</t>
+          <t>-34.72362090416186,173.09205118554416</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -8351,10 +8523,14 @@
           <t>2007-10-02 22:10:31+00:00</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-34.72292100276537,173.09176335166876</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.723623860975984,173.09203914647975</t>
+          <t>-34.72362321819041,173.09204176366774</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -8371,12 +8547,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-34.72293817786967,173.09169342094327</t>
+          <t>-34.722929590322536,173.09172838630965</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.7236334770415,173.09199999334254</t>
+          <t>-34.72362663780903,173.09202784022716</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -8393,12 +8569,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-34.7228596040103,173.09201334330655</t>
+          <t>-34.72289889104501,173.0918533822008</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.72361532477893,173.09207390273298</t>
+          <t>-34.72362422093589,173.09203768085445</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -8437,12 +8613,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-34.72288546971253,173.09190802861656</t>
+          <t>-34.722907555761964,173.09181810280037</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.72365983116727,173.09189268857492</t>
+          <t>-34.72364820965224,173.09194000736866</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -8459,12 +8635,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-34.72287582793557,173.09194728608824</t>
+          <t>-34.72289698840551,173.09186112901176</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.72365188637248,173.09192503704375</t>
+          <t>-34.7236494437963,173.09193498236465</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -8481,12 +8657,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-34.722889377842534,173.09189211625213</t>
+          <t>-34.7228950857655,173.0918688758224</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.72365761999547,173.09190169170924</t>
+          <t>-34.723651474991286,173.0919267120452</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -8501,10 +8677,14 @@
           <t>2009-01-24 22:02:55+00:00</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-34.7228950857655,173.0918688758224</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.72360051496776,173.09213420272158</t>
+          <t>-34.72364129329941,173.09196816832588</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -8521,12 +8701,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-34.7229377664904,173.09169509593104</t>
+          <t>-34.72290362193033,173.09183411985848</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.72361200800091,173.0920874074198</t>
+          <t>-34.723636408139186,173.091988058962</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -8543,12 +8723,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-34.72294522273619,173.09166473677502</t>
+          <t>-34.72291205524003,173.09179978263404</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.723633528464276,173.09199978396742</t>
+          <t>-34.723631111593406,173.09200962459636</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -8565,12 +8745,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-34.72299759622177,173.09145148972158</t>
+          <t>-34.7229713966701,173.09155816562543</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.723659728322076,173.09189310732535</t>
+          <t>-34.72364664126053,173.09194639331105</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8587,12 +8767,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-34.72293889778336,173.0916904897146</t>
+          <t>-34.72296057229419,173.09160223877112</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.72363494259049,173.09199402615238</t>
+          <t>-34.72364273313546,173.09196230582216</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -8607,10 +8787,14 @@
           <t>2010-01-27 22:08:26+00:00</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-34.722968234205624,173.09157104210385</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.723634916879114,173.0919941308399</t>
+          <t>-34.723643195939864,173.09196042144592</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8627,12 +8811,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-34.72295278181901,173.09163395886645</t>
+          <t>-34.72296309198407,173.09159197946505</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.723669601453295,173.09185290727788</t>
+          <t>-34.72364980375494,173.09193351673844</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8647,10 +8831,14 @@
           <t>2010-02-12 22:08:30+00:00</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-34.72296309198407,173.09159197946505</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.723622986787575,173.0920427058554</t>
+          <t>-34.72364443008476,173.09195539644253</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -8667,10 +8855,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-34.72291552626408,173.09178564993292</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>-34.72293414120956,173.09170985676013</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>-34.72364250173326,173.0919632480103</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8683,7 +8875,11 @@
           <t>2010-10-02 22:09:49+00:00</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-34.72291552626408,173.09178564993292</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>-34.72360938543117,173.09209808554348</t>
@@ -8703,10 +8899,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-34.722941726014966,173.09167897417302</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>-34.72292863900681,173.09173225971807</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-34.72360938543117,173.09209808554348</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8721,12 +8921,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-34.72278506605498,173.09231682930664</t>
+          <t>-34.72288076452695,173.0919271862639</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.72364155041301,173.09196712145024</t>
+          <t>-34.72362545508397,173.09203265585333</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -8743,12 +8943,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-34.72285356181028,173.09203794464116</t>
+          <t>-34.722860118239865,173.0920112495758</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.72362710061443,173.09202595585162</t>
+          <t>-34.72362602073511,173.0920303527278</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -8765,12 +8965,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-34.72279522218515,173.09227547819359</t>
+          <t>-34.72284389427992,173.09207730676906</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.72359411280055,173.09216026989748</t>
+          <t>-34.72361805019232,173.09206280585772</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -8787,12 +8987,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-34.722814223109935,173.0921981149446</t>
+          <t>-34.72283795491319,173.0921014893484</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.72362517225839,173.0920338074161</t>
+          <t>-34.72361946432152,173.0920570480448</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8807,10 +9007,14 @@
           <t>2011-03-11 22:11:09+00:00</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>-34.72283795491319,173.0921014893484</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.72362347530465,173.09204071679255</t>
+          <t>-34.72362013281885,173.09205432616952</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8825,10 +9029,14 @@
           <t>2011-05-30 22:11:11+00:00</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>-34.72281201190877,173.09220711797676</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.72362627784925,173.09202930585252</t>
+          <t>-34.72362296107615,173.09204281054292</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -8845,12 +9053,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-34.72271698105289,173.09259403853196</t>
+          <t>-34.72277547556983,173.09235587731047</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.72356683282078,173.09227134324033</t>
+          <t>-34.72360717424417,173.09210708866686</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -8867,12 +9075,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-34.722818696933544,173.09217989950602</t>
+          <t>-34.7227678391692,173.09238696914616</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.72363645956194,173.09198784958687</t>
+          <t>-34.723609848237665,173.09209620116877</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -8889,12 +9097,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-34.72274030177985,173.09249908814243</t>
+          <t>-34.72275866005088,173.0924243421532</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.72360077208278,173.09213315584697</t>
+          <t>-34.72360758562786,173.0921054136672</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -8911,12 +9119,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-34.72281095773125,173.09221141011983</t>
+          <t>-34.72277174736176,173.09237105682692</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.7236170988689,173.09206667929539</t>
+          <t>-34.72360948827705,173.09209766679356</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8933,12 +9141,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-34.72280887508737,173.09221988971922</t>
+          <t>-34.722794707951046,173.09227757192104</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.723614347743705,173.0920778808579</t>
+          <t>-34.72361717600324,173.09206636523288</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8955,12 +9163,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-34.72290295343584,173.0918368417113</t>
+          <t>-34.72281576580805,173.09219183375913</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.72364612703367,173.0919484870626</t>
+          <t>-34.7236195928787,173.09205652460727</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -8999,12 +9207,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-34.722934886834835,173.09170682084502</t>
+          <t>-34.72294781956483,173.0916541634125</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.723653814721516,173.09191718547422</t>
+          <t>-34.72363810508995,173.09198114958338</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -9021,12 +9229,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-34.72293193004446,173.09171885981831</t>
+          <t>-34.722942523061846,173.09167572888387</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.7236475668688,173.0919426245582</t>
+          <t>-34.72364126758804,173.09196827301346</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -9043,12 +9251,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-34.72293676375333,173.0916991787137</t>
+          <t>-34.72294108323515,173.09168159134163</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.72363820793544,173.09198073083317</t>
+          <t>-34.723640496247164,173.09197141364035</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -9065,12 +9273,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-34.7229862062417,173.09149786600602</t>
+          <t>-34.72294745960844,173.09165562902714</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.72364890385831,173.0919371808039</t>
+          <t>-34.723647129776026,173.09194440424704</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -9087,12 +9295,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-34.72280735809948,173.09222606621728</t>
+          <t>-34.722915551975355,173.09178554524627</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.723618358729624,173.09206154960765</t>
+          <t>-34.723638259358175,173.09198052145805</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -9109,12 +9317,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-34.72288850365574,173.09189567559693</t>
+          <t>-34.72291015260392,173.09180752944746</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.72358171983455,173.09221072923856</t>
+          <t>-34.723626946345966,173.0920265839768</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9131,10 +9339,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-34.722952113329015,173.09163668072253</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>-34.72291714607475,173.091779054672</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>-34.723626946345966,173.0920265839768</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9149,12 +9361,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-34.722905781681284,173.0918253261797</t>
+          <t>-34.72291277515627,173.09179685140722</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.723582902566655,173.09220591361745</t>
+          <t>-34.72361401349477,173.09207924179535</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -9171,12 +9383,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-34.72295509582241,173.09162453705656</t>
+          <t>-34.72291583479948,173.09178439369276</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.723630288828666,173.0920129745976</t>
+          <t>-34.72361244509577,173.09208562773244</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -9191,10 +9403,14 @@
           <t>2014-02-23 22:18:20+00:00</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>-34.72295509582241,173.09162453705656</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.72360640289973,173.0921102292912</t>
+          <t>-34.723618358729624,173.09206154960765</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -9216,7 +9432,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.723630520231254,173.09201203240974</t>
+          <t>-34.72361846157539,173.09206113085762</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -9233,12 +9449,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-34.72291516630611,173.09178711554642</t>
+          <t>-34.722930567349366,173.09172440821445</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.72361491339569,173.09207557773297</t>
+          <t>-34.72361727884902,173.09206594648288</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -9255,10 +9471,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-34.72292305966619,173.0917549767331</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
+          <t>-34.722928047648345,173.09173466751244</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>-34.72361727884902,173.09206594648288</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9273,12 +9493,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-34.722919614356975,173.09176900475012</t>
+          <t>-34.7229259393264,173.0917432518225</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.723609951083546,173.09209578241882</t>
+          <t>-34.7236154533362,173.09207337929547</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -9295,12 +9515,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-34.72293753508955,173.09169603811165</t>
+          <t>-34.72292825333825,173.0917338300187</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.72361378209166,173.0920801839828</t>
+          <t>-34.72361730456046,173.09206584179537</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -9315,10 +9535,14 @@
           <t>2015-02-26 22:17:23+00:00</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>-34.72293753508955,173.09169603811165</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.72359511555002,173.09215618708706</t>
+          <t>-34.72360444882676,173.09211818553922</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -9340,7 +9564,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.72362231829051,173.09204542773085</t>
+          <t>-34.72360871693285,173.09210080741806</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -9357,12 +9581,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-34.72286119812182,173.09200685274106</t>
+          <t>-34.722922905398654,173.0917556048533</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.72357030388887,173.09225721044396</t>
+          <t>-34.72359591260716,173.09215294177613</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -9379,12 +9603,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-34.722809363608825,173.09221790067744</t>
+          <t>-34.722885058330306,173.09190970360223</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.72361882153555,173.0920596652325</t>
+          <t>-34.72360380603949,173.092120802726</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -9401,12 +9625,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-34.72277997512876,173.09233755720257</t>
+          <t>-34.72281684569652,173.09218743692912</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.72360825412628,173.09210269179272</t>
+          <t>-34.72359912654643,173.0921398558444</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -9423,12 +9647,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-34.72281288610467,173.09220355863854</t>
+          <t>-34.72281584294294,173.09219151969984</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.72363555966367,173.09199151365115</t>
+          <t>-34.723608228414804,173.0921027964802</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -9445,12 +9669,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-34.72290233636396,173.09183935419082</t>
+          <t>-34.7228331468509,173.0921210657196</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.723643735878284,173.09195822300697</t>
+          <t>-34.72361532477893,173.09207390273298</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -9465,10 +9689,14 @@
           <t>2016-04-01 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>-34.72282615330015,173.0921495404373</t>
+        </is>
+      </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.723585293741834,173.09219617768738</t>
+          <t>-34.72361833301819,173.09206165429515</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -9485,12 +9713,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-34.72295468444408,173.091626212045</t>
+          <t>-34.72285183913957,173.092044958638</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.72361540191329,173.09207358867047</t>
+          <t>-34.72361784450078,173.09206364335776</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -9507,12 +9735,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-34.72274531559792,173.09247867432515</t>
+          <t>-34.72284998791091,173.09205249606717</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.723589484724414,173.09217911363658</t>
+          <t>-34.72359673537575,173.0921495917777</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -9529,12 +9757,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-34.72281000640017,173.09221528351713</t>
+          <t>-34.722836669335344,173.0921067236725</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.72361342213126,173.0920816496077</t>
+          <t>-34.72360090064031,173.09213263240963</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -9551,12 +9779,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-34.722846259740656,173.09206767561096</t>
+          <t>-34.722839060509955,173.09209698782956</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.723637436594245,173.09198387145986</t>
+          <t>-34.7236139363604,173.09207955585782</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -9573,12 +9801,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-34.7227705389077,173.0923759770837</t>
+          <t>-34.72279303668996,173.09228437653522</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.72361290790207,173.09208374335756</t>
+          <t>-34.72361331928542,173.09208206835768</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -9595,12 +9823,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-34.722859912548046,173.0920120870681</t>
+          <t>-34.72280640676794,173.09222993961424</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-34.723648235363584,173.09193990268108</t>
+          <t>-34.72362028708747,173.09205369804448</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -9617,12 +9845,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-34.722939823386554,173.091686720992</t>
+          <t>-34.72285675003559,173.09202496351185</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.72360784274266,173.0921043667924</t>
+          <t>-34.723622986787575,173.0920427058554</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -9639,12 +9867,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-34.722971113848125,173.09155931718044</t>
+          <t>-34.72295545577841,173.09162307144166</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.72360704568679,173.09210761210426</t>
+          <t>-34.72360745707047,173.0921059371046</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -9661,10 +9889,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-34.7229214655681,173.0917614673083</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
+          <t>-34.72294414286656,173.09166913361864</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>-34.72360745707047,173.0921059371046</t>
+        </is>
+      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>L8</t>
@@ -9679,12 +9911,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-34.722941340347084,173.0916805444742</t>
+          <t>-34.72294463137903,173.09166714457035</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.723620749893264,173.09205181366926</t>
+          <t>-34.723613884937485,173.0920797652328</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -9701,12 +9933,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-34.722836797893144,173.09210620024007</t>
+          <t>-34.72289986807591,173.09184940410853</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.72366039681577,173.09189038544744</t>
+          <t>-34.72364057338127,173.09197109957768</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -9723,12 +9955,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-34.72291421498852,173.09179098895348</t>
+          <t>-34.72289745120974,173.09185924465237</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.72364304167173,173.09196104957135</t>
+          <t>-34.72364139614484,173.09196774957564</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -9745,12 +9977,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-34.722955481489564,173.09162296675487</t>
+          <t>-34.72291195239484,173.09180020138072</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.723603343232625,173.0921226871004</t>
+          <t>-34.72363188293526,173.09200648397018</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -9767,12 +9999,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-34.72294108323515,173.09168159134163</t>
+          <t>-34.72291778885666,173.0917764375049</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.72361319072812,173.09208259179516</t>
+          <t>-34.72362815478219,173.0920216636629</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -9789,12 +10021,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-34.723029169257074,173.0913229341756</t>
+          <t>-34.72293534963669,173.09170493648392</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.72363859360601,173.0919791605198</t>
+          <t>-34.7236317029555,173.09200721678297</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -9809,10 +10041,14 @@
           <t>2018-06-26 22:16:36+00:00</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-34.72293534963669,173.09170493648392</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.723601543427826,173.09213001522306</t>
+          <t>-34.723626689231864,173.0920276308521</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -9829,12 +10065,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-34.72292786766967,173.0917354003194</t>
+          <t>-34.72295355315355,173.0916308182632</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.723599203680955,173.09213954178202</t>
+          <t>-34.723616481794174,173.09206919179545</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -9851,12 +10087,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-34.7228479052781,173.09206097567457</t>
+          <t>-34.72293498967969,173.0917064020981</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.72362990315766,173.09201454491063</t>
+          <t>-34.72361730456046,173.09206584179537</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -9873,12 +10109,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-34.72285335611828,173.09203878213336</t>
+          <t>-34.722876367875415,173.09194508767007</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.72361877011267,173.09205987460751</t>
+          <t>-34.72361236796137,173.09208594179492</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -9895,12 +10131,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-34.72280895222233,173.09221957566</t>
+          <t>-34.72285952687586,173.09201365736618</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.723601106332325,173.09213179490996</t>
+          <t>-34.72361223940407,173.09208646523237</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -9917,12 +10153,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-34.72293411549833,173.09170996144684</t>
+          <t>-34.72286106956445,173.0920073761738</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.723616353236935,173.09206971523298</t>
+          <t>-34.723616533217076,173.09206898242044</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -9939,12 +10175,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-34.7229138036079,173.09179266394028</t>
+          <t>-34.72287163697256,173.09196434999973</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.723613370708335,173.0920818589827</t>
+          <t>-34.72361589043085,173.09207159960798</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -9961,12 +10197,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-34.72293856353773,173.0916918506422</t>
+          <t>-34.72288277001626,173.09191902070955</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.723603831750985,173.0921206980385</t>
+          <t>-34.723613884937485,173.0920797652328</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9983,12 +10219,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-34.722962089250444,173.0915960622502</t>
+          <t>-34.722901822137345,173.09184144792374</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.72361403920623,173.09207913710785</t>
+          <t>-34.72361123665697,173.09209054804447</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -10005,12 +10241,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-34.72305066352598,173.09123541584881</t>
+          <t>-34.72293470685633,173.0917075536521</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.723655691647416,173.0919095432795</t>
+          <t>-34.723617407406245,173.09206542304534</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -10027,12 +10263,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-34.72296095796108,173.0916006684692</t>
+          <t>-34.72296003236053,173.09160443719372</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.72358832770491,173.092183824571</t>
+          <t>-34.72361527335603,173.09207411210798</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -10049,12 +10285,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-34.72285073354474,173.09204946015825</t>
+          <t>-34.72295411879883,173.09162851515413</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.72359496128087,173.09215681521172</t>
+          <t>-34.723612985036446,173.09208342929512</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -10071,12 +10307,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-34.722902284941306,173.09183956356412</t>
+          <t>-34.72294116036873,173.0916812772814</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.72362704919162,173.0920261652267</t>
+          <t>-34.723616507505625,173.09206908710794</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -10093,12 +10329,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-34.72283299258148,173.09212169383844</t>
+          <t>-34.72286199517745,173.09200360745825</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.72362445233867,173.09203673866676</t>
+          <t>-34.72361547904765,173.09207327460797</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -10115,12 +10351,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-34.722921414145574,173.09176167668167</t>
+          <t>-34.72287685639238,173.09194309862502</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.72361949003295,173.09205694335728</t>
+          <t>-34.723616481794174,173.09206919179545</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -10137,12 +10373,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-34.72290400760017,173.09183254955872</t>
+          <t>-34.72288228149968,173.09192100975488</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.7236157618736,173.09207212304548</t>
+          <t>-34.723616353236935,173.09206971523298</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -10159,12 +10395,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-34.72290686155652,173.09182092934014</t>
+          <t>-34.722886395322455,173.09190425989883</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.72359691535637,173.09214885896554</t>
+          <t>-34.72361311359374,173.09208290585764</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -10181,10 +10417,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-34.72299201693352,173.09147420677445</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>-34.722911463880216,173.09180219042744</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>-34.723614142052064,173.09207871835787</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>L8</t>
@@ -10199,12 +10439,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-34.72299160555725,173.0914758817644</t>
+          <t>-34.72292480803146,173.09174785803748</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.723636408139186,173.091988058962</t>
+          <t>-34.72361861584403,173.09206050273258</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -10219,10 +10459,14 @@
           <t>2020-09-03 22:17:46+00:00</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>-34.72294861661106,173.0916509181229</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-34.72357310645375,173.0922457995186</t>
+          <t>-34.72360555442074,173.09211368397789</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -10237,10 +10481,14 @@
           <t>2021-01-25 22:17:44+00:00</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>-34.72299160555725,173.0914758817644</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.72360396030844,173.09212017460115</t>
+          <t>-34.723604500249735,173.09211797616427</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -10262,7 +10510,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.723592055878186,173.0921686448929</t>
+          <t>-34.72359799523997,173.09214446209248</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -10279,12 +10527,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-34.722941597459,173.09167949760672</t>
+          <t>-34.72293388409737,173.0917109036274</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.72359889514286,173.09214079803152</t>
+          <t>-34.72359830377811,173.09214320584303</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -10301,12 +10549,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-34.72294563411503,173.09166306178693</t>
+          <t>-34.722937817912815,173.09169488655758</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.72359781525937,173.09214519490467</t>
+          <t>-34.72359817522055,173.0921437292803</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10323,12 +10571,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-34.723048940901485,173.09124242987906</t>
+          <t>-34.72296558596197,173.09158182484518</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.723639699194834,173.09197465895477</t>
+          <t>-34.723606480034185,173.09210991522878</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10345,12 +10593,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-34.7230094489814,173.09140322905986</t>
+          <t>-34.722974353444584,173.09154612664062</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.72364178181524,173.09196617926216</t>
+          <t>-34.72361403920623,173.09207913710785</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10367,12 +10615,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-34.72293339558419,173.09171289267513</t>
+          <t>-34.72297579326478,173.09154026417815</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.723602854714215,173.0921246761623</t>
+          <t>-34.72361619896825,173.09207034335796</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10389,12 +10637,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-34.722919871469664,173.0917679578832</t>
+          <t>-34.72295424735457,173.09162799172026</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-34.72364278455817,173.09196209644702</t>
+          <t>-34.723629131815585,173.09201768553666</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10411,12 +10659,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-34.72293211002303,173.09171812701126</t>
+          <t>-34.72294869374457,173.0916506040626</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.72364592134291,173.09194932456322</t>
+          <t>-34.72363332277318,173.09200062146778</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10433,12 +10681,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-34.72297167949206,173.0915570140704</t>
+          <t>-34.72294121179111,173.09168106790793</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.723618127326645,173.09206249179522</t>
+          <t>-34.72363561108642,173.09199130427606</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10455,12 +10703,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-34.722939591985764,173.09168766317268</t>
+          <t>-34.72294080041202,173.0916827428958</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.72358490806846,173.09219774799874</t>
+          <t>-34.72362293536473,173.09204291523045</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10475,10 +10723,14 @@
           <t>2022-06-13 22:17:12+00:00</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-34.72294080041202,173.0916827428958</t>
+        </is>
+      </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.72359742958667,173.09214676521648</t>
+          <t>-34.72361784450078,173.09206364335776</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -10495,12 +10747,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-34.723006955018384,173.09141338369048</t>
+          <t>-34.72295404166539,173.09162882921447</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.72360907689348,173.0920993417933</t>
+          <t>-34.723616378948385,173.09206961054548</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -10517,12 +10769,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-34.722915757665625,173.0917847077528</t>
+          <t>-34.72295321890859,173.0916321791913</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.72360542586332,173.09211420741525</t>
+          <t>-34.723610156775294,173.09209494491893</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -10537,10 +10789,14 @@
           <t>2022-07-31 22:17:39+00:00</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>-34.722958489692736,173.0916107184011</t>
+        </is>
+      </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.72356919828958,173.09226171200143</t>
+          <t>-34.72359735245214,173.09214707927885</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -10557,12 +10813,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-34.72284060320283,173.09209070664028</t>
+          <t>-34.72293491254605,173.09170671615828</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.72359835520113,173.0921429964681</t>
+          <t>-34.72359750672121,173.09214645115412</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -10577,10 +10833,14 @@
           <t>2022-09-09 22:18:11+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>-34.72293491254605,173.09170671615828</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.723615504759096,173.09207316992047</t>
+          <t>-34.723599743622614,173.09213734334537</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -10597,12 +10857,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-34.72282293934995,173.09216262624346</t>
+          <t>-34.722831758425926,173.09212671878896</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.723623372458945,173.09204113554262</t>
+          <t>-34.723601620562334,173.09212970116067</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -10619,12 +10879,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-34.722846439721316,173.09206694280545</t>
+          <t>-34.722836669335344,173.0921067236725</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.723610799562024,173.0920923277318</t>
+          <t>-34.72361200800091,173.0920874074198</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -10641,12 +10901,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-34.72282134523013,173.09216911680295</t>
+          <t>-34.72283024144276,173.0921328952904</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.72361995283881,173.0920550589821</t>
+          <t>-34.723617407406245,173.09206542304534</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -10663,12 +10923,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-34.722854975942646,173.0920321868823</t>
+          <t>-34.72283641221976,173.09210777053727</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.723626817788926,173.09202710741445</t>
+          <t>-34.723619284341446,173.09205778085735</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -10685,10 +10945,14 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-34.72278912850874,173.09230028886265</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
+          <t>-34.72282697607116,173.09214619047077</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>-34.723619284341446,173.09205778085735</t>
+        </is>
+      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10703,12 +10967,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-34.722860709603815,173.09200884178537</t>
+          <t>-34.722832581196315,173.09212336882194</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.72364198750611,173.09196534176164</t>
+          <t>-34.72362306392187,173.09204239179283</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -10725,12 +10989,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-34.72295404166539,173.09162882921447</t>
+          <t>-34.722849936487876,173.0920527054402</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-34.72363939065844,173.0919759152055</t>
+          <t>-34.72362704919162,173.0920261652267</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -10747,12 +11011,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-34.722847673874405,173.09206191785313</t>
+          <t>-34.722849653661235,173.09205385699184</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.72363676809847,173.09198659333626</t>
+          <t>-34.72362843760767,173.09202051210005</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -10769,12 +11033,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-34.722919125842836,173.0917709937972</t>
+          <t>-34.722857367111295,173.0920224510351</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.72360169769683,173.09212938709828</t>
+          <t>-34.72362509512414,173.0920341214787</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -10791,12 +11055,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-34.72296592020637,173.0915804639167</t>
+          <t>-34.72286824306213,173.09197816862618</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.72361877011267,173.09205987460751</t>
+          <t>-34.72362440091583,173.0920369480418</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -10811,10 +11075,14 @@
           <t>2023-06-16 22:16:54+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>-34.72286824306213,173.09197816862618</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.72360493734505,173.09211619647724</t>
+          <t>-34.72362244684764,173.0920449042933</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -10831,12 +11099,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-34.722941057523954,173.09168169602836</t>
+          <t>-34.72287485090146,173.09195126417816</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.72359771241332,173.0921456136545</t>
+          <t>-34.72362020995316,173.09205401210698</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -10853,12 +11121,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-34.72276760776301,173.09238791132293</t>
+          <t>-34.72286590331992,173.09198769510283</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.723598149509044,173.09214383396778</t>
+          <t>-34.723618358729624,173.09206154960765</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10875,12 +11143,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-34.72277691542898,173.09235001487613</t>
+          <t>-34.72286207231186,173.09200329339862</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.72359480701173,173.09215744333642</t>
+          <t>-34.72361599327666,173.09207118085797</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -10897,12 +11165,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-34.72277930662304,173.0923402790473</t>
+          <t>-34.72286896298265,173.09197523740247</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.723604500249735,173.09211797616427</t>
+          <t>-34.72361074813908,173.09209253710677</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10919,12 +11187,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-34.722834612410324,173.09211509859065</t>
+          <t>-34.72285402461726,173.09203606028373</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-34.72361519622168,173.09207442617046</t>
+          <t>-34.723608048434464,173.09210352929256</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -10941,12 +11209,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-34.722833943909585,173.09211782043897</t>
+          <t>-34.72284276297234,173.09208191297492</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.72363270569982,173.09200313396883</t>
+          <t>-34.723608356972186,173.0921022730428</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10963,12 +11231,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-34.72283299258148,173.09212169383844</t>
+          <t>-34.72284155452995,173.0920868332401</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.723603780328,173.09212090741343</t>
+          <t>-34.72360784274266,173.0921043667924</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -10985,12 +11253,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-34.722851813428065,173.09204506332455</t>
+          <t>-34.72284268583772,173.09208222703438</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.72361036246706,173.09209410741906</t>
+          <t>-34.72360809985743,173.0921033199176</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -11007,12 +11275,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-34.72289030345197,173.091888347534</t>
+          <t>-34.72283427815997,173.09211645951484</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.72362208688765,173.0920463699185</t>
+          <t>-34.723608434106616,173.09210195898035</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -11029,12 +11297,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-34.7228735910415,173.09195639382034</t>
+          <t>-34.722834175313686,173.0921168782607</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.723657851397206,173.09190074952082</t>
+          <t>-34.72361766452068,173.0920643761703</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -11051,12 +11319,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-34.72289937956049,173.09185139315468</t>
+          <t>-34.722849499392154,173.09205448511094</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.72363687094399,173.09198617458603</t>
+          <t>-34.72362290965331,173.09204301991795</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -11073,12 +11341,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-34.722935066813335,173.09170608803794</t>
+          <t>-34.72287387386723,173.09195524226803</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.72360964254588,173.09209703866864</t>
+          <t>-34.723624760875694,173.0920354824165</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -11095,12 +11363,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-34.72298949725356,173.09148446608765</t>
+          <t>-34.72288832367609,173.09189640840322</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.72366312221243,173.0918792885601</t>
+          <t>-34.72362954319804,173.0920160105361</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -11117,12 +11385,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-34.722899996632606,173.09184888067534</t>
+          <t>-34.72289657702392,173.09186280399788</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.72361020819823,173.09209473554395</t>
+          <t>-34.72362674065469,173.092027421477</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -11139,12 +11407,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-34.722912646599795,173.0917973748406</t>
+          <t>-34.72290652730943,173.0918222902667</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.72361900151562,173.09205893241995</t>
+          <t>-34.723628643298916,173.0920196745998</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -11161,12 +11429,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-34.72292755913477,173.0917366565599</t>
+          <t>-34.72290886703872,173.09181276378067</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.72360277757973,173.0921249902247</t>
+          <t>-34.72362576362096,173.09203139960306</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -11183,12 +11451,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-34.72291460065783,173.09178941865332</t>
+          <t>-34.72291586051076,173.09178428900609</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.72364635843576,173.0919475448744</t>
+          <t>-34.72362977460066,173.0920150683483</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -11203,10 +11471,14 @@
           <t>2024-05-17 22:17:03+00:00</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>-34.722919048709045,173.09177130785727</t>
+        </is>
+      </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.72360732851307,173.092106460542</t>
+          <t>-34.723628129070796,173.09202176835043</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -11223,12 +11495,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-34.72292563079144,173.09174450806296</t>
+          <t>-34.722919768624585,173.09176837662997</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-34.723615504759096,173.09207316992047</t>
+          <t>-34.723626869211735,173.0920268980394</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -11245,12 +11517,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-34.72296072656094,173.09160161065034</t>
+          <t>-34.72292946176637,173.09172890974324</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-34.72361247080722,173.09208552304497</t>
+          <t>-34.72362231829051,173.09204542773085</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -11267,12 +11539,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-34.72293928345136,173.09168891941357</t>
+          <t>-34.72293388409737,173.0917109036274</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.72360977110324,173.09209651523122</t>
+          <t>-34.72361961859014,173.09205641991974</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -11287,10 +11559,14 @@
           <t>2024-08-21 22:17:19+00:00</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>-34.72293388409737,173.0917109036274</t>
+        </is>
+      </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.72359758385576,173.09214613709176</t>
+          <t>-34.72361761309779,173.0920645855453</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -11307,12 +11583,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-34.722958258292515,173.0916116605822</t>
+          <t>-34.722936326662754,173.09170095838815</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.723623680996035,173.09203987929237</t>
+          <t>-34.723618127326645,173.09206249179522</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -11329,12 +11605,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-34.722939154895364,173.09168944284724</t>
+          <t>-34.722944605667855,173.0916672492571</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.72366481915701,173.09187237917706</t>
+          <t>-34.72362064704753,173.09205223241932</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -11349,10 +11625,14 @@
           <t>2025-01-12 22:17:45+00:00</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>-34.722945556981514,173.09166337584722</t>
+        </is>
+      </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.72362506941272,173.09203422616622</t>
+          <t>-34.72362419522447,173.09203778554198</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -11367,10 +11647,14 @@
           <t>2025-03-09 22:17:26+00:00</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-34.722939154895364,173.09168944284724</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.723608176991846,173.09210300585517</t>
+          <t>-34.72363267998843,173.0920032386564</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -11385,10 +11669,14 @@
           <t>2025-03-17 22:17:32+00:00</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-34.722939154895364,173.09168944284724</t>
+        </is>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-34.72367332958531,173.09183772756992</t>
+          <t>-34.7236428359809,173.09196188707188</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -11403,10 +11691,14 @@
           <t>2025-04-18 22:17:25+00:00</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-34.722939154895364,173.09168944284724</t>
+        </is>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-34.723679808817174,173.09181134628116</t>
+          <t>-34.72365024084757,173.09193173704946</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11423,12 +11715,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-34.72291102678815,173.0918039701008</t>
+          <t>-34.722925090855206,173.09174670648375</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.72361663606285,173.09206856367044</t>
+          <t>-34.723644635775564,173.09195455894195</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11445,12 +11737,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-34.72295640709067,173.09161919803074</t>
+          <t>-34.722933729830046,173.09171153174773</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.72359886943134,173.092140902719</t>
+          <t>-34.72363365702122,173.09199926052972</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -11465,10 +11757,14 @@
           <t>2025-06-21 22:17:14+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-34.722933729830046,173.09171153174773</t>
+        </is>
+      </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.72360899975906,173.09209965585575</t>
+          <t>-34.72363013456027,173.0920136027228</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -11485,12 +11781,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-34.722933087049526,173.09171414891583</t>
+          <t>-34.722933498429065,173.09171247392825</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.723608742644316,173.09210070273056</t>
+          <t>-34.723627794822484,173.09202312928832</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11507,12 +11803,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-34.722745084191025,173.0924796165014</t>
+          <t>-34.722886395322455,173.09190425989883</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.72358840483957,173.09218351050873</t>
+          <t>-34.72362288394188,173.09204312460545</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -11529,12 +11825,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-34.722820033937765,173.09217445581135</t>
+          <t>-34.72287312823574,173.09195827817865</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.723596323991465,173.09215126677694</t>
+          <t>-34.72361992712737,173.0920551636696</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -11549,10 +11845,14 @@
           <t>2025-10-19 22:17:50+00:00</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>-34.72287312823574,173.09195827817865</t>
+        </is>
+      </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.72360529730588,173.09211473085261</t>
+          <t>-34.723603317521125,173.0921227917879</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
